--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J3" t="n">
         <v>3.95</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="I4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="J4" t="n">
         <v>3.05</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1078,10 +1078,10 @@
         <v>7.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="I5" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="G6" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="H6" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.09</v>
+        <v>1.96</v>
       </c>
       <c r="G8" t="n">
-        <v>980</v>
+        <v>2.34</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>980</v>
+        <v>4.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>2.02</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="G9" t="n">
         <v>3.75</v>
@@ -1627,7 +1627,7 @@
         <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
         <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>2.24</v>
       </c>
       <c r="J10" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
         <v>1000</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.32</v>
+        <v>1.04</v>
       </c>
       <c r="G11" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2.98</v>
+        <v>1.04</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>5.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.93</v>
+        <v>2.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.87</v>
+        <v>1.45</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,31 +2008,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="G12" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="J12" t="n">
-        <v>5.4</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.26</v>
+        <v>1.93</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2155,16 +2155,16 @@
         <v>2.22</v>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H13" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I13" t="n">
         <v>3.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K13" t="n">
         <v>4.5</v>
@@ -2290,13 +2290,13 @@
         <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="H14" t="n">
         <v>1.36</v>
       </c>
       <c r="I14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="J14" t="n">
         <v>4.9</v>
@@ -2320,7 +2320,7 @@
         <v>1.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.42</v>
+        <v>3.75</v>
       </c>
       <c r="G15" t="n">
-        <v>3.35</v>
+        <v>6.4</v>
       </c>
       <c r="H15" t="n">
-        <v>2.2</v>
+        <v>1.61</v>
       </c>
       <c r="I15" t="n">
-        <v>2.96</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P15" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="Q15" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.01</v>
       </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,36 +2543,36 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.59</v>
+        <v>2.64</v>
       </c>
       <c r="G16" t="n">
-        <v>1.98</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>2.02</v>
+        <v>2.42</v>
       </c>
       <c r="I16" t="n">
-        <v>17</v>
+        <v>2.74</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>950</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.57</v>
+        <v>2.36</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.02</v>
+        <v>1.6</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,66 +2678,66 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="G17" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="H17" t="n">
-        <v>5.3</v>
+        <v>2.02</v>
       </c>
       <c r="I17" t="n">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="J17" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>3.75</v>
+        <v>950</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.44</v>
+        <v>2.02</v>
       </c>
       <c r="R17" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,58 +2746,58 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2857,7 +2857,7 @@
         <v>1.37</v>
       </c>
       <c r="P18" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q18" t="n">
         <v>2.14</v>
@@ -2896,7 +2896,7 @@
         <v>10</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD18" t="n">
         <v>13.5</v>
@@ -2914,159 +2914,294 @@
         <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ18" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
         <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Athletic Bilbao</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>Portuguese Primeira Liga</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>17:45:00</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Benfica</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Famalicao</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="F20" t="n">
         <v>1.33</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>1.37</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>10.5</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>12</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J20" t="n">
         <v>5.6</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K20" t="n">
         <v>5.9</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1.78</v>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -835,7 +835,7 @@
         <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -2155,13 +2155,13 @@
         <v>2.22</v>
       </c>
       <c r="G13" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
         <v>3.7</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="G15" t="n">
         <v>6.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="J15" t="n">
         <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,19 +2446,19 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O15" t="n">
         <v>1.15</v>
       </c>
       <c r="P15" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S15" t="n">
         <v>2</v>
@@ -2470,7 +2470,7 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W15" t="n">
         <v>1.19</v>
@@ -2860,7 +2860,7 @@
         <v>1.86</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R18" t="n">
         <v>1.32</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G19" t="n">
         <v>1.86</v>
@@ -2971,7 +2971,7 @@
         <v>5.2</v>
       </c>
       <c r="I19" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J19" t="n">
         <v>3.65</v>
@@ -2998,7 +2998,7 @@
         <v>2.42</v>
       </c>
       <c r="R19" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
         <v>4.7</v>
@@ -3022,7 +3022,7 @@
         <v>14.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA19" t="n">
         <v>190</v>
@@ -3037,7 +3037,7 @@
         <v>22</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF19" t="n">
         <v>9.800000000000001</v>
@@ -3058,7 +3058,7 @@
         <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM19" t="n">
         <v>230</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G20" t="n">
         <v>1.37</v>
       </c>
       <c r="H20" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I20" t="n">
         <v>12</v>
       </c>
       <c r="J20" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="K20" t="n">
         <v>5.9</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
         <v>950</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
         <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.81</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.82</v>
-      </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I3" t="n">
         <v>5.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
@@ -835,7 +835,7 @@
         <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="G5" t="n">
-        <v>7.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>3.6</v>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H9" t="n">
         <v>2.18</v>
       </c>
       <c r="I9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>3.05</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="I10" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H11" t="n">
-        <v>1.04</v>
+        <v>13</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="J11" t="n">
         <v>5.4</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>1.36</v>
       </c>
       <c r="I14" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="J14" t="n">
         <v>4.9</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
         <v>2.42</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="G17" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="H17" t="n">
-        <v>2.02</v>
+        <v>5.8</v>
       </c>
       <c r="I17" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Q17" t="n">
         <v>2.02</v>
@@ -2833,7 +2833,7 @@
         <v>2.6</v>
       </c>
       <c r="H18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
         <v>3.15</v>
@@ -2872,7 +2872,7 @@
         <v>1.85</v>
       </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2899,7 +2899,7 @@
         <v>7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>38</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G19" t="n">
         <v>1.85</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.86</v>
       </c>
       <c r="H19" t="n">
         <v>5.2</v>
       </c>
       <c r="I19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J19" t="n">
         <v>3.65</v>
       </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>2.42</v>
       </c>
       <c r="R19" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S19" t="n">
         <v>4.7</v>
@@ -3058,7 +3058,7 @@
         <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
         <v>230</v>
@@ -3103,10 +3103,10 @@
         <v>1.37</v>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J20" t="n">
         <v>5.8</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -691,13 +691,13 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Q2" t="n">
         <v>1.01</v>
@@ -835,7 +835,7 @@
         <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>1.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="I5" t="n">
         <v>1.62</v>
@@ -1645,7 +1645,7 @@
         <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.05</v>
       </c>
-      <c r="G10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K10" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2020,13 +2020,13 @@
         <v>2.34</v>
       </c>
       <c r="G12" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="J12" t="n">
         <v>3.35</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q12" t="n">
         <v>1.9</v>
@@ -2161,7 +2161,7 @@
         <v>2.9</v>
       </c>
       <c r="I13" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
         <v>3.7</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="H14" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="I14" t="n">
         <v>1.38</v>
       </c>
       <c r="J14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="G15" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="H15" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="I15" t="n">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="K15" t="n">
-        <v>8.4</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,7 +2446,7 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>2.38</v>
+        <v>5.3</v>
       </c>
       <c r="O15" t="n">
         <v>1.15</v>
@@ -2458,10 +2458,10 @@
         <v>1.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2470,10 +2470,10 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="W15" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G16" t="n">
         <v>3.2</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q17" t="n">
         <v>2.02</v>
@@ -2851,7 +2851,7 @@
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O18" t="n">
         <v>1.37</v>
@@ -2869,7 +2869,7 @@
         <v>3.9</v>
       </c>
       <c r="T18" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U18" t="n">
         <v>2.12</v>
@@ -2896,10 +2896,10 @@
         <v>10</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE18" t="n">
         <v>38</v>
@@ -2911,16 +2911,16 @@
         <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
         <v>50</v>
       </c>
       <c r="AJ18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL18" t="n">
         <v>44</v>
@@ -2965,7 +2965,7 @@
         <v>1.84</v>
       </c>
       <c r="G19" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H19" t="n">
         <v>5.2</v>
@@ -3130,7 +3130,7 @@
         <v>2.16</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,10 +703,10 @@
         <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.02</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -808,7 +808,7 @@
         <v>1.81</v>
       </c>
       <c r="H3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
         <v>5.2</v>
@@ -820,94 +820,94 @@
         <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.71</v>
+        <v>1.23</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>1.83</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.84</v>
+        <v>1.09</v>
       </c>
       <c r="I4" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.56</v>
+        <v>2.32</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="H5" t="n">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="I5" t="n">
         <v>1.62</v>
@@ -1087,7 +1087,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="G6" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="H6" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="I6" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="G8" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="G9" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="H9" t="n">
         <v>2.18</v>
@@ -1624,10 +1624,10 @@
         <v>2.22</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FK Napredak</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FK Radnicki 1923</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.3</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>5.3</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.79</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>2.06</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>3.05</v>
+        <v>5.4</v>
       </c>
       <c r="K10" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.24</v>
+        <v>2.22</v>
       </c>
       <c r="G11" t="n">
-        <v>1.36</v>
+        <v>2.88</v>
       </c>
       <c r="H11" t="n">
-        <v>13</v>
+        <v>2.76</v>
       </c>
       <c r="I11" t="n">
-        <v>18.5</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>5.4</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>7.6</v>
+        <v>5.6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.52</v>
+        <v>1.79</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.52</v>
+        <v>1.76</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,36 +2003,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.34</v>
+        <v>2.08</v>
       </c>
       <c r="G12" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2.64</v>
       </c>
       <c r="I12" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>7.4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.92</v>
+        <v>2.14</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>1.48</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,36 +2138,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>11.5</v>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>2.9</v>
+        <v>1.34</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>1.38</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>3.9</v>
       </c>
       <c r="G14" t="n">
-        <v>14</v>
+        <v>6.4</v>
       </c>
       <c r="H14" t="n">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="I14" t="n">
-        <v>1.38</v>
+        <v>1.87</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>5.7</v>
+        <v>7.8</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.97</v>
+        <v>1.4</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="G15" t="n">
-        <v>4.9</v>
+        <v>3.35</v>
       </c>
       <c r="H15" t="n">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="I15" t="n">
-        <v>1.88</v>
+        <v>2.96</v>
       </c>
       <c r="J15" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>980</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="R15" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,36 +2543,36 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.64</v>
+        <v>1.58</v>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>1.98</v>
       </c>
       <c r="H16" t="n">
-        <v>2.42</v>
+        <v>2.02</v>
       </c>
       <c r="I16" t="n">
-        <v>2.74</v>
+        <v>17</v>
       </c>
       <c r="J16" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>980</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.36</v>
+        <v>1.57</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.6</v>
+        <v>2.02</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,66 +2678,66 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.67</v>
+        <v>2.58</v>
       </c>
       <c r="G17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P17" t="n">
         <v>1.86</v>
       </c>
-      <c r="H17" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.68</v>
-      </c>
       <c r="Q17" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,64 +2746,64 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,61 +2818,61 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.58</v>
+        <v>1.85</v>
       </c>
       <c r="G18" t="n">
-        <v>2.6</v>
+        <v>1.86</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.15</v>
+        <v>5.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K18" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="P18" t="n">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="R18" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="S18" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.84</v>
+        <v>2.2</v>
       </c>
       <c r="U18" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,64 +2881,64 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AA18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,66 +2948,66 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.84</v>
+        <v>1.33</v>
       </c>
       <c r="G19" t="n">
-        <v>1.86</v>
+        <v>1.36</v>
       </c>
       <c r="H19" t="n">
-        <v>5.2</v>
+        <v>11</v>
       </c>
       <c r="I19" t="n">
-        <v>5.5</v>
+        <v>11.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.65</v>
+        <v>5.8</v>
       </c>
       <c r="K19" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.68</v>
+        <v>2.22</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.42</v>
+        <v>1.72</v>
       </c>
       <c r="R19" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,192 +3016,57 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>17:45:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Famalicao</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,19 +694,19 @@
         <v>1.29</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
         <v>1.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="R2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S2" t="n">
-        <v>1.02</v>
+        <v>1.27</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -832,22 +832,22 @@
         <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="Q3" t="n">
         <v>1.23</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="S3" t="n">
-        <v>1.23</v>
+        <v>2.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="V3" t="n">
         <v>1.24</v>
@@ -859,7 +859,7 @@
         <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
         <v>40</v>
@@ -868,7 +868,7 @@
         <v>130</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9.4</v>
@@ -904,7 +904,7 @@
         <v>100</v>
       </c>
       <c r="AN3" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AO3" t="n">
         <v>55</v>
@@ -937,94 +937,94 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.83</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.09</v>
+        <v>1.84</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="J4" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="W4" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G5" t="n">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.28</v>
+        <v>1.52</v>
       </c>
       <c r="I5" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="G6" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H6" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,34 +1342,34 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>1.21</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>1.41</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>8.6</v>
       </c>
       <c r="I7" t="n">
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P7" t="n">
         <v>2.58</v>
@@ -1378,76 +1378,76 @@
         <v>1.33</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P8" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="G9" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="H9" t="n">
         <v>2.18</v>
@@ -1624,106 +1624,106 @@
         <v>2.22</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
         <v>2.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>FK Napredak</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>FK Radnicki 1923</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>3.25</v>
       </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>5.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>2.06</v>
       </c>
       <c r="J10" t="n">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.22</v>
+        <v>1.24</v>
       </c>
       <c r="G11" t="n">
-        <v>2.88</v>
+        <v>1.32</v>
       </c>
       <c r="H11" t="n">
-        <v>2.76</v>
+        <v>13</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>18.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>6.2</v>
       </c>
       <c r="K11" t="n">
-        <v>5.6</v>
+        <v>7.6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.79</v>
+        <v>2.52</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.76</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,36 +2003,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="H12" t="n">
-        <v>2.64</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>7.4</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.48</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,36 +2138,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>11.5</v>
+        <v>2.22</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>2.52</v>
       </c>
       <c r="H13" t="n">
-        <v>1.34</v>
+        <v>2.82</v>
       </c>
       <c r="I13" t="n">
-        <v>1.38</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.9</v>
+        <v>11.5</v>
       </c>
       <c r="G14" t="n">
-        <v>6.4</v>
+        <v>12.5</v>
       </c>
       <c r="H14" t="n">
-        <v>1.62</v>
+        <v>1.35</v>
       </c>
       <c r="I14" t="n">
-        <v>1.87</v>
+        <v>1.36</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>5.3</v>
       </c>
       <c r="K14" t="n">
-        <v>7.8</v>
+        <v>5.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.4</v>
+        <v>1.96</v>
       </c>
       <c r="R14" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="G15" t="n">
-        <v>3.35</v>
+        <v>5.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="I15" t="n">
-        <v>2.96</v>
+        <v>1.85</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
-        <v>980</v>
+        <v>5.1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P15" t="n">
-        <v>2.12</v>
+        <v>2.72</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,36 +2543,36 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.58</v>
+        <v>2.62</v>
       </c>
       <c r="G16" t="n">
-        <v>1.98</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="I16" t="n">
-        <v>17</v>
+        <v>2.74</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="K16" t="n">
-        <v>980</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.57</v>
+        <v>2.36</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.02</v>
+        <v>1.6</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,66 +2678,66 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.58</v>
+        <v>1.67</v>
       </c>
       <c r="G17" t="n">
-        <v>2.6</v>
+        <v>1.82</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>5.8</v>
       </c>
       <c r="I17" t="n">
-        <v>3.15</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R17" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,64 +2746,64 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,61 +2818,61 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.85</v>
+        <v>2.58</v>
       </c>
       <c r="G18" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.86</v>
       </c>
-      <c r="H18" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.2</v>
-      </c>
       <c r="U18" t="n">
-        <v>1.78</v>
+        <v>2.08</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,192 +2881,327 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC18" t="n">
         <v>7</v>
       </c>
-      <c r="AC18" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Athletic Bilbao</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>Portuguese Primeira Liga</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>17:45:00</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Benfica</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Famalicao</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="F20" t="n">
         <v>1.33</v>
       </c>
-      <c r="G19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="H19" t="n">
-        <v>11</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="G20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I20" t="n">
         <v>11.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J20" t="n">
         <v>5.8</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K20" t="n">
         <v>6</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>2.22</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q20" t="n">
         <v>1.72</v>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -691,22 +691,22 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
         <v>1.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="R2" t="n">
         <v>1.21</v>
       </c>
       <c r="S2" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -805,10 +805,10 @@
         <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I3" t="n">
         <v>5.2</v>
@@ -817,31 +817,31 @@
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>1.04</v>
+        <v>4.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.48</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.41</v>
-      </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="T3" t="n">
         <v>1.71</v>
@@ -853,19 +853,19 @@
         <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="X3" t="n">
         <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
         <v>40</v>
       </c>
       <c r="AA3" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AB3" t="n">
         <v>10.5</v>
@@ -880,7 +880,7 @@
         <v>60</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
@@ -892,16 +892,16 @@
         <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL3" t="n">
         <v>30</v>
       </c>
       <c r="AM3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN3" t="n">
         <v>9.4</v>
@@ -958,31 +958,31 @@
         <v>1.48</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>1.51</v>
+        <v>2.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
         <v>1.51</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>2.56</v>
+        <v>4.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="V4" t="n">
         <v>1.96</v>
@@ -991,58 +991,58 @@
         <v>1.16</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE4" t="n">
         <v>34</v>
       </c>
-      <c r="AB4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>40</v>
-      </c>
       <c r="AF4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI4" t="n">
         <v>65</v>
       </c>
-      <c r="AG4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>95</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1090,7 +1090,7 @@
         <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1150,7 +1150,7 @@
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="n">
         <v>32</v>
@@ -1159,7 +1159,7 @@
         <v>27</v>
       </c>
       <c r="AI5" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ5" t="n">
         <v>330</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="G6" t="n">
         <v>5.9</v>
@@ -1225,16 +1225,16 @@
         <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>1.88</v>
+        <v>3.55</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
         <v>1.88</v>
@@ -1243,76 +1243,76 @@
         <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
         <v>1.94</v>
       </c>
       <c r="W6" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -1345,7 +1345,7 @@
         <v>1.21</v>
       </c>
       <c r="G7" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
         <v>8.6</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G8" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
         <v>3.65</v>
@@ -1495,13 +1495,13 @@
         <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>2.02</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
         <v>1.26</v>
@@ -1513,76 +1513,76 @@
         <v>1.77</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="T8" t="n">
-        <v>1.48</v>
+        <v>1.69</v>
       </c>
       <c r="U8" t="n">
-        <v>1.81</v>
+        <v>2.16</v>
       </c>
       <c r="V8" t="n">
         <v>1.26</v>
       </c>
       <c r="W8" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM8" t="n">
         <v>100</v>
       </c>
-      <c r="AB8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -1618,7 +1618,7 @@
         <v>3.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I9" t="n">
         <v>2.22</v>
@@ -1630,13 +1630,13 @@
         <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
         <v>1.28</v>
@@ -1645,13 +1645,13 @@
         <v>2.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="S9" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="T9" t="n">
         <v>1.59</v>
@@ -1660,64 +1660,64 @@
         <v>2.22</v>
       </c>
       <c r="V9" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="W9" t="n">
         <v>1.37</v>
       </c>
       <c r="X9" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AB9" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF9" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH9" t="n">
         <v>17</v>
       </c>
-      <c r="AH9" t="n">
-        <v>19</v>
-      </c>
       <c r="AI9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ9" t="n">
         <v>75</v>
       </c>
       <c r="AK9" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AL9" t="n">
         <v>50</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
         <v>40</v>
       </c>
       <c r="AO9" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="G10" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="H10" t="n">
         <v>1.78</v>
       </c>
       <c r="I10" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1900,16 +1900,16 @@
         <v>7.6</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
         <v>2.52</v>
@@ -1918,76 +1918,76 @@
         <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G12" t="n">
         <v>2.72</v>
@@ -2026,7 +2026,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
         <v>3.35</v>
@@ -2035,16 +2035,16 @@
         <v>3.85</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P12" t="n">
         <v>1.91</v>
@@ -2053,76 +2053,76 @@
         <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G13" t="n">
         <v>2.52</v>
@@ -2164,22 +2164,22 @@
         <v>3.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K13" t="n">
         <v>4.5</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
         <v>2.4</v>
@@ -2188,76 +2188,76 @@
         <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2296,7 +2296,7 @@
         <v>1.35</v>
       </c>
       <c r="I14" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="J14" t="n">
         <v>5.3</v>
@@ -2422,28 +2422,28 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G15" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="H15" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="I15" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="J15" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="K15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
         <v>6</v>
@@ -2452,16 +2452,16 @@
         <v>1.15</v>
       </c>
       <c r="P15" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R15" t="n">
         <v>1.7</v>
       </c>
       <c r="S15" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="T15" t="n">
         <v>1.53</v>
@@ -2470,10 +2470,10 @@
         <v>2.5</v>
       </c>
       <c r="V15" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="W15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X15" t="n">
         <v>38</v>
@@ -2485,7 +2485,7 @@
         <v>18</v>
       </c>
       <c r="AA15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB15" t="n">
         <v>32</v>
@@ -2500,7 +2500,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG15" t="n">
         <v>23</v>
@@ -2527,7 +2527,7 @@
         <v>38</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -2557,34 +2557,34 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I16" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K16" t="n">
         <v>4.4</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P16" t="n">
         <v>2.36</v>
@@ -2593,76 +2593,76 @@
         <v>1.6</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2710,94 +2710,94 @@
         <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q17" t="n">
         <v>2.18</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2845,13 +2845,13 @@
         <v>3.45</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.37</v>
@@ -2860,7 +2860,7 @@
         <v>1.82</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R18" t="n">
         <v>1.31</v>
@@ -2869,49 +2869,49 @@
         <v>3.95</v>
       </c>
       <c r="T18" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U18" t="n">
         <v>2.08</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
         <v>11.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA18" t="n">
         <v>55</v>
       </c>
       <c r="AB18" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE18" t="n">
         <v>38</v>
       </c>
       <c r="AF18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG18" t="n">
         <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI18" t="n">
         <v>50</v>
@@ -2926,7 +2926,7 @@
         <v>44</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
         <v>26</v>
@@ -2965,28 +2965,28 @@
         <v>1.85</v>
       </c>
       <c r="G19" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H19" t="n">
         <v>5.2</v>
       </c>
       <c r="I19" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
         <v>3.7</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M19" t="n">
         <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O19" t="n">
         <v>1.46</v>
@@ -3010,49 +3010,49 @@
         <v>1.79</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="X19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
         <v>14.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AB19" t="n">
         <v>6.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ19" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK19" t="n">
         <v>23</v>
@@ -3061,13 +3061,13 @@
         <v>50</v>
       </c>
       <c r="AM19" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO19" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -694,19 +694,19 @@
         <v>1.01</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
         <v>1.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="R2" t="n">
         <v>1.21</v>
       </c>
       <c r="S2" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -940,7 +940,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H4" t="n">
         <v>1.84</v>
@@ -970,7 +970,7 @@
         <v>1.51</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
@@ -988,7 +988,7 @@
         <v>1.96</v>
       </c>
       <c r="W4" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="X4" t="n">
         <v>10.5</v>
@@ -1156,10 +1156,10 @@
         <v>32</v>
       </c>
       <c r="AH5" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
         <v>330</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>5.9</v>
@@ -1261,25 +1261,25 @@
         <v>1.22</v>
       </c>
       <c r="X6" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>26</v>
       </c>
       <c r="AB6" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
         <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>25</v>
@@ -1312,7 +1312,7 @@
         <v>90</v>
       </c>
       <c r="AO6" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G8" t="n">
         <v>2.3</v>
@@ -1534,7 +1534,7 @@
         <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
         <v>38</v>
@@ -1564,7 +1564,7 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ8" t="n">
         <v>30</v>
@@ -1618,7 +1618,7 @@
         <v>3.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I9" t="n">
         <v>2.22</v>
@@ -1627,7 +1627,7 @@
         <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.38</v>
@@ -1645,7 +1645,7 @@
         <v>2.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="R9" t="n">
         <v>1.41</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="G10" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="H10" t="n">
         <v>1.78</v>
       </c>
       <c r="I10" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="J10" t="n">
         <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.22</v>
@@ -1780,7 +1780,7 @@
         <v>2.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
         <v>1.46</v>
@@ -1795,19 +1795,19 @@
         <v>1.98</v>
       </c>
       <c r="V10" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="W10" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1816,10 +1816,10 @@
         <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
         <v>26</v>
@@ -1885,7 +1885,7 @@
         <v>1.24</v>
       </c>
       <c r="G11" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
         <v>13</v>
@@ -1897,7 +1897,7 @@
         <v>6.2</v>
       </c>
       <c r="K11" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1918,13 +1918,13 @@
         <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S11" t="n">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
       <c r="T11" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U11" t="n">
         <v>1.53</v>
@@ -1933,7 +1933,7 @@
         <v>1.05</v>
       </c>
       <c r="W11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="X11" t="n">
         <v>40</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G13" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="H13" t="n">
         <v>2.82</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
         <v>3.7</v>
@@ -2176,7 +2176,7 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.18</v>
@@ -2188,7 +2188,7 @@
         <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S13" t="n">
         <v>2.4</v>
@@ -2200,10 +2200,10 @@
         <v>2.04</v>
       </c>
       <c r="V13" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="W13" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="X13" t="n">
         <v>34</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G14" t="n">
         <v>11.5</v>
       </c>
-      <c r="G14" t="n">
-        <v>12.5</v>
-      </c>
       <c r="H14" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="I14" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="J14" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K14" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2425,10 +2425,10 @@
         <v>4.2</v>
       </c>
       <c r="G15" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="H15" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="I15" t="n">
         <v>1.84</v>
@@ -2437,10 +2437,10 @@
         <v>4.2</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2731,13 +2731,13 @@
         <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="V17" t="n">
         <v>1.14</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G18" t="n">
         <v>2.58</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.62</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
@@ -2851,16 +2851,16 @@
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O18" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P18" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R18" t="n">
         <v>1.31</v>
@@ -2878,7 +2878,7 @@
         <v>1.46</v>
       </c>
       <c r="W18" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X18" t="n">
         <v>12</v>
@@ -2902,7 +2902,7 @@
         <v>13.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF18" t="n">
         <v>15.5</v>
@@ -2920,7 +2920,7 @@
         <v>36</v>
       </c>
       <c r="AK18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
         <v>44</v>
@@ -2932,7 +2932,7 @@
         <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G19" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H19" t="n">
         <v>5.2</v>
       </c>
       <c r="I19" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J19" t="n">
         <v>3.6</v>
@@ -2980,13 +2980,13 @@
         <v>3.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
         <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
         <v>1.46</v>
@@ -3004,7 +3004,7 @@
         <v>4.7</v>
       </c>
       <c r="T19" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U19" t="n">
         <v>1.79</v>
@@ -3016,7 +3016,7 @@
         <v>2.14</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y19" t="n">
         <v>14.5</v>
@@ -3025,7 +3025,7 @@
         <v>38</v>
       </c>
       <c r="AA19" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB19" t="n">
         <v>6.8</v>
@@ -3034,7 +3034,7 @@
         <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
         <v>90</v>
@@ -3049,7 +3049,7 @@
         <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ19" t="n">
         <v>19.5</v>
@@ -3064,7 +3064,7 @@
         <v>200</v>
       </c>
       <c r="AN19" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO19" t="n">
         <v>140</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G20" t="n">
         <v>1.35</v>
@@ -3106,7 +3106,7 @@
         <v>10.5</v>
       </c>
       <c r="I20" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
         <v>5.8</v>
@@ -3115,16 +3115,16 @@
         <v>6</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P20" t="n">
         <v>2.22</v>
@@ -3133,76 +3133,76 @@
         <v>1.72</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,19 +694,19 @@
         <v>1.01</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.02</v>
       </c>
       <c r="P2" t="n">
         <v>1.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="R2" t="n">
         <v>1.21</v>
       </c>
       <c r="S2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -805,19 +805,19 @@
         <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I3" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.34</v>
@@ -850,10 +850,10 @@
         <v>2.22</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X3" t="n">
         <v>19</v>
@@ -970,7 +970,7 @@
         <v>1.51</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
@@ -988,7 +988,7 @@
         <v>1.96</v>
       </c>
       <c r="W4" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="X4" t="n">
         <v>10.5</v>
@@ -1159,7 +1159,7 @@
         <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ5" t="n">
         <v>330</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G6" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="I6" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
@@ -1237,7 +1237,7 @@
         <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q6" t="n">
         <v>1.9</v>
@@ -1249,13 +1249,13 @@
         <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U6" t="n">
         <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
         <v>1.22</v>
@@ -1285,10 +1285,10 @@
         <v>25</v>
       </c>
       <c r="AF6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
@@ -1309,7 +1309,7 @@
         <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1486,7 +1486,7 @@
         <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
@@ -1525,7 +1525,7 @@
         <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W8" t="n">
         <v>1.77</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="n">
         <v>2.18</v>
@@ -1627,7 +1627,7 @@
         <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
         <v>1.38</v>
@@ -1642,7 +1642,7 @@
         <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" t="n">
         <v>1.84</v>
@@ -1663,7 +1663,7 @@
         <v>1.82</v>
       </c>
       <c r="W9" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X9" t="n">
         <v>15.5</v>
@@ -1711,7 +1711,7 @@
         <v>50</v>
       </c>
       <c r="AM9" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN9" t="n">
         <v>40</v>
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="G10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H10" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I10" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>2.82</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="R10" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="T10" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="U10" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC10" t="n">
         <v>1000</v>
@@ -1822,7 +1822,7 @@
         <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF10" t="n">
         <v>1000</v>
@@ -1831,7 +1831,7 @@
         <v>25</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1918,7 +1918,7 @@
         <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
         <v>1.53</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G12" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2050,13 +2050,13 @@
         <v>1.91</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="R12" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S12" t="n">
-        <v>2.86</v>
+        <v>1.76</v>
       </c>
       <c r="T12" t="n">
         <v>1.5</v>
@@ -2065,10 +2065,10 @@
         <v>1.78</v>
       </c>
       <c r="V12" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="W12" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X12" t="n">
         <v>21</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>1.33</v>
       </c>
       <c r="G13" t="n">
-        <v>2.68</v>
+        <v>1.61</v>
       </c>
       <c r="H13" t="n">
-        <v>2.82</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.6</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.7</v>
-      </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2176,82 +2176,82 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>4.8</v>
+        <v>1.55</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="S13" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>1.6</v>
+        <v>2.62</v>
       </c>
       <c r="X13" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10.5</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>11.5</v>
+        <v>2.52</v>
       </c>
       <c r="H14" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.38</v>
       </c>
-      <c r="I14" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>5.5</v>
+        <v>11.5</v>
       </c>
       <c r="H15" t="n">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.84</v>
+        <v>1.41</v>
       </c>
       <c r="J15" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="K15" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.74</v>
+        <v>1.91</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.47</v>
+        <v>1.97</v>
       </c>
       <c r="R15" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.64</v>
+        <v>4.2</v>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="H16" t="n">
-        <v>2.42</v>
+        <v>1.71</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7</v>
+        <v>1.84</v>
       </c>
       <c r="J16" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>2.36</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>2.36</v>
+        <v>2.74</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="R16" t="n">
-        <v>1.47</v>
+        <v>1.71</v>
       </c>
       <c r="S16" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="V16" t="n">
-        <v>1.58</v>
+        <v>2.18</v>
       </c>
       <c r="W16" t="n">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Z16" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AA16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF16" t="n">
         <v>50</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AG16" t="n">
         <v>23</v>
       </c>
-      <c r="AC16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>19</v>
-      </c>
       <c r="AH16" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="AJ16" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AK16" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AL16" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,120 +2678,120 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.67</v>
+        <v>2.64</v>
       </c>
       <c r="G17" t="n">
-        <v>1.82</v>
+        <v>2.96</v>
       </c>
       <c r="H17" t="n">
-        <v>5.8</v>
+        <v>2.42</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>2.68</v>
       </c>
       <c r="J17" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.01</v>
       </c>
-      <c r="N17" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="U17" t="n">
         <v>1.01</v>
       </c>
-      <c r="P17" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.52</v>
-      </c>
       <c r="V17" t="n">
-        <v>1.14</v>
+        <v>1.6</v>
       </c>
       <c r="W17" t="n">
-        <v>2.2</v>
+        <v>1.51</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z17" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.800000000000001</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE17" t="n">
         <v>36</v>
       </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF17" t="n">
-        <v>13.5</v>
+        <v>32</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL17" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN17" t="n">
         <v>1000</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.56</v>
+        <v>1.67</v>
       </c>
       <c r="G18" t="n">
-        <v>2.58</v>
+        <v>1.82</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>5.8</v>
       </c>
       <c r="I18" t="n">
-        <v>3.15</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>3.45</v>
+        <v>1.68</v>
       </c>
       <c r="O18" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.84</v>
+        <v>1.67</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R18" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>3.95</v>
+        <v>2.18</v>
       </c>
       <c r="T18" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="U18" t="n">
-        <v>2.08</v>
+        <v>1.52</v>
       </c>
       <c r="V18" t="n">
-        <v>1.46</v>
+        <v>1.14</v>
       </c>
       <c r="W18" t="n">
-        <v>1.63</v>
+        <v>2.2</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.5</v>
+        <v>25</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.5</v>
+        <v>70</v>
       </c>
       <c r="AA18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.2</v>
+        <v>12.5</v>
       </c>
       <c r="AD18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AG18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH18" t="n">
         <v>36</v>
       </c>
-      <c r="AF18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI18" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,255 +2953,390 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.87</v>
       </c>
-      <c r="G19" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="H19" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="U19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.46</v>
       </c>
-      <c r="P19" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.23</v>
-      </c>
       <c r="W19" t="n">
-        <v>2.14</v>
+        <v>1.63</v>
       </c>
       <c r="X19" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>38</v>
+        <v>19.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AB19" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.4</v>
+        <v>15.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM19" t="n">
         <v>110</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>200</v>
-      </c>
       <c r="AN19" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
-        <v>140</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Athletic Bilbao</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Portuguese Primeira Liga</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>17:45:00</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Benfica</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Famalicao</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="F21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>12</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6</v>
+      </c>
+      <c r="L21" t="n">
         <v>1.34</v>
       </c>
-      <c r="G20" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="X21" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>590</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG21" t="n">
         <v>10.5</v>
       </c>
-      <c r="I20" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="X20" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>590</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC20" t="n">
+      <c r="AH21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK21" t="n">
         <v>14.5</v>
       </c>
-      <c r="AD20" t="n">
-        <v>46</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>240</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AO20" t="n">
+      <c r="AL21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AO21" t="n">
         <v>310</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -694,19 +694,19 @@
         <v>1.01</v>
       </c>
       <c r="O2" t="n">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
         <v>1.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="R2" t="n">
         <v>1.21</v>
       </c>
       <c r="S2" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G3" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H3" t="n">
         <v>4.9</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
         <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.34</v>
@@ -835,13 +835,13 @@
         <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
         <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T3" t="n">
         <v>1.71</v>
@@ -850,7 +850,7 @@
         <v>2.22</v>
       </c>
       <c r="V3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
         <v>2.22</v>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G4" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="I4" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="O4" t="n">
         <v>1.53</v>
@@ -970,25 +970,25 @@
         <v>1.51</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T4" t="n">
         <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V4" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="W4" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
         <v>10.5</v>
@@ -1000,13 +1000,13 @@
         <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
         <v>14</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
         <v>12</v>
@@ -1015,10 +1015,10 @@
         <v>34</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH4" t="n">
         <v>29</v>
@@ -1027,19 +1027,19 @@
         <v>65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AK4" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AL4" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AM4" t="n">
         <v>290</v>
       </c>
       <c r="AN4" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AO4" t="n">
         <v>29</v>
@@ -1084,7 +1084,7 @@
         <v>1.61</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
         <v>4.6</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="G6" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H6" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
@@ -1237,7 +1237,7 @@
         <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q6" t="n">
         <v>1.9</v>
@@ -1255,10 +1255,10 @@
         <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W6" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1270,7 +1270,7 @@
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
@@ -1282,19 +1282,19 @@
         <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ6" t="n">
         <v>140</v>
@@ -1342,109 +1342,109 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="H7" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="J7" t="n">
         <v>5.7</v>
       </c>
       <c r="K7" t="n">
-        <v>17</v>
+        <v>7.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.58</v>
+        <v>2.82</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="R7" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="W7" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1486,7 +1486,7 @@
         <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
@@ -1525,13 +1525,13 @@
         <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W8" t="n">
         <v>1.77</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
         <v>1000</v>
@@ -1561,19 +1561,19 @@
         <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
         <v>65</v>
       </c>
       <c r="AJ8" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
         <v>100</v>
@@ -1642,7 +1642,7 @@
         <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q9" t="n">
         <v>1.84</v>
@@ -1654,13 +1654,13 @@
         <v>3.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="U9" t="n">
         <v>2.22</v>
       </c>
       <c r="V9" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
         <v>1.36</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="G10" t="n">
         <v>5.3</v>
@@ -1756,10 +1756,10 @@
         <v>1.79</v>
       </c>
       <c r="I10" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="J10" t="n">
-        <v>2.82</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>4.6</v>
@@ -1795,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="W10" t="n">
         <v>1.23</v>
@@ -1906,10 +1906,10 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>2.52</v>
+        <v>5.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
         <v>2.52</v>
@@ -1918,16 +1918,16 @@
         <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.24</v>
+        <v>1.61</v>
       </c>
       <c r="S11" t="n">
-        <v>1.53</v>
+        <v>2.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.74</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>1.76</v>
       </c>
       <c r="V11" t="n">
         <v>1.05</v>
@@ -1936,55 +1936,55 @@
         <v>4.2</v>
       </c>
       <c r="X11" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>280</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH11" t="n">
         <v>40</v>
       </c>
-      <c r="Y11" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH11" t="n">
+      <c r="AI11" t="n">
+        <v>210</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL11" t="n">
         <v>48</v>
       </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>55</v>
-      </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2050,13 +2050,13 @@
         <v>1.91</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="S12" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="T12" t="n">
         <v>1.5</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G14" t="n">
         <v>2.52</v>
@@ -2299,22 +2299,22 @@
         <v>3.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
         <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P14" t="n">
         <v>2.4</v>
@@ -2329,70 +2329,70 @@
         <v>2.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="U14" t="n">
-        <v>2.04</v>
+        <v>2.48</v>
       </c>
       <c r="V14" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="W14" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="X14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL14" t="n">
         <v>36</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AM14" t="n">
         <v>70</v>
       </c>
-      <c r="AB14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>85</v>
-      </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -2425,7 +2425,7 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="H15" t="n">
         <v>1.4</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="Q15" t="n">
         <v>1.97</v>
@@ -2560,7 +2560,7 @@
         <v>4.2</v>
       </c>
       <c r="G16" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
         <v>1.71</v>
@@ -2572,7 +2572,7 @@
         <v>4.2</v>
       </c>
       <c r="K16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
         <v>1.21</v>
@@ -2596,7 +2596,7 @@
         <v>1.71</v>
       </c>
       <c r="S16" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="T16" t="n">
         <v>1.53</v>
@@ -2857,7 +2857,7 @@
         <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q18" t="n">
         <v>2.18</v>
@@ -2869,7 +2869,7 @@
         <v>2.18</v>
       </c>
       <c r="T18" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="U18" t="n">
         <v>1.52</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G19" t="n">
         <v>2.6</v>
       </c>
       <c r="H19" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I19" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.15</v>
       </c>
       <c r="J19" t="n">
         <v>3.4</v>
@@ -3010,10 +3010,10 @@
         <v>2.08</v>
       </c>
       <c r="V19" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W19" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X19" t="n">
         <v>12</v>
@@ -3022,7 +3022,7 @@
         <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="n">
         <v>55</v>
@@ -3031,7 +3031,7 @@
         <v>10</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD19" t="n">
         <v>13.5</v>
@@ -3283,7 +3283,7 @@
         <v>1.09</v>
       </c>
       <c r="W21" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="X21" t="n">
         <v>21</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -694,19 +694,19 @@
         <v>1.01</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="R2" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -826,28 +826,28 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="R3" t="n">
         <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T3" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U3" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
         <v>1.24</v>
@@ -895,7 +895,7 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
         <v>30</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G4" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="I4" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
         <v>1.56</v>
@@ -985,10 +985,10 @@
         <v>1.66</v>
       </c>
       <c r="V4" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X4" t="n">
         <v>10.5</v>
@@ -1039,7 +1039,7 @@
         <v>290</v>
       </c>
       <c r="AN4" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AO4" t="n">
         <v>29</v>
@@ -1078,58 +1078,58 @@
         <v>8.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="I5" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.78</v>
-      </c>
       <c r="V5" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="W5" t="n">
         <v>1.13</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="Z5" t="n">
         <v>9</v>
@@ -1159,22 +1159,22 @@
         <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AK5" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AL5" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AM5" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AN5" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="AO5" t="n">
         <v>10.5</v>
@@ -1210,52 +1210,52 @@
         <v>4.3</v>
       </c>
       <c r="G6" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="I6" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="O6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.31</v>
       </c>
-      <c r="P6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.34</v>
-      </c>
       <c r="S6" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="T6" t="n">
         <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="W6" t="n">
         <v>1.21</v>
@@ -1267,7 +1267,7 @@
         <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA6" t="n">
         <v>980</v>
@@ -1297,19 +1297,19 @@
         <v>980</v>
       </c>
       <c r="AJ6" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL6" t="n">
         <v>80</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN6" t="n">
         <v>85</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>95</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="G7" t="n">
         <v>1.34</v>
@@ -1354,7 +1354,7 @@
         <v>15.5</v>
       </c>
       <c r="J7" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="K7" t="n">
         <v>7.6</v>
@@ -1369,28 +1369,28 @@
         <v>6.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T7" t="n">
         <v>1.86</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W7" t="n">
         <v>3.9</v>
@@ -1399,7 +1399,7 @@
         <v>42</v>
       </c>
       <c r="Y7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z7" t="n">
         <v>140</v>
@@ -1429,7 +1429,7 @@
         <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ7" t="n">
         <v>13</v>
@@ -1480,55 +1480,55 @@
         <v>1.95</v>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="H8" t="n">
         <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
         <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S8" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="T8" t="n">
         <v>1.69</v>
       </c>
       <c r="U8" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V8" t="n">
         <v>1.26</v>
       </c>
       <c r="W8" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
@@ -1543,7 +1543,7 @@
         <v>95</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC8" t="n">
         <v>10.5</v>
@@ -1552,7 +1552,7 @@
         <v>20</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF8" t="n">
         <v>16.5</v>
@@ -1576,10 +1576,10 @@
         <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO8" t="n">
         <v>55</v>
@@ -1630,7 +1630,7 @@
         <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
@@ -1642,22 +1642,22 @@
         <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S9" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="T9" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="U9" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V9" t="n">
         <v>1.83</v>
@@ -1699,22 +1699,22 @@
         <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK9" t="n">
         <v>42</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO9" t="n">
         <v>14.5</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="G10" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="I10" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="J10" t="n">
         <v>3.4</v>
@@ -1765,10 +1765,10 @@
         <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
         <v>2.22</v>
@@ -1780,25 +1780,25 @@
         <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="T10" t="n">
         <v>1.45</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="W10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
         <v>1000</v>
@@ -1822,7 +1822,7 @@
         <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AF10" t="n">
         <v>1000</v>
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" t="n">
         <v>18.5</v>
       </c>
       <c r="J11" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K11" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
         <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S11" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="T11" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U11" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="V11" t="n">
         <v>1.05</v>
       </c>
       <c r="W11" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="X11" t="n">
         <v>34</v>
@@ -1942,7 +1942,7 @@
         <v>60</v>
       </c>
       <c r="Z11" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -1951,40 +1951,40 @@
         <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE11" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="AF11" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG11" t="n">
         <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI11" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK11" t="n">
         <v>17.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2023,7 +2023,7 @@
         <v>2.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I12" t="n">
         <v>3.3</v>
@@ -2038,31 +2038,31 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>1.91</v>
+        <v>3.45</v>
       </c>
       <c r="O12" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R12" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>1.9</v>
+        <v>2.92</v>
       </c>
       <c r="T12" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>1.78</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
         <v>1.45</v>
@@ -2071,19 +2071,19 @@
         <v>1.62</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC12" t="n">
         <v>11.5</v>
@@ -2092,10 +2092,10 @@
         <v>20</v>
       </c>
       <c r="AE12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG12" t="n">
         <v>17</v>
@@ -2104,7 +2104,7 @@
         <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="n">
         <v>50</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G13" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="H13" t="n">
         <v>8</v>
@@ -2167,31 +2167,31 @@
         <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="O13" t="n">
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
         <v>1.13</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="T13" t="n">
         <v>1.01</v>
@@ -2203,7 +2203,7 @@
         <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="G14" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.24</v>
@@ -2311,7 +2311,7 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.19</v>
@@ -2329,16 +2329,16 @@
         <v>2.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U14" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W14" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="X14" t="n">
         <v>29</v>
@@ -2347,22 +2347,22 @@
         <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="n">
         <v>60</v>
       </c>
       <c r="AB14" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF14" t="n">
         <v>23</v>
@@ -2371,16 +2371,16 @@
         <v>14.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ14" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL14" t="n">
         <v>36</v>
@@ -2389,10 +2389,10 @@
         <v>70</v>
       </c>
       <c r="AN14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="G15" t="n">
         <v>11</v>
@@ -2434,7 +2434,7 @@
         <v>1.41</v>
       </c>
       <c r="J15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
         <v>5.3</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>4.2</v>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
         <v>1.71</v>
@@ -2572,7 +2572,7 @@
         <v>4.2</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L16" t="n">
         <v>1.21</v>
@@ -2587,19 +2587,19 @@
         <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q16" t="n">
         <v>1.47</v>
       </c>
       <c r="R16" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T16" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U16" t="n">
         <v>2.5</v>
@@ -2614,10 +2614,10 @@
         <v>38</v>
       </c>
       <c r="Y16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA16" t="n">
         <v>24</v>
@@ -2632,7 +2632,7 @@
         <v>13.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF16" t="n">
         <v>50</v>
@@ -2641,7 +2641,7 @@
         <v>23</v>
       </c>
       <c r="AH16" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
         <v>30</v>
@@ -2659,7 +2659,7 @@
         <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO16" t="n">
         <v>8</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G17" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H17" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I17" t="n">
         <v>2.68</v>
@@ -2716,7 +2716,7 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="O17" t="n">
         <v>1.19</v>
@@ -2725,7 +2725,7 @@
         <v>2.36</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R17" t="n">
         <v>1.47</v>
@@ -2749,7 +2749,7 @@
         <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z17" t="n">
         <v>29</v>
@@ -2827,34 +2827,34 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G18" t="n">
         <v>1.82</v>
       </c>
       <c r="H18" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
         <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
         <v>4.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>1.68</v>
+        <v>2.98</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P18" t="n">
         <v>1.68</v>
@@ -2863,16 +2863,16 @@
         <v>2.18</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>2.18</v>
+        <v>3.7</v>
       </c>
       <c r="T18" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="U18" t="n">
-        <v>1.52</v>
+        <v>1.75</v>
       </c>
       <c r="V18" t="n">
         <v>1.14</v>
@@ -2881,55 +2881,55 @@
         <v>2.2</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y18" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Z18" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK18" t="n">
         <v>26</v>
       </c>
-      <c r="AK18" t="n">
-        <v>30</v>
-      </c>
       <c r="AL18" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2989,7 +2989,7 @@
         <v>3.45</v>
       </c>
       <c r="O19" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P19" t="n">
         <v>1.84</v>
@@ -3106,7 +3106,7 @@
         <v>5.3</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J20" t="n">
         <v>3.55</v>
@@ -3124,16 +3124,16 @@
         <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P20" t="n">
         <v>1.68</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R20" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S20" t="n">
         <v>4.7</v>
@@ -3154,7 +3154,7 @@
         <v>10.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z20" t="n">
         <v>38</v>
@@ -3196,7 +3196,7 @@
         <v>50</v>
       </c>
       <c r="AM20" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN20" t="n">
         <v>17.5</v>
@@ -3256,25 +3256,25 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="R21" t="n">
         <v>1.47</v>
       </c>
       <c r="S21" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="T21" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="U21" t="n">
         <v>1.73</v>
@@ -3283,7 +3283,7 @@
         <v>1.09</v>
       </c>
       <c r="W21" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="X21" t="n">
         <v>21</v>
@@ -3295,10 +3295,10 @@
         <v>110</v>
       </c>
       <c r="AA21" t="n">
-        <v>590</v>
+        <v>490</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC21" t="n">
         <v>14.5</v>
@@ -3334,7 +3334,7 @@
         <v>210</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AO21" t="n">
         <v>310</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -694,19 +694,19 @@
         <v>1.01</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
         <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -826,13 +826,13 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
         <v>1.74</v>
@@ -841,13 +841,13 @@
         <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V3" t="n">
         <v>1.24</v>
@@ -901,7 +901,7 @@
         <v>30</v>
       </c>
       <c r="AM3" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN3" t="n">
         <v>9.4</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G4" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="I4" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="J4" t="n">
         <v>2.74</v>
       </c>
       <c r="K4" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -985,10 +985,10 @@
         <v>1.66</v>
       </c>
       <c r="V4" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="W4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
         <v>10.5</v>
@@ -1081,7 +1081,7 @@
         <v>1.51</v>
       </c>
       <c r="I5" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="J5" t="n">
         <v>4.1</v>
@@ -1093,40 +1093,40 @@
         <v>1.39</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="O5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.32</v>
       </c>
-      <c r="P5" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S5" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="W5" t="n">
         <v>1.13</v>
       </c>
       <c r="X5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
         <v>8</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G6" t="n">
         <v>5.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="I6" t="n">
         <v>2.06</v>
@@ -1222,7 +1222,7 @@
         <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.35</v>
@@ -1237,13 +1237,13 @@
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q6" t="n">
         <v>1.96</v>
       </c>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
         <v>3.15</v>
@@ -1252,10 +1252,10 @@
         <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="W6" t="n">
         <v>1.21</v>
@@ -1267,7 +1267,7 @@
         <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>980</v>
@@ -1342,40 +1342,40 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H7" t="n">
         <v>10.5</v>
       </c>
       <c r="I7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
         <v>6.2</v>
       </c>
       <c r="K7" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
         <v>6.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P7" t="n">
         <v>2.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R7" t="n">
         <v>1.72</v>
@@ -1384,19 +1384,19 @@
         <v>2.08</v>
       </c>
       <c r="T7" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="X7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y7" t="n">
         <v>60</v>
@@ -1429,10 +1429,10 @@
         <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK7" t="n">
         <v>16.5</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="G8" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="H8" t="n">
         <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
         <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O8" t="n">
         <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="R8" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
         <v>1.69</v>
       </c>
       <c r="U8" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
@@ -1537,7 +1537,7 @@
         <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
         <v>95</v>
@@ -1549,10 +1549,10 @@
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
         <v>16.5</v>
@@ -1579,7 +1579,7 @@
         <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
         <v>55</v>
@@ -1642,19 +1642,19 @@
         <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="R9" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S9" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U9" t="n">
         <v>2.24</v>
@@ -1708,13 +1708,13 @@
         <v>42</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM9" t="n">
         <v>85</v>
       </c>
       <c r="AN9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO9" t="n">
         <v>14.5</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="G10" t="n">
         <v>5.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="I10" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="J10" t="n">
         <v>3.4</v>
@@ -1765,13 +1765,13 @@
         <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>2.22</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
@@ -1780,25 +1780,25 @@
         <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="W10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
         <v>1000</v>
@@ -1822,16 +1822,16 @@
         <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="K11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q11" t="n">
         <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S11" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="T11" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="X11" t="n">
         <v>34</v>
@@ -1942,7 +1942,7 @@
         <v>60</v>
       </c>
       <c r="Z11" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -1951,13 +1951,13 @@
         <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE11" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="AF11" t="n">
         <v>9.800000000000001</v>
@@ -1966,22 +1966,22 @@
         <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
         <v>17.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AN11" t="n">
         <v>4.9</v>
@@ -2020,10 +2020,10 @@
         <v>2.4</v>
       </c>
       <c r="G12" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="H12" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="I12" t="n">
         <v>3.3</v>
@@ -2035,31 +2035,31 @@
         <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R12" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="S12" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U12" t="n">
         <v>2.16</v>
@@ -2068,58 +2068,58 @@
         <v>1.45</v>
       </c>
       <c r="W12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK12" t="n">
         <v>32</v>
       </c>
-      <c r="AA12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AL12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
         <v>24</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>1000</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="G13" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="I13" t="n">
         <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="L13" t="n">
         <v>1.39</v>
@@ -2176,22 +2176,22 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="O13" t="n">
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R13" t="n">
         <v>1.13</v>
       </c>
       <c r="S13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T13" t="n">
         <v>1.01</v>
@@ -2203,7 +2203,7 @@
         <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2290,16 +2290,16 @@
         <v>2.28</v>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H14" t="n">
         <v>2.78</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
         <v>4.4</v>
@@ -2308,7 +2308,7 @@
         <v>1.24</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
         <v>5.1</v>
@@ -2323,22 +2323,22 @@
         <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S14" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U14" t="n">
         <v>2.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W14" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X14" t="n">
         <v>29</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
         <v>11</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q15" t="n">
         <v>1.96</v>
@@ -2560,7 +2560,7 @@
         <v>4.2</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
         <v>1.71</v>
@@ -2572,7 +2572,7 @@
         <v>4.2</v>
       </c>
       <c r="K16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
         <v>1.21</v>
@@ -2587,7 +2587,7 @@
         <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q16" t="n">
         <v>1.47</v>
@@ -2599,7 +2599,7 @@
         <v>2.16</v>
       </c>
       <c r="T16" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U16" t="n">
         <v>2.5</v>
@@ -2614,10 +2614,10 @@
         <v>38</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA16" t="n">
         <v>24</v>
@@ -2632,7 +2632,7 @@
         <v>13.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF16" t="n">
         <v>50</v>
@@ -2641,7 +2641,7 @@
         <v>23</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI16" t="n">
         <v>30</v>
@@ -2659,7 +2659,7 @@
         <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO16" t="n">
         <v>8</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G17" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H17" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I17" t="n">
         <v>2.68</v>
@@ -2716,7 +2716,7 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="O17" t="n">
         <v>1.19</v>
@@ -2728,7 +2728,7 @@
         <v>1.61</v>
       </c>
       <c r="R17" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S17" t="n">
         <v>2.28</v>
@@ -2761,7 +2761,7 @@
         <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
         <v>18</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="G18" t="n">
         <v>1.82</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="I18" t="n">
         <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
         <v>4.1</v>
@@ -2869,10 +2869,10 @@
         <v>3.7</v>
       </c>
       <c r="T18" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U18" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V18" t="n">
         <v>1.14</v>
@@ -2908,7 +2908,7 @@
         <v>11.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
         <v>30</v>
@@ -3100,13 +3100,13 @@
         <v>1.86</v>
       </c>
       <c r="G20" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H20" t="n">
         <v>5.3</v>
       </c>
       <c r="I20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J20" t="n">
         <v>3.55</v>
@@ -3124,7 +3124,7 @@
         <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P20" t="n">
         <v>1.68</v>
@@ -3133,7 +3133,7 @@
         <v>2.42</v>
       </c>
       <c r="R20" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
         <v>4.7</v>
@@ -3148,13 +3148,13 @@
         <v>1.22</v>
       </c>
       <c r="W20" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X20" t="n">
         <v>10.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z20" t="n">
         <v>38</v>
@@ -3235,10 +3235,10 @@
         <v>1.33</v>
       </c>
       <c r="G21" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H21" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I21" t="n">
         <v>12</v>
@@ -3262,22 +3262,22 @@
         <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q21" t="n">
         <v>1.68</v>
       </c>
       <c r="R21" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S21" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="T21" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U21" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V21" t="n">
         <v>1.09</v>
@@ -3295,7 +3295,7 @@
         <v>110</v>
       </c>
       <c r="AA21" t="n">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="AB21" t="n">
         <v>8.6</v>
@@ -3304,10 +3304,10 @@
         <v>14.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE21" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AF21" t="n">
         <v>7.8</v>
@@ -3316,10 +3316,10 @@
         <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AI21" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AJ21" t="n">
         <v>10.5</v>
@@ -3331,13 +3331,13 @@
         <v>42</v>
       </c>
       <c r="AM21" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AN21" t="n">
         <v>5.7</v>
       </c>
       <c r="AO21" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -691,22 +691,22 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="G3" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="H3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
         <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.34</v>
@@ -835,49 +835,49 @@
         <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S3" t="n">
         <v>2.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U3" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="X3" t="n">
         <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AB3" t="n">
         <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="n">
         <v>12</v>
@@ -886,28 +886,28 @@
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AK3" t="n">
         <v>17</v>
       </c>
       <c r="AL3" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AO3" t="n">
         <v>85</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -949,13 +949,13 @@
         <v>2.08</v>
       </c>
       <c r="J4" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="K4" t="n">
         <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -988,7 +988,7 @@
         <v>1.92</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X4" t="n">
         <v>10.5</v>
@@ -997,7 +997,7 @@
         <v>6.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="n">
         <v>26</v>
@@ -1084,7 +1084,7 @@
         <v>1.6</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>4.7</v>
@@ -1213,16 +1213,16 @@
         <v>5.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I6" t="n">
         <v>2.06</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.35</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G8" t="n">
         <v>2.18</v>
@@ -1486,7 +1486,7 @@
         <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="J8" t="n">
         <v>3.55</v>
@@ -1498,13 +1498,13 @@
         <v>1.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P8" t="n">
         <v>2.04</v>
@@ -1513,19 +1513,19 @@
         <v>1.69</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S8" t="n">
         <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U8" t="n">
         <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W8" t="n">
         <v>1.85</v>
@@ -1543,7 +1543,7 @@
         <v>95</v>
       </c>
       <c r="AB8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
         <v>10.5</v>
@@ -1564,19 +1564,19 @@
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
         <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
         <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN8" t="n">
         <v>16</v>
@@ -1621,7 +1621,7 @@
         <v>2.18</v>
       </c>
       <c r="I9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J9" t="n">
         <v>3.65</v>
@@ -1645,13 +1645,13 @@
         <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
         <v>1.41</v>
       </c>
       <c r="S9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T9" t="n">
         <v>1.71</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G10" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H10" t="n">
         <v>1.79</v>
       </c>
       <c r="I10" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
         <v>4.6</v>
@@ -1786,7 +1786,7 @@
         <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T10" t="n">
         <v>1.61</v>
@@ -1795,7 +1795,7 @@
         <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="W10" t="n">
         <v>1.25</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AC10" t="n">
         <v>1000</v>
@@ -1822,16 +1822,16 @@
         <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1921,7 +1921,7 @@
         <v>1.61</v>
       </c>
       <c r="S11" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="T11" t="n">
         <v>2.06</v>
@@ -2032,7 +2032,7 @@
         <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
         <v>1.33</v>
@@ -2092,7 +2092,7 @@
         <v>17</v>
       </c>
       <c r="AE12" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
         <v>19.5</v>
@@ -2107,13 +2107,13 @@
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
         <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G14" t="n">
         <v>2.58</v>
@@ -2296,7 +2296,7 @@
         <v>2.78</v>
       </c>
       <c r="I14" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="J14" t="n">
         <v>3.7</v>
@@ -2308,7 +2308,7 @@
         <v>1.24</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
         <v>5.1</v>
@@ -2335,7 +2335,7 @@
         <v>2.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W14" t="n">
         <v>1.63</v>
@@ -2425,7 +2425,7 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="H15" t="n">
         <v>1.4</v>
@@ -2434,100 +2434,100 @@
         <v>1.41</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K15" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P15" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="16">
@@ -2563,19 +2563,19 @@
         <v>4.9</v>
       </c>
       <c r="H16" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="I16" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="J16" t="n">
         <v>4.2</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -2584,7 +2584,7 @@
         <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P16" t="n">
         <v>2.74</v>
@@ -2596,19 +2596,19 @@
         <v>1.7</v>
       </c>
       <c r="S16" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="T16" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U16" t="n">
         <v>2.5</v>
       </c>
       <c r="V16" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W16" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X16" t="n">
         <v>38</v>
@@ -2641,7 +2641,7 @@
         <v>23</v>
       </c>
       <c r="AH16" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
         <v>30</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G17" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H17" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J17" t="n">
         <v>3.85</v>
@@ -2722,16 +2722,16 @@
         <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q17" t="n">
         <v>1.61</v>
       </c>
       <c r="R17" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S17" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T17" t="n">
         <v>1.01</v>
@@ -2767,7 +2767,7 @@
         <v>18</v>
       </c>
       <c r="AE17" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF17" t="n">
         <v>32</v>
@@ -2782,7 +2782,7 @@
         <v>46</v>
       </c>
       <c r="AJ17" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK17" t="n">
         <v>40</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G18" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="H18" t="n">
         <v>5.8</v>
@@ -2842,49 +2842,49 @@
         <v>3.45</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="O18" t="n">
         <v>1.41</v>
       </c>
       <c r="P18" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S18" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T18" t="n">
         <v>2.08</v>
       </c>
       <c r="U18" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V18" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W18" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="X18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="n">
         <v>60</v>
@@ -2893,7 +2893,7 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC18" t="n">
         <v>10.5</v>
@@ -2911,16 +2911,16 @@
         <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL18" t="n">
         <v>60</v>
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2965,13 +2965,13 @@
         <v>2.58</v>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H19" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J19" t="n">
         <v>3.4</v>
@@ -2986,13 +2986,13 @@
         <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.37</v>
       </c>
       <c r="P19" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q19" t="n">
         <v>2.16</v>
@@ -3007,7 +3007,7 @@
         <v>1.87</v>
       </c>
       <c r="U19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V19" t="n">
         <v>1.47</v>
@@ -3016,13 +3016,13 @@
         <v>1.62</v>
       </c>
       <c r="X19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y19" t="n">
         <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA19" t="n">
         <v>55</v>
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G20" t="n">
         <v>1.87</v>
       </c>
       <c r="H20" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I20" t="n">
         <v>5.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
         <v>3.65</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M20" t="n">
         <v>1.1</v>
@@ -3139,7 +3139,7 @@
         <v>4.7</v>
       </c>
       <c r="T20" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U20" t="n">
         <v>1.79</v>
@@ -3148,7 +3148,7 @@
         <v>1.22</v>
       </c>
       <c r="W20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X20" t="n">
         <v>10.5</v>
@@ -3238,7 +3238,7 @@
         <v>1.36</v>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I21" t="n">
         <v>12</v>
@@ -3247,34 +3247,34 @@
         <v>5.9</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.34</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
         <v>4.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="S21" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="T21" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="U21" t="n">
         <v>1.75</v>
@@ -3295,19 +3295,19 @@
         <v>110</v>
       </c>
       <c r="AA21" t="n">
-        <v>460</v>
+        <v>530</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD21" t="n">
         <v>40</v>
       </c>
       <c r="AE21" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AF21" t="n">
         <v>7.8</v>
@@ -3316,28 +3316,28 @@
         <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI21" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AJ21" t="n">
         <v>10.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
         <v>42</v>
       </c>
       <c r="AM21" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AO21" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,34 +691,34 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.02</v>
+        <v>1.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
         <v>1.29</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -817,7 +817,7 @@
         <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.34</v>
@@ -850,7 +850,7 @@
         <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
         <v>2.28</v>
@@ -988,7 +988,7 @@
         <v>1.92</v>
       </c>
       <c r="W4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
         <v>10.5</v>
@@ -1213,7 +1213,7 @@
         <v>5.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="I6" t="n">
         <v>2.06</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G8" t="n">
         <v>2.18</v>
@@ -1525,7 +1525,7 @@
         <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W8" t="n">
         <v>1.85</v>
@@ -1651,7 +1651,7 @@
         <v>1.41</v>
       </c>
       <c r="S9" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T9" t="n">
         <v>1.71</v>
@@ -1750,16 +1750,16 @@
         <v>3.75</v>
       </c>
       <c r="G10" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="I10" t="n">
         <v>2.06</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>4.6</v>
@@ -1900,7 +1900,7 @@
         <v>7.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -1921,13 +1921,13 @@
         <v>1.61</v>
       </c>
       <c r="S11" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="T11" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="V11" t="n">
         <v>1.06</v>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="AD11" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AE11" t="n">
         <v>280</v>
@@ -2029,7 +2029,7 @@
         <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
         <v>3.7</v>
@@ -2176,13 +2176,13 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O13" t="n">
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q13" t="n">
         <v>2.06</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G14" t="n">
         <v>2.58</v>
       </c>
       <c r="H14" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="I14" t="n">
         <v>3.15</v>
@@ -2311,22 +2311,22 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q14" t="n">
         <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S14" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="T14" t="n">
         <v>1.53</v>
@@ -2389,7 +2389,7 @@
         <v>70</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO14" t="n">
         <v>22</v>
@@ -2425,19 +2425,19 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="H15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="I15" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="J15" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K15" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L15" t="n">
         <v>1.4</v>
@@ -2449,7 +2449,7 @@
         <v>3.75</v>
       </c>
       <c r="O15" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
         <v>1.95</v>
@@ -2470,7 +2470,7 @@
         <v>1.64</v>
       </c>
       <c r="V15" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="W15" t="n">
         <v>1.1</v>
@@ -2479,7 +2479,7 @@
         <v>16.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Z15" t="n">
         <v>7.2</v>
@@ -2500,7 +2500,7 @@
         <v>16.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG15" t="n">
         <v>44</v>
@@ -2512,10 +2512,10 @@
         <v>50</v>
       </c>
       <c r="AJ15" t="n">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="AK15" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AL15" t="n">
         <v>200</v>
@@ -2524,7 +2524,7 @@
         <v>270</v>
       </c>
       <c r="AN15" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AO15" t="n">
         <v>7.2</v>
@@ -2599,7 +2599,7 @@
         <v>2.14</v>
       </c>
       <c r="T16" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="U16" t="n">
         <v>2.5</v>
@@ -2608,7 +2608,7 @@
         <v>2.2</v>
       </c>
       <c r="W16" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X16" t="n">
         <v>38</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I17" t="n">
         <v>2.68</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.66</v>
       </c>
       <c r="J17" t="n">
         <v>3.85</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2725,7 +2725,7 @@
         <v>2.38</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="R17" t="n">
         <v>1.51</v>
@@ -2743,7 +2743,7 @@
         <v>1.6</v>
       </c>
       <c r="W17" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2782,7 +2782,7 @@
         <v>46</v>
       </c>
       <c r="AJ17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="n">
         <v>40</v>
@@ -2830,7 +2830,7 @@
         <v>1.68</v>
       </c>
       <c r="G18" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="H18" t="n">
         <v>5.8</v>
@@ -2839,7 +2839,7 @@
         <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
         <v>4</v>
@@ -2860,25 +2860,25 @@
         <v>1.65</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R18" t="n">
         <v>1.24</v>
       </c>
       <c r="S18" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T18" t="n">
         <v>2.08</v>
       </c>
       <c r="U18" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V18" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W18" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X18" t="n">
         <v>13.5</v>
@@ -2965,7 +2965,7 @@
         <v>2.58</v>
       </c>
       <c r="G19" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
@@ -2980,31 +2980,31 @@
         <v>3.45</v>
       </c>
       <c r="L19" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O19" t="n">
         <v>1.37</v>
       </c>
       <c r="P19" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q19" t="n">
         <v>2.16</v>
       </c>
       <c r="R19" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S19" t="n">
         <v>3.95</v>
       </c>
       <c r="T19" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U19" t="n">
         <v>2.1</v>
@@ -3061,7 +3061,7 @@
         <v>44</v>
       </c>
       <c r="AM19" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN19" t="n">
         <v>26</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G20" t="n">
         <v>1.87</v>
       </c>
       <c r="H20" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I20" t="n">
         <v>5.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K20" t="n">
         <v>3.65</v>
@@ -3133,13 +3133,13 @@
         <v>2.42</v>
       </c>
       <c r="R20" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S20" t="n">
         <v>4.7</v>
       </c>
       <c r="T20" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U20" t="n">
         <v>1.79</v>
@@ -3148,7 +3148,7 @@
         <v>1.22</v>
       </c>
       <c r="W20" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X20" t="n">
         <v>10.5</v>
@@ -3163,10 +3163,10 @@
         <v>160</v>
       </c>
       <c r="AB20" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD20" t="n">
         <v>22</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="G21" t="n">
         <v>1.36</v>
       </c>
       <c r="H21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I21" t="n">
         <v>12</v>
@@ -3247,7 +3247,7 @@
         <v>5.9</v>
       </c>
       <c r="K21" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
         <v>1.34</v>
@@ -3268,7 +3268,7 @@
         <v>1.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S21" t="n">
         <v>2.94</v>
@@ -3283,7 +3283,7 @@
         <v>1.09</v>
       </c>
       <c r="W21" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="X21" t="n">
         <v>21</v>
@@ -3301,13 +3301,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD21" t="n">
         <v>40</v>
       </c>
       <c r="AE21" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="AF21" t="n">
         <v>7.8</v>
@@ -3319,7 +3319,7 @@
         <v>34</v>
       </c>
       <c r="AI21" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="AJ21" t="n">
         <v>10.5</v>
@@ -3331,10 +3331,10 @@
         <v>42</v>
       </c>
       <c r="AM21" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AO21" t="n">
         <v>280</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -673,7 +673,7 @@
         <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
@@ -682,7 +682,7 @@
         <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -694,19 +694,19 @@
         <v>1.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
         <v>1.29</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="T2" t="n">
         <v>1.04</v>
@@ -814,7 +814,7 @@
         <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K3" t="n">
         <v>4.3</v>
@@ -835,19 +835,19 @@
         <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
         <v>1.49</v>
       </c>
       <c r="S3" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T3" t="n">
         <v>1.73</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V3" t="n">
         <v>1.23</v>
@@ -940,7 +940,7 @@
         <v>4.8</v>
       </c>
       <c r="G4" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H4" t="n">
         <v>1.87</v>
@@ -949,19 +949,19 @@
         <v>2.08</v>
       </c>
       <c r="J4" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
         <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.53</v>
@@ -979,7 +979,7 @@
         <v>4.8</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U4" t="n">
         <v>1.66</v>
@@ -1036,7 +1036,7 @@
         <v>150</v>
       </c>
       <c r="AM4" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AN4" t="n">
         <v>220</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="G5" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="I5" t="n">
         <v>1.6</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
         <v>4.7</v>
@@ -1150,10 +1150,10 @@
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AH5" t="n">
         <v>980</v>
@@ -1162,10 +1162,10 @@
         <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AK5" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AL5" t="n">
         <v>140</v>
@@ -1174,7 +1174,7 @@
         <v>190</v>
       </c>
       <c r="AN5" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AO5" t="n">
         <v>10.5</v>
@@ -1210,7 +1210,7 @@
         <v>4.2</v>
       </c>
       <c r="G6" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H6" t="n">
         <v>1.85</v>
@@ -1246,7 +1246,7 @@
         <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T6" t="n">
         <v>1.81</v>
@@ -1258,13 +1258,13 @@
         <v>1.95</v>
       </c>
       <c r="W6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1279,7 +1279,7 @@
         <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
         <v>980</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G8" t="n">
         <v>2.18</v>
@@ -1519,13 +1519,13 @@
         <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U8" t="n">
         <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
         <v>1.85</v>
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.28</v>
@@ -1645,79 +1645,79 @@
         <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S9" t="n">
         <v>3.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="U9" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="W9" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AB9" t="n">
         <v>15.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
         <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH9" t="n">
         <v>15.5</v>
       </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ9" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN9" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO9" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="10">
@@ -1750,10 +1750,10 @@
         <v>3.75</v>
       </c>
       <c r="G10" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H10" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="I10" t="n">
         <v>2.06</v>
@@ -1786,7 +1786,7 @@
         <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="T10" t="n">
         <v>1.61</v>
@@ -1798,7 +1798,7 @@
         <v>1.94</v>
       </c>
       <c r="W10" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1906,37 +1906,37 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R11" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="V11" t="n">
         <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="X11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y11" t="n">
         <v>60</v>
@@ -1954,10 +1954,10 @@
         <v>19</v>
       </c>
       <c r="AD11" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AE11" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AF11" t="n">
         <v>9.800000000000001</v>
@@ -1966,7 +1966,7 @@
         <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AI11" t="n">
         <v>210</v>
@@ -1981,7 +1981,7 @@
         <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN11" t="n">
         <v>4.9</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G12" t="n">
         <v>2.54</v>
@@ -2032,7 +2032,7 @@
         <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
         <v>1.33</v>
@@ -2065,7 +2065,7 @@
         <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="W12" t="n">
         <v>1.65</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="G13" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="H13" t="n">
         <v>7.6</v>
@@ -2167,16 +2167,16 @@
         <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.57</v>
+        <v>2.36</v>
       </c>
       <c r="O13" t="n">
         <v>1.01</v>
@@ -2188,22 +2188,22 @@
         <v>2.06</v>
       </c>
       <c r="R13" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="S13" t="n">
-        <v>2.06</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V13" t="n">
         <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2293,7 +2293,7 @@
         <v>2.58</v>
       </c>
       <c r="H14" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I14" t="n">
         <v>3.15</v>
@@ -2344,7 +2344,7 @@
         <v>29</v>
       </c>
       <c r="Y14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="n">
         <v>29</v>
@@ -2353,7 +2353,7 @@
         <v>60</v>
       </c>
       <c r="AB14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC14" t="n">
         <v>12</v>
@@ -2392,7 +2392,7 @@
         <v>15.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -2428,16 +2428,16 @@
         <v>11</v>
       </c>
       <c r="H15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I15" t="n">
         <v>1.41</v>
       </c>
-      <c r="I15" t="n">
-        <v>1.42</v>
-      </c>
       <c r="J15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K15" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.4</v>
@@ -2470,7 +2470,7 @@
         <v>1.64</v>
       </c>
       <c r="V15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="W15" t="n">
         <v>1.1</v>
@@ -2575,7 +2575,7 @@
         <v>5.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -2596,10 +2596,10 @@
         <v>1.7</v>
       </c>
       <c r="S16" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="T16" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="U16" t="n">
         <v>2.5</v>
@@ -2695,16 +2695,16 @@
         <v>2.6</v>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="H17" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="I17" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
         <v>4.4</v>
@@ -2716,88 +2716,88 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>2.38</v>
+        <v>5.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
         <v>2.38</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.59</v>
       </c>
-      <c r="R17" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.6</v>
-      </c>
       <c r="W17" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y17" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AA17" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB17" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AF17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK17" t="n">
         <v>32</v>
       </c>
-      <c r="AG17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>40</v>
-      </c>
       <c r="AL17" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="18">
@@ -2830,7 +2830,7 @@
         <v>1.68</v>
       </c>
       <c r="G18" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="H18" t="n">
         <v>5.8</v>
@@ -2839,7 +2839,7 @@
         <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
         <v>4</v>
@@ -2860,25 +2860,25 @@
         <v>1.65</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R18" t="n">
         <v>1.24</v>
       </c>
       <c r="S18" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T18" t="n">
         <v>2.08</v>
       </c>
       <c r="U18" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V18" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W18" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="X18" t="n">
         <v>13.5</v>
@@ -3010,13 +3010,13 @@
         <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W19" t="n">
         <v>1.62</v>
       </c>
       <c r="X19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
         <v>11.5</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.86</v>
       </c>
-      <c r="G20" t="n">
-        <v>1.87</v>
-      </c>
       <c r="H20" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J20" t="n">
         <v>3.55</v>
@@ -3145,10 +3145,10 @@
         <v>1.79</v>
       </c>
       <c r="V20" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X20" t="n">
         <v>10.5</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.35</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.36</v>
       </c>
       <c r="H21" t="n">
         <v>11</v>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J21" t="n">
         <v>5.9</v>
@@ -3265,7 +3265,7 @@
         <v>2.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R21" t="n">
         <v>1.47</v>
@@ -3280,22 +3280,22 @@
         <v>1.75</v>
       </c>
       <c r="V21" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W21" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="X21" t="n">
         <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AA21" t="n">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="AB21" t="n">
         <v>8.199999999999999</v>
@@ -3304,10 +3304,10 @@
         <v>12.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AE21" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AF21" t="n">
         <v>7.8</v>
@@ -3331,13 +3331,13 @@
         <v>42</v>
       </c>
       <c r="AM21" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AN21" t="n">
         <v>5.8</v>
       </c>
       <c r="AO21" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -706,7 +706,7 @@
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
         <v>1.04</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
@@ -826,31 +826,31 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R3" t="n">
         <v>1.49</v>
       </c>
       <c r="S3" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T3" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U3" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V3" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
         <v>2.28</v>
@@ -865,7 +865,7 @@
         <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AB3" t="n">
         <v>10.5</v>
@@ -904,10 +904,10 @@
         <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G5" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
         <v>1.53</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="J5" t="n">
         <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.39</v>
@@ -1096,7 +1096,7 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1105,10 +1105,10 @@
         <v>1.89</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
         <v>3.5</v>
@@ -1120,10 +1120,10 @@
         <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="W5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
@@ -1147,7 +1147,7 @@
         <v>10.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>65</v>
@@ -1162,10 +1162,10 @@
         <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AK5" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AL5" t="n">
         <v>140</v>
@@ -1174,7 +1174,7 @@
         <v>190</v>
       </c>
       <c r="AN5" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AO5" t="n">
         <v>10.5</v>
@@ -1276,7 +1276,7 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
         <v>12.5</v>
@@ -1372,19 +1372,19 @@
         <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
         <v>1.94</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G8" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
         <v>4.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
         <v>1.3</v>
@@ -1510,7 +1510,7 @@
         <v>2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
         <v>1.41</v>
@@ -1522,13 +1522,13 @@
         <v>1.69</v>
       </c>
       <c r="U8" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
@@ -1618,13 +1618,13 @@
         <v>3.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="I9" t="n">
         <v>2.34</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>3.6</v>
@@ -1642,10 +1642,10 @@
         <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R9" t="n">
         <v>1.42</v>
@@ -1663,7 +1663,7 @@
         <v>1.74</v>
       </c>
       <c r="W9" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
@@ -1711,7 +1711,7 @@
         <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="n">
         <v>36</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G10" t="n">
         <v>4.9</v>
@@ -1756,10 +1756,10 @@
         <v>1.79</v>
       </c>
       <c r="I10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
         <v>4.6</v>
@@ -1774,7 +1774,7 @@
         <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
         <v>2.22</v>
@@ -1786,7 +1786,7 @@
         <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="T10" t="n">
         <v>1.61</v>
@@ -1795,10 +1795,10 @@
         <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="W10" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G12" t="n">
         <v>2.54</v>
@@ -2065,7 +2065,7 @@
         <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W12" t="n">
         <v>1.65</v>
@@ -2155,7 +2155,7 @@
         <v>1.41</v>
       </c>
       <c r="G13" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="H13" t="n">
         <v>7.6</v>
@@ -2167,25 +2167,25 @@
         <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="O13" t="n">
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R13" t="n">
         <v>1.15</v>
@@ -2203,7 +2203,7 @@
         <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2299,7 +2299,7 @@
         <v>3.15</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
         <v>4.4</v>
@@ -2317,10 +2317,10 @@
         <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R14" t="n">
         <v>1.58</v>
@@ -2356,13 +2356,13 @@
         <v>18</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
         <v>23</v>
@@ -2386,7 +2386,7 @@
         <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN14" t="n">
         <v>15.5</v>
@@ -2437,7 +2437,7 @@
         <v>5.2</v>
       </c>
       <c r="K15" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L15" t="n">
         <v>1.4</v>
@@ -2518,7 +2518,7 @@
         <v>230</v>
       </c>
       <c r="AL15" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AM15" t="n">
         <v>270</v>
@@ -2560,7 +2560,7 @@
         <v>4.2</v>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H16" t="n">
         <v>1.72</v>
@@ -2572,7 +2572,7 @@
         <v>4.2</v>
       </c>
       <c r="K16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
         <v>1.21</v>
@@ -2593,10 +2593,10 @@
         <v>1.47</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S16" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="T16" t="n">
         <v>1.54</v>
@@ -2608,10 +2608,10 @@
         <v>2.2</v>
       </c>
       <c r="W16" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X16" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y16" t="n">
         <v>18</v>
@@ -2623,43 +2623,43 @@
         <v>24</v>
       </c>
       <c r="AB16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ16" t="n">
         <v>110</v>
       </c>
       <c r="AK16" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM16" t="n">
         <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO16" t="n">
         <v>8</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="G17" t="n">
         <v>2.78</v>
       </c>
       <c r="H17" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I17" t="n">
         <v>2.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
         <v>4.4</v>
@@ -2722,7 +2722,7 @@
         <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q17" t="n">
         <v>1.6</v>
@@ -2734,13 +2734,13 @@
         <v>2.48</v>
       </c>
       <c r="T17" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U17" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V17" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W17" t="n">
         <v>1.56</v>
@@ -2830,7 +2830,7 @@
         <v>1.68</v>
       </c>
       <c r="G18" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="H18" t="n">
         <v>5.8</v>
@@ -2878,7 +2878,7 @@
         <v>1.14</v>
       </c>
       <c r="W18" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X18" t="n">
         <v>13.5</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I19" t="n">
         <v>3.15</v>
@@ -3010,7 +3010,7 @@
         <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W19" t="n">
         <v>1.62</v>
@@ -3022,16 +3022,16 @@
         <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB19" t="n">
         <v>10</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD19" t="n">
         <v>13.5</v>
@@ -3055,7 +3055,7 @@
         <v>36</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
         <v>44</v>
@@ -3109,7 +3109,7 @@
         <v>5.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
         <v>3.65</v>
@@ -3124,7 +3124,7 @@
         <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P20" t="n">
         <v>1.68</v>
@@ -3133,7 +3133,7 @@
         <v>2.42</v>
       </c>
       <c r="R20" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
         <v>4.7</v>
@@ -3145,7 +3145,7 @@
         <v>1.79</v>
       </c>
       <c r="V20" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W20" t="n">
         <v>2.16</v>
@@ -3163,7 +3163,7 @@
         <v>160</v>
       </c>
       <c r="AB20" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC20" t="n">
         <v>7.8</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G21" t="n">
         <v>1.35</v>
       </c>
       <c r="H21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
         <v>5.9</v>
@@ -3271,16 +3271,16 @@
         <v>1.47</v>
       </c>
       <c r="S21" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T21" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U21" t="n">
         <v>1.75</v>
       </c>
       <c r="V21" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W21" t="n">
         <v>3.85</v>
@@ -3289,10 +3289,10 @@
         <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Z21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA21" t="n">
         <v>540</v>
@@ -3304,10 +3304,10 @@
         <v>12.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AE21" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AF21" t="n">
         <v>7.8</v>
@@ -3334,10 +3334,10 @@
         <v>210</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AO21" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J2" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="K2" t="n">
         <v>950</v>
@@ -691,13 +691,13 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="Q2" t="n">
         <v>1.26</v>
@@ -706,7 +706,7 @@
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.05</v>
+        <v>1.41</v>
       </c>
       <c r="T2" t="n">
         <v>1.04</v>
@@ -715,10 +715,10 @@
         <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="W2" t="n">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G3" t="n">
         <v>1.77</v>
@@ -814,7 +814,7 @@
         <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
         <v>4.3</v>
@@ -874,13 +874,13 @@
         <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
         <v>65</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
@@ -1003,7 +1003,7 @@
         <v>26</v>
       </c>
       <c r="AB4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC4" t="n">
         <v>8.199999999999999</v>
@@ -1036,7 +1036,7 @@
         <v>150</v>
       </c>
       <c r="AM4" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AN4" t="n">
         <v>220</v>
@@ -1075,46 +1075,46 @@
         <v>6.6</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="I5" t="n">
         <v>1.59</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
         <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T5" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
         <v>1.8</v>
@@ -1126,7 +1126,7 @@
         <v>1.14</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
         <v>8</v>
@@ -1138,7 +1138,7 @@
         <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC5" t="n">
         <v>10.5</v>
@@ -1147,13 +1147,13 @@
         <v>10.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG5" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AH5" t="n">
         <v>980</v>
@@ -1162,22 +1162,22 @@
         <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AK5" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AL5" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM5" t="n">
         <v>190</v>
       </c>
       <c r="AN5" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AO5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1219,7 +1219,7 @@
         <v>2.06</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>4.3</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G7" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.2</v>
@@ -1378,22 +1378,22 @@
         <v>1.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W7" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="X7" t="n">
         <v>40</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1480,7 +1480,7 @@
         <v>1.98</v>
       </c>
       <c r="G8" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H8" t="n">
         <v>3.7</v>
@@ -1501,46 +1501,46 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R8" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T8" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="U8" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V8" t="n">
         <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z8" t="n">
         <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB8" t="n">
         <v>13</v>
@@ -1558,16 +1558,16 @@
         <v>16.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
         <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AK8" t="n">
         <v>25</v>
@@ -1576,10 +1576,10 @@
         <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO8" t="n">
         <v>55</v>
@@ -1615,7 +1615,7 @@
         <v>3.45</v>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H9" t="n">
         <v>2.28</v>
@@ -1624,7 +1624,7 @@
         <v>2.34</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
         <v>3.6</v>
@@ -1645,13 +1645,13 @@
         <v>2.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
         <v>1.42</v>
       </c>
       <c r="S9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T9" t="n">
         <v>1.68</v>
@@ -1696,7 +1696,7 @@
         <v>14.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI9" t="n">
         <v>36</v>
@@ -1714,7 +1714,7 @@
         <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO9" t="n">
         <v>16.5</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
         <v>4.9</v>
       </c>
       <c r="H10" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="I10" t="n">
         <v>2.04</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L10" t="n">
         <v>1.27</v>
@@ -1771,28 +1771,28 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R10" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="T10" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="V10" t="n">
         <v>1.96</v>
@@ -1894,7 +1894,7 @@
         <v>16</v>
       </c>
       <c r="J11" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K11" t="n">
         <v>7.6</v>
@@ -1912,22 +1912,22 @@
         <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="Q11" t="n">
         <v>1.52</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T11" t="n">
         <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V11" t="n">
         <v>1.06</v>
@@ -1936,7 +1936,7 @@
         <v>4.3</v>
       </c>
       <c r="X11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y11" t="n">
         <v>60</v>
@@ -1960,13 +1960,13 @@
         <v>290</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
         <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="n">
         <v>210</v>
@@ -1978,13 +1978,13 @@
         <v>17.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM11" t="n">
         <v>220</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="G12" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="H12" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="I12" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
         <v>1.33</v>
@@ -2041,19 +2041,19 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P12" t="n">
         <v>1.94</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R12" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S12" t="n">
         <v>3.3</v>
@@ -2062,25 +2062,25 @@
         <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W12" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="X12" t="n">
         <v>18</v>
       </c>
       <c r="Y12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z12" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB12" t="n">
         <v>13</v>
@@ -2089,10 +2089,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AF12" t="n">
         <v>19.5</v>
@@ -2122,7 +2122,7 @@
         <v>24</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>1.41</v>
       </c>
       <c r="G13" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="H13" t="n">
         <v>7.6</v>
@@ -2182,7 +2182,7 @@
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q13" t="n">
         <v>2.08</v>
@@ -2191,7 +2191,7 @@
         <v>1.15</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T13" t="n">
         <v>1.04</v>
@@ -2203,7 +2203,7 @@
         <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="G14" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H14" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="I14" t="n">
         <v>3.15</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
         <v>4.4</v>
@@ -2320,34 +2320,34 @@
         <v>2.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R14" t="n">
         <v>1.58</v>
       </c>
       <c r="S14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U14" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V14" t="n">
         <v>1.46</v>
       </c>
       <c r="W14" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="X14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y14" t="n">
         <v>20</v>
       </c>
       <c r="Z14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA14" t="n">
         <v>60</v>
@@ -2362,7 +2362,7 @@
         <v>14.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF14" t="n">
         <v>23</v>
@@ -2386,7 +2386,7 @@
         <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN14" t="n">
         <v>15.5</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="H15" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="I15" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="J15" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K15" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.4</v>
@@ -2446,16 +2446,16 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P15" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R15" t="n">
         <v>1.36</v>
@@ -2464,31 +2464,31 @@
         <v>3.45</v>
       </c>
       <c r="T15" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="U15" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="V15" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="W15" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="X15" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB15" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC15" t="n">
         <v>12</v>
@@ -2497,10 +2497,10 @@
         <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG15" t="n">
         <v>44</v>
@@ -2512,22 +2512,22 @@
         <v>50</v>
       </c>
       <c r="AJ15" t="n">
-        <v>520</v>
+        <v>630</v>
       </c>
       <c r="AK15" t="n">
+        <v>280</v>
+      </c>
+      <c r="AL15" t="n">
         <v>230</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>210</v>
       </c>
       <c r="AM15" t="n">
         <v>270</v>
       </c>
       <c r="AN15" t="n">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2566,13 +2566,13 @@
         <v>1.72</v>
       </c>
       <c r="I16" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="J16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L16" t="n">
         <v>1.21</v>
@@ -2596,7 +2596,7 @@
         <v>1.71</v>
       </c>
       <c r="S16" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T16" t="n">
         <v>1.54</v>
@@ -2605,7 +2605,7 @@
         <v>2.5</v>
       </c>
       <c r="V16" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W16" t="n">
         <v>1.26</v>
@@ -2638,7 +2638,7 @@
         <v>48</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH16" t="n">
         <v>19.5</v>
@@ -2659,7 +2659,7 @@
         <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO16" t="n">
         <v>8</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G17" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="H17" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="I17" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2731,37 +2731,37 @@
         <v>1.56</v>
       </c>
       <c r="S17" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U17" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V17" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W17" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z17" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA17" t="n">
         <v>46</v>
       </c>
       <c r="AB17" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
         <v>15</v>
@@ -2773,10 +2773,10 @@
         <v>26</v>
       </c>
       <c r="AG17" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
         <v>38</v>
@@ -2788,16 +2788,16 @@
         <v>32</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN17" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -2848,7 +2848,7 @@
         <v>1.47</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
         <v>2.92</v>
@@ -2860,22 +2860,22 @@
         <v>1.65</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R18" t="n">
         <v>1.24</v>
       </c>
       <c r="S18" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="T18" t="n">
         <v>2.08</v>
       </c>
       <c r="U18" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V18" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W18" t="n">
         <v>2.2</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G19" t="n">
         <v>2.6</v>
       </c>
-      <c r="G19" t="n">
-        <v>2.62</v>
-      </c>
       <c r="H19" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
         <v>3.15</v>
@@ -2992,10 +2992,10 @@
         <v>1.37</v>
       </c>
       <c r="P19" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R19" t="n">
         <v>1.32</v>
@@ -3010,7 +3010,7 @@
         <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W19" t="n">
         <v>1.62</v>
@@ -3022,10 +3022,10 @@
         <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB19" t="n">
         <v>10</v>
@@ -3061,7 +3061,7 @@
         <v>44</v>
       </c>
       <c r="AM19" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN19" t="n">
         <v>26</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H20" t="n">
         <v>5.5</v>
@@ -3109,10 +3109,10 @@
         <v>5.6</v>
       </c>
       <c r="J20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.65</v>
       </c>
       <c r="L20" t="n">
         <v>1.51</v>
@@ -3133,7 +3133,7 @@
         <v>2.42</v>
       </c>
       <c r="R20" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S20" t="n">
         <v>4.7</v>
@@ -3148,7 +3148,7 @@
         <v>1.22</v>
       </c>
       <c r="W20" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X20" t="n">
         <v>10.5</v>
@@ -3163,7 +3163,7 @@
         <v>160</v>
       </c>
       <c r="AB20" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC20" t="n">
         <v>7.8</v>
@@ -3172,7 +3172,7 @@
         <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF20" t="n">
         <v>9.4</v>
@@ -3196,7 +3196,7 @@
         <v>50</v>
       </c>
       <c r="AM20" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN20" t="n">
         <v>17.5</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="G21" t="n">
         <v>1.35</v>
       </c>
       <c r="H21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I21" t="n">
         <v>12</v>
@@ -3247,7 +3247,7 @@
         <v>5.9</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L21" t="n">
         <v>1.34</v>
@@ -3262,16 +3262,16 @@
         <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R21" t="n">
         <v>1.47</v>
       </c>
       <c r="S21" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T21" t="n">
         <v>2.2</v>
@@ -3334,7 +3334,7 @@
         <v>210</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AO21" t="n">
         <v>280</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -673,7 +673,7 @@
         <v>44</v>
       </c>
       <c r="H2" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
         <v>870</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="G3" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J3" t="n">
         <v>4.1</v>
@@ -829,10 +829,10 @@
         <v>4.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
         <v>1.74</v>
@@ -850,22 +850,22 @@
         <v>2.22</v>
       </c>
       <c r="V3" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
         <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB3" t="n">
         <v>10.5</v>
@@ -874,10 +874,10 @@
         <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="n">
         <v>11.5</v>
@@ -889,10 +889,10 @@
         <v>18.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="n">
         <v>17</v>
@@ -901,10 +901,10 @@
         <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AO3" t="n">
         <v>60</v>
@@ -940,7 +940,7 @@
         <v>4.8</v>
       </c>
       <c r="G4" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H4" t="n">
         <v>1.87</v>
@@ -955,40 +955,40 @@
         <v>3.6</v>
       </c>
       <c r="L4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="n">
         <v>1.55</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.51</v>
-      </c>
       <c r="Q4" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="U4" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="V4" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X4" t="n">
         <v>10.5</v>
@@ -1003,22 +1003,22 @@
         <v>26</v>
       </c>
       <c r="AB4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC4" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AF4" t="n">
         <v>48</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
         <v>29</v>
@@ -1027,22 +1027,22 @@
         <v>65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AK4" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AL4" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AM4" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AN4" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AO4" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -1078,10 +1078,10 @@
         <v>7.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="I5" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="J5" t="n">
         <v>4.2</v>
@@ -1093,40 +1093,40 @@
         <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="W5" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8</v>
@@ -1153,7 +1153,7 @@
         <v>60</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AH5" t="n">
         <v>980</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G6" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H6" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="I6" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
         <v>1.35</v>
@@ -1255,10 +1255,10 @@
         <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="W6" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1279,7 +1279,7 @@
         <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>980</v>
@@ -1345,16 +1345,16 @@
         <v>1.28</v>
       </c>
       <c r="G7" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="I7" t="n">
         <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="K7" t="n">
         <v>7.2</v>
@@ -1381,7 +1381,7 @@
         <v>1.72</v>
       </c>
       <c r="S7" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T7" t="n">
         <v>1.85</v>
@@ -1393,7 +1393,7 @@
         <v>1.08</v>
       </c>
       <c r="W7" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="X7" t="n">
         <v>40</v>
@@ -1507,7 +1507,7 @@
         <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q8" t="n">
         <v>1.71</v>
@@ -1522,10 +1522,10 @@
         <v>1.65</v>
       </c>
       <c r="U8" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V8" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W8" t="n">
         <v>1.87</v>
@@ -1534,10 +1534,10 @@
         <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
         <v>90</v>
@@ -1555,13 +1555,13 @@
         <v>55</v>
       </c>
       <c r="AF8" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
         <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
         <v>60</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="G9" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.28</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.34</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
         <v>1.38</v>
@@ -1639,13 +1639,13 @@
         <v>4.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R9" t="n">
         <v>1.42</v>
@@ -1660,22 +1660,22 @@
         <v>2.32</v>
       </c>
       <c r="V9" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="W9" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB9" t="n">
         <v>15.5</v>
@@ -1693,7 +1693,7 @@
         <v>26</v>
       </c>
       <c r="AG9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>16.5</v>
@@ -1702,22 +1702,22 @@
         <v>36</v>
       </c>
       <c r="AJ9" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AK9" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO9" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="10">
@@ -1753,16 +1753,16 @@
         <v>4.9</v>
       </c>
       <c r="H10" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="I10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.27</v>
@@ -1780,7 +1780,7 @@
         <v>2.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R10" t="n">
         <v>1.5</v>
@@ -1795,7 +1795,7 @@
         <v>2.28</v>
       </c>
       <c r="V10" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W10" t="n">
         <v>1.26</v>
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="J11" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K11" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="R11" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="S11" t="n">
         <v>2.3</v>
       </c>
       <c r="T11" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="U11" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V11" t="n">
         <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X11" t="n">
         <v>34</v>
@@ -1942,49 +1942,49 @@
         <v>60</v>
       </c>
       <c r="Z11" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE11" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH11" t="n">
         <v>40</v>
       </c>
       <c r="AI11" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK11" t="n">
         <v>17.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="G12" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
         <v>2.86</v>
@@ -2050,7 +2050,7 @@
         <v>1.94</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R12" t="n">
         <v>1.37</v>
@@ -2065,10 +2065,10 @@
         <v>2.18</v>
       </c>
       <c r="V12" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X12" t="n">
         <v>18</v>
@@ -2080,13 +2080,13 @@
         <v>26</v>
       </c>
       <c r="AA12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
         <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD12" t="n">
         <v>16</v>
@@ -2107,13 +2107,13 @@
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AK12" t="n">
         <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2152,61 +2152,61 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="G13" t="n">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="H13" t="n">
         <v>7.6</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="J13" t="n">
         <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.41</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>2.34</v>
+        <v>2.86</v>
       </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P13" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="R13" t="n">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="S13" t="n">
-        <v>3.05</v>
+        <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="V13" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="W13" t="n">
-        <v>2.42</v>
+        <v>2.74</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y13" t="n">
         <v>1000</v>
@@ -2218,10 +2218,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2230,7 +2230,7 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AG13" t="n">
         <v>1000</v>
@@ -2242,7 +2242,7 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK13" t="n">
         <v>1000</v>
@@ -2254,7 +2254,7 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G14" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H14" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I14" t="n">
         <v>3.15</v>
@@ -2302,7 +2302,7 @@
         <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.24</v>
@@ -2335,10 +2335,10 @@
         <v>2.52</v>
       </c>
       <c r="V14" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W14" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="X14" t="n">
         <v>26</v>
@@ -2362,7 +2362,7 @@
         <v>14.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
         <v>23</v>
@@ -2386,7 +2386,7 @@
         <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN14" t="n">
         <v>15.5</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="G15" t="n">
         <v>12.5</v>
@@ -2434,43 +2434,43 @@
         <v>1.38</v>
       </c>
       <c r="J15" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K15" t="n">
         <v>5.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O15" t="n">
         <v>1.32</v>
       </c>
       <c r="P15" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="R15" t="n">
         <v>1.36</v>
       </c>
       <c r="S15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="U15" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="V15" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="W15" t="n">
         <v>1.08</v>
@@ -2479,13 +2479,13 @@
         <v>15.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Z15" t="n">
         <v>7</v>
       </c>
       <c r="AA15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AB15" t="n">
         <v>32</v>
@@ -2497,37 +2497,37 @@
         <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF15" t="n">
         <v>120</v>
       </c>
       <c r="AG15" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AH15" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AI15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>630</v>
+        <v>710</v>
       </c>
       <c r="AK15" t="n">
         <v>280</v>
       </c>
       <c r="AL15" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AM15" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AN15" t="n">
-        <v>440</v>
+        <v>510</v>
       </c>
       <c r="AO15" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G16" t="n">
         <v>4.8</v>
@@ -2581,19 +2581,19 @@
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.16</v>
       </c>
       <c r="P16" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="Q16" t="n">
         <v>1.47</v>
       </c>
       <c r="R16" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S16" t="n">
         <v>2.18</v>
@@ -2602,22 +2602,22 @@
         <v>1.54</v>
       </c>
       <c r="U16" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="V16" t="n">
         <v>2.22</v>
       </c>
       <c r="W16" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X16" t="n">
         <v>34</v>
       </c>
       <c r="Y16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA16" t="n">
         <v>24</v>
@@ -2638,13 +2638,13 @@
         <v>48</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH16" t="n">
         <v>19.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
         <v>110</v>
@@ -2695,13 +2695,13 @@
         <v>2.58</v>
       </c>
       <c r="G17" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="H17" t="n">
         <v>2.52</v>
       </c>
       <c r="I17" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J17" t="n">
         <v>3.95</v>
@@ -2734,16 +2734,16 @@
         <v>2.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U17" t="n">
         <v>2.54</v>
       </c>
       <c r="V17" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W17" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X17" t="n">
         <v>26</v>
@@ -2770,7 +2770,7 @@
         <v>30</v>
       </c>
       <c r="AF17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG17" t="n">
         <v>13.5</v>
@@ -2860,7 +2860,7 @@
         <v>1.65</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R18" t="n">
         <v>1.24</v>
@@ -2872,10 +2872,10 @@
         <v>2.08</v>
       </c>
       <c r="U18" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V18" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W18" t="n">
         <v>2.2</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G19" t="n">
         <v>2.58</v>
       </c>
-      <c r="G19" t="n">
-        <v>2.6</v>
-      </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I19" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
         <v>3.4</v>
@@ -2986,13 +2986,13 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O19" t="n">
         <v>1.37</v>
       </c>
       <c r="P19" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q19" t="n">
         <v>2.14</v>
@@ -3004,19 +3004,19 @@
         <v>3.95</v>
       </c>
       <c r="T19" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U19" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V19" t="n">
         <v>1.46</v>
       </c>
       <c r="W19" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y19" t="n">
         <v>11.5</v>
@@ -3025,7 +3025,7 @@
         <v>19.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB19" t="n">
         <v>10</v>
@@ -3034,13 +3034,13 @@
         <v>7.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
         <v>36</v>
       </c>
       <c r="AF19" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>11.5</v>
@@ -3061,7 +3061,7 @@
         <v>44</v>
       </c>
       <c r="AM19" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN19" t="n">
         <v>26</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="G20" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H20" t="n">
         <v>5.5</v>
@@ -3112,10 +3112,10 @@
         <v>3.55</v>
       </c>
       <c r="K20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L20" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="M20" t="n">
         <v>1.1</v>
@@ -3127,7 +3127,7 @@
         <v>1.47</v>
       </c>
       <c r="P20" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q20" t="n">
         <v>2.42</v>
@@ -3145,16 +3145,16 @@
         <v>1.79</v>
       </c>
       <c r="V20" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X20" t="n">
         <v>10.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="n">
         <v>38</v>
@@ -3163,7 +3163,7 @@
         <v>160</v>
       </c>
       <c r="AB20" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC20" t="n">
         <v>7.8</v>
@@ -3193,7 +3193,7 @@
         <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
         <v>190</v>
@@ -3262,10 +3262,10 @@
         <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R21" t="n">
         <v>1.47</v>
@@ -3277,7 +3277,7 @@
         <v>2.2</v>
       </c>
       <c r="U21" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V21" t="n">
         <v>1.09</v>
@@ -3286,7 +3286,7 @@
         <v>3.85</v>
       </c>
       <c r="X21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y21" t="n">
         <v>34</v>
@@ -3295,7 +3295,7 @@
         <v>110</v>
       </c>
       <c r="AA21" t="n">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="AB21" t="n">
         <v>8.199999999999999</v>
@@ -3304,7 +3304,7 @@
         <v>12.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AE21" t="n">
         <v>210</v>
@@ -3316,7 +3316,7 @@
         <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI21" t="n">
         <v>210</v>
@@ -3328,16 +3328,16 @@
         <v>15</v>
       </c>
       <c r="AL21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="n">
         <v>5.8</v>
       </c>
       <c r="AO21" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="G2" t="n">
-        <v>44</v>
+        <v>2.98</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="I2" t="n">
-        <v>870</v>
+        <v>16</v>
       </c>
       <c r="J2" t="n">
-        <v>1.09</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>5.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>2.24</v>
       </c>
       <c r="O2" t="n">
         <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>1.34</v>
+        <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
-        <v>1.41</v>
+        <v>2.04</v>
       </c>
       <c r="T2" t="n">
         <v>1.04</v>
@@ -715,10 +715,10 @@
         <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="W2" t="n">
-        <v>1.14</v>
+        <v>1.6</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
         <v>4.9</v>
       </c>
       <c r="I3" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.34</v>
@@ -835,13 +835,13 @@
         <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="R3" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T3" t="n">
         <v>1.74</v>
@@ -850,28 +850,28 @@
         <v>2.22</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W3" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AA3" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB3" t="n">
         <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
         <v>19</v>
@@ -880,34 +880,34 @@
         <v>60</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AJ3" t="n">
         <v>19</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="I4" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="R4" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="V4" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X4" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH4" t="n">
         <v>28</v>
       </c>
-      <c r="AF4" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>29</v>
-      </c>
       <c r="AI4" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM4" t="n">
         <v>190</v>
       </c>
-      <c r="AK4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>140</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>250</v>
-      </c>
       <c r="AN4" t="n">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="AO4" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G5" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="O5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.32</v>
       </c>
-      <c r="P5" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="V5" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="W5" t="n">
         <v>1.15</v>
       </c>
       <c r="X5" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG5" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AK5" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AL5" t="n">
-        <v>130</v>
+        <v>520</v>
       </c>
       <c r="AM5" t="n">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
         <v>200</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6">
@@ -1210,7 +1210,7 @@
         <v>4.3</v>
       </c>
       <c r="G6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H6" t="n">
         <v>1.92</v>
@@ -1237,10 +1237,10 @@
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R6" t="n">
         <v>1.33</v>
@@ -1252,7 +1252,7 @@
         <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>1.96</v>
@@ -1261,16 +1261,16 @@
         <v>1.24</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y6" t="n">
         <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
@@ -1279,40 +1279,40 @@
         <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
         <v>980</v>
       </c>
       <c r="AJ6" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
-        <v>75</v>
+        <v>320</v>
       </c>
       <c r="AL6" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>85</v>
+        <v>280</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="G7" t="n">
         <v>1.29</v>
@@ -1351,10 +1351,10 @@
         <v>11.5</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="K7" t="n">
         <v>7.2</v>
@@ -1375,22 +1375,22 @@
         <v>2.82</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R7" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S7" t="n">
         <v>2.14</v>
       </c>
       <c r="T7" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="U7" t="n">
         <v>1.95</v>
       </c>
       <c r="V7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W7" t="n">
         <v>4.4</v>
@@ -1399,7 +1399,7 @@
         <v>40</v>
       </c>
       <c r="Y7" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="Z7" t="n">
         <v>140</v>
@@ -1420,19 +1420,19 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG7" t="n">
         <v>12</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>14</v>
       </c>
       <c r="AH7" t="n">
         <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK7" t="n">
         <v>16.5</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G8" t="n">
         <v>2.14</v>
@@ -1486,46 +1486,46 @@
         <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>2.96</v>
+        <v>2.82</v>
       </c>
       <c r="T8" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U8" t="n">
         <v>2.26</v>
       </c>
       <c r="V8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W8" t="n">
         <v>1.87</v>
@@ -1534,52 +1534,52 @@
         <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="n">
         <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
         <v>13</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG8" t="n">
         <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="n">
         <v>29</v>
       </c>
       <c r="AK8" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AL8" t="n">
         <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
         <v>55</v>
@@ -1615,16 +1615,16 @@
         <v>3.6</v>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H9" t="n">
         <v>2.26</v>
       </c>
       <c r="I9" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>3.55</v>
@@ -1639,13 +1639,13 @@
         <v>4.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
         <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R9" t="n">
         <v>1.42</v>
@@ -1654,13 +1654,13 @@
         <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="U9" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="W9" t="n">
         <v>1.37</v>
@@ -1669,7 +1669,7 @@
         <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z9" t="n">
         <v>15</v>
@@ -1690,7 +1690,7 @@
         <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
@@ -1702,7 +1702,7 @@
         <v>36</v>
       </c>
       <c r="AJ9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK9" t="n">
         <v>42</v>
@@ -1711,13 +1711,13 @@
         <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="n">
         <v>38</v>
       </c>
       <c r="AO9" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="10">
@@ -1747,91 +1747,91 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G10" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="I10" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
         <v>4.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="S10" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="V10" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="W10" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB10" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="n">
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G11" t="n">
         <v>1.27</v>
       </c>
       <c r="H11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="n">
         <v>17.5</v>
@@ -1897,7 +1897,7 @@
         <v>6.6</v>
       </c>
       <c r="K11" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
         <v>1.22</v>
@@ -1906,19 +1906,19 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q11" t="n">
         <v>1.54</v>
       </c>
       <c r="R11" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
         <v>2.3</v>
@@ -1927,19 +1927,19 @@
         <v>2.14</v>
       </c>
       <c r="U11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V11" t="n">
         <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="X11" t="n">
         <v>34</v>
       </c>
       <c r="Y11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z11" t="n">
         <v>190</v>
@@ -1951,22 +1951,22 @@
         <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AD11" t="n">
         <v>60</v>
       </c>
       <c r="AE11" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AF11" t="n">
         <v>8.6</v>
       </c>
       <c r="AG11" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI11" t="n">
         <v>230</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H12" t="n">
         <v>2.86</v>
       </c>
       <c r="I12" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
         <v>3.7</v>
@@ -2038,37 +2038,37 @@
         <v>1.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="O12" t="n">
         <v>1.31</v>
       </c>
       <c r="P12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1.94</v>
       </c>
-      <c r="Q12" t="n">
-        <v>1.92</v>
-      </c>
       <c r="R12" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="S12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U12" t="n">
         <v>2.18</v>
       </c>
       <c r="V12" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="W12" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X12" t="n">
         <v>18</v>
@@ -2077,7 +2077,7 @@
         <v>15</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA12" t="n">
         <v>60</v>
@@ -2086,13 +2086,13 @@
         <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="n">
         <v>19.5</v>
@@ -2104,10 +2104,10 @@
         <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AJ12" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="n">
         <v>32</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AO12" t="n">
         <v>36</v>
@@ -2155,19 +2155,19 @@
         <v>1.47</v>
       </c>
       <c r="G13" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H13" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I13" t="n">
         <v>12.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.41</v>
@@ -2176,7 +2176,7 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O13" t="n">
         <v>1.43</v>
@@ -2185,13 +2185,13 @@
         <v>1.63</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S13" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
         <v>2.4</v>
@@ -2200,13 +2200,13 @@
         <v>1.58</v>
       </c>
       <c r="V13" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W13" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="X13" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
         <v>1000</v>
@@ -2221,7 +2221,7 @@
         <v>7</v>
       </c>
       <c r="AC13" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2233,7 +2233,7 @@
         <v>9</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
@@ -2245,7 +2245,7 @@
         <v>16.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
@@ -2254,7 +2254,7 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G14" t="n">
         <v>2.54</v>
@@ -2305,7 +2305,7 @@
         <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2329,7 +2329,7 @@
         <v>2.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="U14" t="n">
         <v>2.52</v>
@@ -2362,13 +2362,13 @@
         <v>14.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="n">
         <v>23</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
         <v>18</v>
@@ -2386,7 +2386,7 @@
         <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AN14" t="n">
         <v>15.5</v>
@@ -2437,10 +2437,10 @@
         <v>5.2</v>
       </c>
       <c r="K15" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -2452,10 +2452,10 @@
         <v>1.32</v>
       </c>
       <c r="P15" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R15" t="n">
         <v>1.36</v>
@@ -2467,10 +2467,10 @@
         <v>2.42</v>
       </c>
       <c r="U15" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="W15" t="n">
         <v>1.08</v>
@@ -2479,10 +2479,10 @@
         <v>15.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="Z15" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AA15" t="n">
         <v>10.5</v>
@@ -2512,7 +2512,7 @@
         <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>710</v>
+        <v>650</v>
       </c>
       <c r="AK15" t="n">
         <v>280</v>
@@ -2521,10 +2521,10 @@
         <v>240</v>
       </c>
       <c r="AM15" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AN15" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="AO15" t="n">
         <v>7.2</v>
@@ -2560,70 +2560,70 @@
         <v>4.3</v>
       </c>
       <c r="G16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="I16" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="J16" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="K16" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P16" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="R16" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="S16" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="T16" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="U16" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="V16" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="W16" t="n">
         <v>1.27</v>
       </c>
       <c r="X16" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC16" t="n">
         <v>13.5</v>
@@ -2632,37 +2632,37 @@
         <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AG16" t="n">
         <v>19.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AJ16" t="n">
         <v>110</v>
       </c>
       <c r="AK16" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AL16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AN16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
-        <v>8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="17">
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="G17" t="n">
         <v>2.78</v>
       </c>
       <c r="H17" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I17" t="n">
         <v>2.66</v>
@@ -2722,7 +2722,7 @@
         <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
         <v>1.6</v>
@@ -2749,10 +2749,10 @@
         <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
         <v>46</v>
@@ -2764,10 +2764,10 @@
         <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AF17" t="n">
         <v>25</v>
@@ -2776,13 +2776,13 @@
         <v>13.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI17" t="n">
         <v>38</v>
       </c>
       <c r="AJ17" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK17" t="n">
         <v>32</v>
@@ -2791,7 +2791,7 @@
         <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
         <v>17</v>
@@ -2872,10 +2872,10 @@
         <v>2.08</v>
       </c>
       <c r="U18" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V18" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W18" t="n">
         <v>2.2</v>
@@ -2887,7 +2887,7 @@
         <v>20</v>
       </c>
       <c r="Z18" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
@@ -2923,7 +2923,7 @@
         <v>27</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
@@ -2986,28 +2986,28 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S19" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="T19" t="n">
         <v>1.84</v>
       </c>
       <c r="U19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V19" t="n">
         <v>1.46</v>
@@ -3019,13 +3019,13 @@
         <v>12.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
         <v>19.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB19" t="n">
         <v>10</v>
@@ -3037,7 +3037,7 @@
         <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF19" t="n">
         <v>15</v>
@@ -3046,28 +3046,28 @@
         <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM19" t="n">
         <v>85</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="G20" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="H20" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="I20" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="J20" t="n">
         <v>3.55</v>
       </c>
       <c r="K20" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L20" t="n">
         <v>1.54</v>
@@ -3121,40 +3121,40 @@
         <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O20" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P20" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R20" t="n">
         <v>1.24</v>
       </c>
       <c r="S20" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T20" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U20" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V20" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W20" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="X20" t="n">
         <v>10.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z20" t="n">
         <v>38</v>
@@ -3175,13 +3175,13 @@
         <v>95</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG20" t="n">
         <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
         <v>110</v>
@@ -3193,16 +3193,16 @@
         <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM20" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AN20" t="n">
         <v>17.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
@@ -3238,16 +3238,16 @@
         <v>1.35</v>
       </c>
       <c r="H21" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K21" t="n">
         <v>5.9</v>
-      </c>
-      <c r="K21" t="n">
-        <v>6.2</v>
       </c>
       <c r="L21" t="n">
         <v>1.34</v>
@@ -3256,7 +3256,7 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O21" t="n">
         <v>1.25</v>
@@ -3265,49 +3265,49 @@
         <v>2.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S21" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T21" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U21" t="n">
         <v>1.76</v>
       </c>
       <c r="V21" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W21" t="n">
         <v>3.85</v>
       </c>
       <c r="X21" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y21" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z21" t="n">
         <v>110</v>
       </c>
       <c r="AA21" t="n">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="AB21" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AE21" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AF21" t="n">
         <v>7.8</v>
@@ -3319,7 +3319,7 @@
         <v>32</v>
       </c>
       <c r="AI21" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ21" t="n">
         <v>10.5</v>
@@ -3334,10 +3334,10 @@
         <v>200</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.56</v>
+        <v>1.95</v>
       </c>
       <c r="G2" t="n">
-        <v>2.98</v>
+        <v>2.26</v>
       </c>
       <c r="H2" t="n">
-        <v>2.36</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>16</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>2.24</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.45</v>
+        <v>1.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>2.04</v>
+        <v>2.66</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>1.59</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="V2" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="W2" t="n">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,34 +733,34 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AC2" t="n">
-        <v>42</v>
+        <v>13.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -805,7 +805,7 @@
         <v>1.81</v>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H3" t="n">
         <v>4.9</v>
@@ -832,16 +832,16 @@
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R3" t="n">
         <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="T3" t="n">
         <v>1.74</v>
@@ -859,7 +859,7 @@
         <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="n">
         <v>95</v>
@@ -868,7 +868,7 @@
         <v>110</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
         <v>9.199999999999999</v>
@@ -880,13 +880,13 @@
         <v>60</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
         <v>150</v>
@@ -907,7 +907,7 @@
         <v>9.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -946,16 +946,16 @@
         <v>1.83</v>
       </c>
       <c r="I4" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
@@ -976,7 +976,7 @@
         <v>1.23</v>
       </c>
       <c r="S4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -985,7 +985,7 @@
         <v>1.79</v>
       </c>
       <c r="V4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
         <v>1.22</v>
@@ -1075,19 +1075,19 @@
         <v>6.8</v>
       </c>
       <c r="G5" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="H5" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="I5" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.4</v>
@@ -1096,10 +1096,10 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
         <v>1.9</v>
@@ -1108,28 +1108,28 @@
         <v>2.06</v>
       </c>
       <c r="R5" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T5" t="n">
         <v>2.12</v>
       </c>
       <c r="U5" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="W5" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z5" t="n">
         <v>8.800000000000001</v>
@@ -1138,7 +1138,7 @@
         <v>16.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="n">
         <v>9.6</v>
@@ -1147,25 +1147,25 @@
         <v>12.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AH5" t="n">
         <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AJ5" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AK5" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AL5" t="n">
         <v>520</v>
@@ -1174,10 +1174,10 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AO5" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="6">
@@ -1237,7 +1237,7 @@
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q6" t="n">
         <v>1.97</v>
@@ -1252,13 +1252,13 @@
         <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
         <v>1.96</v>
       </c>
       <c r="W6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1276,7 +1276,7 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
         <v>40</v>
@@ -1345,7 +1345,7 @@
         <v>1.27</v>
       </c>
       <c r="G7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
         <v>11.5</v>
@@ -1357,7 +1357,7 @@
         <v>6.4</v>
       </c>
       <c r="K7" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.2</v>
@@ -1366,7 +1366,7 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.15</v>
@@ -1384,19 +1384,19 @@
         <v>2.14</v>
       </c>
       <c r="T7" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V7" t="n">
         <v>1.07</v>
       </c>
       <c r="W7" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="X7" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Y7" t="n">
         <v>120</v>
@@ -1420,10 +1420,10 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
         <v>34</v>
@@ -1438,13 +1438,13 @@
         <v>16.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="G8" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="n">
         <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1501,22 +1501,22 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
         <v>2.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S8" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="T8" t="n">
         <v>1.64</v>
@@ -1528,46 +1528,46 @@
         <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="n">
         <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="n">
         <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC8" t="n">
         <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AE8" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AF8" t="n">
         <v>25</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AK8" t="n">
         <v>65</v>
@@ -1579,10 +1579,10 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9">
@@ -1618,16 +1618,16 @@
         <v>3.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I9" t="n">
         <v>2.3</v>
       </c>
       <c r="J9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.55</v>
       </c>
       <c r="L9" t="n">
         <v>1.38</v>
@@ -1654,13 +1654,13 @@
         <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U9" t="n">
         <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="W9" t="n">
         <v>1.37</v>
@@ -1702,7 +1702,7 @@
         <v>36</v>
       </c>
       <c r="AJ9" t="n">
-        <v>65</v>
+        <v>440</v>
       </c>
       <c r="AK9" t="n">
         <v>42</v>
@@ -1750,19 +1750,19 @@
         <v>4.1</v>
       </c>
       <c r="G10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="I10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J10" t="n">
         <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>1.28</v>
@@ -1786,7 +1786,7 @@
         <v>1.43</v>
       </c>
       <c r="S10" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T10" t="n">
         <v>1.66</v>
@@ -1795,10 +1795,10 @@
         <v>2.16</v>
       </c>
       <c r="V10" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="W10" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X10" t="n">
         <v>990</v>
@@ -1897,7 +1897,7 @@
         <v>6.6</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.22</v>
@@ -1906,7 +1906,7 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
@@ -1933,13 +1933,13 @@
         <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="X11" t="n">
         <v>34</v>
       </c>
       <c r="Y11" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="Z11" t="n">
         <v>190</v>
@@ -1948,10 +1948,10 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC11" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD11" t="n">
         <v>60</v>
@@ -1960,7 +1960,7 @@
         <v>320</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
@@ -2020,13 +2020,13 @@
         <v>2.6</v>
       </c>
       <c r="G12" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="H12" t="n">
         <v>2.86</v>
       </c>
       <c r="I12" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J12" t="n">
         <v>3.35</v>
@@ -2047,7 +2047,7 @@
         <v>1.31</v>
       </c>
       <c r="P12" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q12" t="n">
         <v>1.94</v>
@@ -2065,7 +2065,7 @@
         <v>2.18</v>
       </c>
       <c r="V12" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="W12" t="n">
         <v>1.58</v>
@@ -2080,7 +2080,7 @@
         <v>25</v>
       </c>
       <c r="AA12" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AB12" t="n">
         <v>13</v>
@@ -2104,7 +2104,7 @@
         <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
         <v>95</v>
@@ -2113,13 +2113,13 @@
         <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO12" t="n">
         <v>36</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G13" t="n">
         <v>1.57</v>
       </c>
       <c r="H13" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="I13" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.41</v>
@@ -2188,7 +2188,7 @@
         <v>2.3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S13" t="n">
         <v>4.1</v>
@@ -2221,7 +2221,7 @@
         <v>7</v>
       </c>
       <c r="AC13" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2233,7 +2233,7 @@
         <v>9</v>
       </c>
       <c r="AG13" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
@@ -2242,7 +2242,7 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AK13" t="n">
         <v>70</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="G14" t="n">
         <v>2.54</v>
       </c>
       <c r="H14" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="I14" t="n">
         <v>3.15</v>
@@ -2302,10 +2302,10 @@
         <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2332,10 +2332,10 @@
         <v>1.56</v>
       </c>
       <c r="U14" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V14" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W14" t="n">
         <v>1.65</v>
@@ -2344,16 +2344,16 @@
         <v>26</v>
       </c>
       <c r="Y14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="n">
         <v>60</v>
       </c>
       <c r="AB14" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC14" t="n">
         <v>10.5</v>
@@ -2386,13 +2386,13 @@
         <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AN14" t="n">
         <v>15.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -2422,61 +2422,61 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="G15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="I15" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="J15" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K15" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
         <v>1.36</v>
       </c>
       <c r="S15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T15" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="U15" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="V15" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="W15" t="n">
         <v>1.08</v>
       </c>
       <c r="X15" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
         <v>7</v>
@@ -2500,10 +2500,10 @@
         <v>16.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AG15" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH15" t="n">
         <v>40</v>
@@ -2512,19 +2512,19 @@
         <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>650</v>
+        <v>740</v>
       </c>
       <c r="AK15" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="AL15" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AM15" t="n">
         <v>280</v>
       </c>
       <c r="AN15" t="n">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="AO15" t="n">
         <v>7.2</v>
@@ -2569,7 +2569,7 @@
         <v>1.8</v>
       </c>
       <c r="J16" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K16" t="n">
         <v>5.1</v>
@@ -2584,16 +2584,16 @@
         <v>7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q16" t="n">
         <v>1.41</v>
       </c>
       <c r="R16" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S16" t="n">
         <v>2.02</v>
@@ -2608,7 +2608,7 @@
         <v>2.24</v>
       </c>
       <c r="W16" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X16" t="n">
         <v>38</v>
@@ -2641,7 +2641,7 @@
         <v>19.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
         <v>24</v>
@@ -2650,19 +2650,19 @@
         <v>110</v>
       </c>
       <c r="AK16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL16" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM16" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="AN16" t="n">
         <v>29</v>
       </c>
       <c r="AO16" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G17" t="n">
         <v>2.78</v>
@@ -2701,7 +2701,7 @@
         <v>2.5</v>
       </c>
       <c r="I17" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="J17" t="n">
         <v>3.95</v>
@@ -2710,7 +2710,7 @@
         <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -2728,10 +2728,10 @@
         <v>1.6</v>
       </c>
       <c r="R17" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S17" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="T17" t="n">
         <v>1.55</v>
@@ -2740,7 +2740,7 @@
         <v>2.54</v>
       </c>
       <c r="V17" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W17" t="n">
         <v>1.56</v>
@@ -2755,13 +2755,13 @@
         <v>21</v>
       </c>
       <c r="AA17" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AB17" t="n">
         <v>16.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
         <v>13</v>
@@ -2770,19 +2770,19 @@
         <v>26</v>
       </c>
       <c r="AF17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
         <v>13.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI17" t="n">
         <v>38</v>
       </c>
       <c r="AJ17" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AK17" t="n">
         <v>32</v>
@@ -2797,7 +2797,7 @@
         <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G18" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H18" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
         <v>3.45</v>
@@ -2854,7 +2854,7 @@
         <v>2.92</v>
       </c>
       <c r="O18" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P18" t="n">
         <v>1.65</v>
@@ -2866,7 +2866,7 @@
         <v>1.24</v>
       </c>
       <c r="S18" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T18" t="n">
         <v>2.08</v>
@@ -2875,7 +2875,7 @@
         <v>1.74</v>
       </c>
       <c r="V18" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W18" t="n">
         <v>2.2</v>
@@ -2884,7 +2884,7 @@
         <v>13.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z18" t="n">
         <v>150</v>
@@ -2896,7 +2896,7 @@
         <v>8</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD18" t="n">
         <v>30</v>
@@ -2920,16 +2920,16 @@
         <v>23</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G19" t="n">
         <v>2.56</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.58</v>
       </c>
       <c r="H19" t="n">
         <v>3.15</v>
@@ -3004,25 +3004,25 @@
         <v>3.85</v>
       </c>
       <c r="T19" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U19" t="n">
         <v>2.16</v>
       </c>
       <c r="V19" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W19" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
         <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="n">
         <v>55</v>
@@ -3037,13 +3037,13 @@
         <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
         <v>17</v>
@@ -3052,7 +3052,7 @@
         <v>48</v>
       </c>
       <c r="AJ19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK19" t="n">
         <v>27</v>
@@ -3061,10 +3061,10 @@
         <v>42</v>
       </c>
       <c r="AM19" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
         <v>34</v>
@@ -3127,16 +3127,16 @@
         <v>1.46</v>
       </c>
       <c r="P20" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q20" t="n">
         <v>2.4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T20" t="n">
         <v>2.16</v>
@@ -3160,7 +3160,7 @@
         <v>38</v>
       </c>
       <c r="AA20" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AB20" t="n">
         <v>6.8</v>
@@ -3169,10 +3169,10 @@
         <v>7.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AF20" t="n">
         <v>9.6</v>
@@ -3235,19 +3235,19 @@
         <v>1.33</v>
       </c>
       <c r="G21" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H21" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J21" t="n">
         <v>5.8</v>
       </c>
       <c r="K21" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
         <v>1.34</v>
@@ -3262,40 +3262,40 @@
         <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R21" t="n">
         <v>1.48</v>
       </c>
       <c r="S21" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T21" t="n">
         <v>2.18</v>
       </c>
       <c r="U21" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
         <v>1.08</v>
       </c>
       <c r="W21" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="X21" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AA21" t="n">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="AB21" t="n">
         <v>8.199999999999999</v>
@@ -3307,7 +3307,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AF21" t="n">
         <v>7.8</v>
@@ -3316,16 +3316,16 @@
         <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI21" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AJ21" t="n">
         <v>10.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL21" t="n">
         <v>40</v>
@@ -3334,7 +3334,7 @@
         <v>200</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO21" t="n">
         <v>280</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G2" t="n">
         <v>2.26</v>
@@ -688,31 +688,31 @@
         <v>1.31</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
         <v>1.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T2" t="n">
         <v>1.59</v>
       </c>
       <c r="U2" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V2" t="n">
         <v>1.33</v>
@@ -721,7 +721,7 @@
         <v>1.79</v>
       </c>
       <c r="X2" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="Y2" t="n">
         <v>100</v>
@@ -730,7 +730,7 @@
         <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB2" t="n">
         <v>130</v>
@@ -739,7 +739,7 @@
         <v>13.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>85</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -805,19 +805,19 @@
         <v>1.81</v>
       </c>
       <c r="G3" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.34</v>
@@ -835,19 +835,19 @@
         <v>2.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R3" t="n">
         <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T3" t="n">
         <v>1.74</v>
       </c>
       <c r="U3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V3" t="n">
         <v>1.25</v>
@@ -859,7 +859,7 @@
         <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
         <v>95</v>
@@ -868,7 +868,7 @@
         <v>110</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9.199999999999999</v>
@@ -877,7 +877,7 @@
         <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="n">
         <v>12</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="G4" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H4" t="n">
         <v>1.83</v>
@@ -952,7 +952,7 @@
         <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
         <v>1.43</v>
@@ -967,10 +967,10 @@
         <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R4" t="n">
         <v>1.23</v>
@@ -997,10 +997,10 @@
         <v>7.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
         <v>15</v>
@@ -1009,19 +1009,19 @@
         <v>8.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AF4" t="n">
         <v>42</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
         <v>55</v>
@@ -1033,7 +1033,7 @@
         <v>110</v>
       </c>
       <c r="AL4" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AM4" t="n">
         <v>190</v>
@@ -1042,7 +1042,7 @@
         <v>310</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G5" t="n">
         <v>7.2</v>
@@ -1081,10 +1081,10 @@
         <v>1.59</v>
       </c>
       <c r="I5" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
         <v>4.4</v>
@@ -1120,13 +1120,13 @@
         <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="W5" t="n">
         <v>1.16</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
         <v>7.4</v>
@@ -1222,7 +1222,7 @@
         <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
         <v>1.35</v>
@@ -1246,7 +1246,7 @@
         <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
         <v>1.81</v>
@@ -1381,7 +1381,7 @@
         <v>1.74</v>
       </c>
       <c r="S7" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="T7" t="n">
         <v>1.9</v>
@@ -1396,7 +1396,7 @@
         <v>4.1</v>
       </c>
       <c r="X7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="n">
         <v>120</v>
@@ -1408,10 +1408,10 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AD7" t="n">
         <v>55</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G8" t="n">
         <v>2.12</v>
       </c>
       <c r="H8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
         <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1510,16 +1510,16 @@
         <v>2.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R8" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T8" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U8" t="n">
         <v>2.26</v>
@@ -1552,7 +1552,7 @@
         <v>34</v>
       </c>
       <c r="AE8" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="n">
         <v>25</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G9" t="n">
         <v>3.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
@@ -1645,7 +1645,7 @@
         <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
         <v>1.42</v>
@@ -1660,7 +1660,7 @@
         <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="W9" t="n">
         <v>1.37</v>
@@ -1708,13 +1708,13 @@
         <v>42</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM9" t="n">
         <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO9" t="n">
         <v>18.5</v>
@@ -1750,16 +1750,16 @@
         <v>4.1</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H10" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="I10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
         <v>4</v>
@@ -1774,37 +1774,37 @@
         <v>4.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
         <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R10" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="U10" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="W10" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X10" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="n">
         <v>28</v>
@@ -1813,7 +1813,7 @@
         <v>900</v>
       </c>
       <c r="AB10" t="n">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="AC10" t="n">
         <v>42</v>
@@ -1888,7 +1888,7 @@
         <v>1.27</v>
       </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="I11" t="n">
         <v>17.5</v>
@@ -1900,28 +1900,28 @@
         <v>7.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S11" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="T11" t="n">
         <v>2.14</v>
@@ -1933,10 +1933,10 @@
         <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="X11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="n">
         <v>130</v>
@@ -1948,10 +1948,10 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD11" t="n">
         <v>60</v>
@@ -1960,7 +1960,7 @@
         <v>320</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
@@ -1975,7 +1975,7 @@
         <v>11.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
         <v>44</v>
@@ -2020,19 +2020,19 @@
         <v>2.6</v>
       </c>
       <c r="G12" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="H12" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
         <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.33</v>
@@ -2047,10 +2047,10 @@
         <v>1.31</v>
       </c>
       <c r="P12" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R12" t="n">
         <v>1.35</v>
@@ -2086,22 +2086,22 @@
         <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
         <v>15.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AF12" t="n">
-        <v>19.5</v>
+        <v>36</v>
       </c>
       <c r="AG12" t="n">
         <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
         <v>980</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="G13" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H13" t="n">
         <v>8.6</v>
@@ -2167,7 +2167,7 @@
         <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.41</v>
@@ -2176,7 +2176,7 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O13" t="n">
         <v>1.43</v>
@@ -2194,7 +2194,7 @@
         <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U13" t="n">
         <v>1.58</v>
@@ -2209,7 +2209,7 @@
         <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2221,7 +2221,7 @@
         <v>7</v>
       </c>
       <c r="AC13" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2233,7 +2233,7 @@
         <v>9</v>
       </c>
       <c r="AG13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
@@ -2248,7 +2248,7 @@
         <v>70</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G14" t="n">
         <v>2.54</v>
       </c>
       <c r="H14" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I14" t="n">
         <v>3.15</v>
@@ -2302,7 +2302,7 @@
         <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.28</v>
@@ -2317,13 +2317,13 @@
         <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q14" t="n">
         <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S14" t="n">
         <v>2.4</v>
@@ -2338,7 +2338,7 @@
         <v>1.47</v>
       </c>
       <c r="W14" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X14" t="n">
         <v>26</v>
@@ -2377,10 +2377,10 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AL14" t="n">
         <v>36</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="G15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="n">
         <v>1.34</v>
       </c>
       <c r="I15" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="J15" t="n">
         <v>5.4</v>
@@ -2446,58 +2446,58 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
         <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="R15" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S15" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T15" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="U15" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V15" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="W15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AA15" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB15" t="n">
         <v>32</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD15" t="n">
         <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF15" t="n">
         <v>130</v>
@@ -2515,19 +2515,19 @@
         <v>740</v>
       </c>
       <c r="AK15" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AL15" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AM15" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="AN15" t="n">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G16" t="n">
         <v>4.9</v>
@@ -2566,10 +2566,10 @@
         <v>1.71</v>
       </c>
       <c r="I16" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="J16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K16" t="n">
         <v>5.1</v>
@@ -2587,7 +2587,7 @@
         <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q16" t="n">
         <v>1.41</v>
@@ -2605,7 +2605,7 @@
         <v>2.74</v>
       </c>
       <c r="V16" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="W16" t="n">
         <v>1.26</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="G17" t="n">
         <v>2.78</v>
@@ -2701,7 +2701,7 @@
         <v>2.5</v>
       </c>
       <c r="I17" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="J17" t="n">
         <v>3.95</v>
@@ -2710,7 +2710,7 @@
         <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -2725,10 +2725,10 @@
         <v>2.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R17" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S17" t="n">
         <v>2.44</v>
@@ -2740,7 +2740,7 @@
         <v>2.54</v>
       </c>
       <c r="V17" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W17" t="n">
         <v>1.56</v>
@@ -2797,7 +2797,7 @@
         <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="18">
@@ -2845,7 +2845,7 @@
         <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
@@ -2887,7 +2887,7 @@
         <v>19.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
@@ -2968,10 +2968,10 @@
         <v>2.56</v>
       </c>
       <c r="H19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I19" t="n">
         <v>3.15</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.2</v>
       </c>
       <c r="J19" t="n">
         <v>3.4</v>
@@ -3001,7 +3001,7 @@
         <v>1.33</v>
       </c>
       <c r="S19" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T19" t="n">
         <v>1.83</v>
@@ -3010,7 +3010,7 @@
         <v>2.16</v>
       </c>
       <c r="V19" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W19" t="n">
         <v>1.64</v>
@@ -3022,22 +3022,22 @@
         <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB19" t="n">
         <v>10</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF19" t="n">
         <v>15.5</v>
@@ -3055,16 +3055,16 @@
         <v>36</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
         <v>42</v>
       </c>
       <c r="AM19" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
         <v>34</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="G20" t="n">
         <v>1.89</v>
       </c>
       <c r="H20" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I20" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J20" t="n">
         <v>3.55</v>
@@ -3127,10 +3127,10 @@
         <v>1.46</v>
       </c>
       <c r="P20" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R20" t="n">
         <v>1.25</v>
@@ -3139,13 +3139,13 @@
         <v>4.7</v>
       </c>
       <c r="T20" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U20" t="n">
         <v>1.81</v>
       </c>
       <c r="V20" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W20" t="n">
         <v>2.12</v>
@@ -3163,7 +3163,7 @@
         <v>140</v>
       </c>
       <c r="AB20" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC20" t="n">
         <v>7.8</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G21" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H21" t="n">
         <v>12</v>
       </c>
       <c r="I21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L21" t="n">
         <v>1.34</v>
@@ -3259,43 +3259,43 @@
         <v>4.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R21" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S21" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="T21" t="n">
         <v>2.18</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V21" t="n">
         <v>1.08</v>
       </c>
       <c r="W21" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="X21" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y21" t="n">
         <v>38</v>
       </c>
       <c r="Z21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA21" t="n">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="AB21" t="n">
         <v>8.199999999999999</v>
@@ -3310,7 +3310,7 @@
         <v>210</v>
       </c>
       <c r="AF21" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG21" t="n">
         <v>10.5</v>
@@ -3334,7 +3334,7 @@
         <v>200</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO21" t="n">
         <v>280</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G2" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
         <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T2" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="U2" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="V2" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W2" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="X2" t="n">
         <v>46</v>
@@ -733,31 +733,31 @@
         <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AC2" t="n">
         <v>13.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>30</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AG2" t="n">
         <v>40</v>
       </c>
       <c r="AH2" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>900</v>
+        <v>140</v>
       </c>
       <c r="AK2" t="n">
         <v>65</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I3" t="n">
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>
@@ -826,37 +826,37 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>2.96</v>
       </c>
       <c r="T3" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U3" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V3" t="n">
         <v>1.25</v>
       </c>
       <c r="W3" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y3" t="n">
         <v>21</v>
@@ -868,19 +868,19 @@
         <v>110</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE3" t="n">
         <v>55</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
@@ -895,7 +895,7 @@
         <v>19</v>
       </c>
       <c r="AK3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
         <v>40</v>
@@ -904,7 +904,7 @@
         <v>330</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO3" t="n">
         <v>55</v>
@@ -937,52 +937,52 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="I4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O4" t="n">
         <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="R4" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
         <v>2</v>
@@ -994,7 +994,7 @@
         <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z4" t="n">
         <v>11</v>
@@ -1003,28 +1003,28 @@
         <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="n">
         <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ4" t="n">
         <v>900</v>
@@ -1042,7 +1042,7 @@
         <v>310</v>
       </c>
       <c r="AO4" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1078,7 +1078,7 @@
         <v>7.2</v>
       </c>
       <c r="H5" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="I5" t="n">
         <v>1.62</v>
@@ -1090,37 +1090,37 @@
         <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P5" t="n">
         <v>1.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T5" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U5" t="n">
         <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="W5" t="n">
         <v>1.16</v>
@@ -1141,28 +1141,28 @@
         <v>20</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" t="n">
         <v>12.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>160</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AI5" t="n">
         <v>48</v>
       </c>
       <c r="AJ5" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AK5" t="n">
         <v>130</v>
@@ -1174,7 +1174,7 @@
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AO5" t="n">
         <v>11.5</v>
@@ -1210,7 +1210,7 @@
         <v>4.3</v>
       </c>
       <c r="G6" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="H6" t="n">
         <v>1.92</v>
@@ -1219,34 +1219,34 @@
         <v>2.04</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
         <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="R6" t="n">
         <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="T6" t="n">
         <v>1.81</v>
@@ -1255,16 +1255,16 @@
         <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="n">
         <v>40</v>
@@ -1276,10 +1276,10 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>40</v>
+        <v>11.5</v>
       </c>
       <c r="AE6" t="n">
         <v>65</v>
@@ -1309,7 +1309,7 @@
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="AO6" t="n">
         <v>55</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G7" t="n">
         <v>1.3</v>
       </c>
       <c r="H7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J7" t="n">
         <v>6.4</v>
@@ -1360,40 +1360,40 @@
         <v>7.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
         <v>6.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="Q7" t="n">
         <v>1.51</v>
       </c>
       <c r="R7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
         <v>1.07</v>
       </c>
       <c r="W7" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="X7" t="n">
         <v>34</v>
@@ -1408,10 +1408,10 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD7" t="n">
         <v>55</v>
@@ -1420,22 +1420,22 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>470</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL7" t="n">
         <v>34</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G8" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.7</v>
@@ -1492,10 +1492,10 @@
         <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1504,22 +1504,22 @@
         <v>4.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="R8" t="n">
         <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="T8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U8" t="n">
         <v>2.26</v>
@@ -1528,28 +1528,28 @@
         <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X8" t="n">
         <v>38</v>
       </c>
       <c r="Y8" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="n">
         <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC8" t="n">
         <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="AE8" t="n">
         <v>130</v>
@@ -1612,46 +1612,46 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.55</v>
       </c>
-      <c r="G9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L9" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q9" t="n">
         <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T9" t="n">
         <v>1.7</v>
@@ -1660,10 +1660,10 @@
         <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="W9" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
@@ -1675,7 +1675,7 @@
         <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB9" t="n">
         <v>15.5</v>
@@ -1687,7 +1687,7 @@
         <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF9" t="n">
         <v>28</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="G10" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H10" t="n">
         <v>1.95</v>
@@ -1762,16 +1762,16 @@
         <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O10" t="n">
         <v>1.25</v>
@@ -1780,28 +1780,28 @@
         <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="T10" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V10" t="n">
         <v>1.98</v>
       </c>
       <c r="W10" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y10" t="n">
         <v>21</v>
@@ -1813,7 +1813,7 @@
         <v>900</v>
       </c>
       <c r="AB10" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AC10" t="n">
         <v>42</v>
@@ -1828,7 +1828,7 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>42</v>
+        <v>990</v>
       </c>
       <c r="AH10" t="n">
         <v>60</v>
@@ -1846,7 +1846,7 @@
         <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
@@ -1894,37 +1894,37 @@
         <v>17.5</v>
       </c>
       <c r="J11" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R11" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="S11" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="T11" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U11" t="n">
         <v>1.73</v>
@@ -1948,7 +1948,7 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC11" t="n">
         <v>16</v>
@@ -1960,7 +1960,7 @@
         <v>320</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
@@ -1972,10 +1972,10 @@
         <v>230</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL11" t="n">
         <v>44</v>
@@ -2023,7 +2023,7 @@
         <v>2.72</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I12" t="n">
         <v>3.1</v>
@@ -2032,46 +2032,46 @@
         <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="O12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="R12" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
         <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
         <v>15</v>
@@ -2083,10 +2083,10 @@
         <v>130</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
         <v>15.5</v>
@@ -2113,7 +2113,7 @@
         <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2152,49 +2152,49 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="G13" t="n">
         <v>1.56</v>
       </c>
       <c r="H13" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
         <v>4.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="O13" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R13" t="n">
         <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="T13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U13" t="n">
         <v>1.58</v>
@@ -2203,13 +2203,13 @@
         <v>1.1</v>
       </c>
       <c r="W13" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,10 +2218,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2230,10 +2230,10 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
@@ -2242,13 +2242,13 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="AK13" t="n">
         <v>70</v>
       </c>
       <c r="AL13" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
@@ -2287,58 +2287,58 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G14" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R14" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="S14" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T14" t="n">
         <v>1.56</v>
       </c>
       <c r="U14" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="V14" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W14" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X14" t="n">
         <v>26</v>
@@ -2347,7 +2347,7 @@
         <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AA14" t="n">
         <v>60</v>
@@ -2365,7 +2365,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AG14" t="n">
         <v>13</v>
@@ -2374,25 +2374,25 @@
         <v>18</v>
       </c>
       <c r="AI14" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="n">
         <v>95</v>
       </c>
       <c r="AK14" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="15">
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G15" t="n">
         <v>13</v>
-      </c>
-      <c r="G15" t="n">
-        <v>14</v>
       </c>
       <c r="H15" t="n">
         <v>1.34</v>
@@ -2434,13 +2434,13 @@
         <v>1.35</v>
       </c>
       <c r="J15" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K15" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -2452,16 +2452,16 @@
         <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="n">
         <v>1.94</v>
       </c>
       <c r="R15" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T15" t="n">
         <v>2.4</v>
@@ -2473,7 +2473,7 @@
         <v>3.85</v>
       </c>
       <c r="W15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X15" t="n">
         <v>18</v>
@@ -2482,13 +2482,13 @@
         <v>7.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AA15" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AB15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
         <v>12.5</v>
@@ -2521,13 +2521,13 @@
         <v>240</v>
       </c>
       <c r="AM15" t="n">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="AN15" t="n">
-        <v>590</v>
+        <v>510</v>
       </c>
       <c r="AO15" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="16">
@@ -2560,22 +2560,22 @@
         <v>4.4</v>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H16" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="I16" t="n">
         <v>1.78</v>
       </c>
       <c r="J16" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -2584,25 +2584,25 @@
         <v>7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P16" t="n">
         <v>3.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="R16" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S16" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="T16" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="U16" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="V16" t="n">
         <v>2.28</v>
@@ -2614,7 +2614,7 @@
         <v>38</v>
       </c>
       <c r="Y16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z16" t="n">
         <v>16.5</v>
@@ -2629,7 +2629,7 @@
         <v>13.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE16" t="n">
         <v>18.5</v>
@@ -2650,16 +2650,16 @@
         <v>110</v>
       </c>
       <c r="AK16" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
         <v>250</v>
       </c>
       <c r="AN16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO16" t="n">
         <v>6</v>
@@ -2692,61 +2692,61 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G17" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="H17" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I17" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J17" t="n">
         <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R17" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S17" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="T17" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U17" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="V17" t="n">
         <v>1.6</v>
       </c>
       <c r="W17" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y17" t="n">
         <v>16</v>
@@ -2770,7 +2770,7 @@
         <v>26</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
         <v>13.5</v>
@@ -2779,10 +2779,10 @@
         <v>15.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ17" t="n">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="AK17" t="n">
         <v>32</v>
@@ -2794,7 +2794,7 @@
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO17" t="n">
         <v>15.5</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G18" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H18" t="n">
         <v>5.6</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J18" t="n">
         <v>3.45</v>
@@ -2845,46 +2845,46 @@
         <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="O18" t="n">
         <v>1.42</v>
       </c>
       <c r="P18" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R18" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
         <v>4.3</v>
       </c>
       <c r="T18" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U18" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V18" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W18" t="n">
         <v>2.2</v>
       </c>
       <c r="X18" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="n">
         <v>980</v>
@@ -2893,43 +2893,43 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG18" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK18" t="n">
         <v>23</v>
       </c>
-      <c r="AK18" t="n">
-        <v>26</v>
-      </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G19" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I19" t="n">
         <v>3.15</v>
@@ -2989,7 +2989,7 @@
         <v>3.7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P19" t="n">
         <v>1.89</v>
@@ -3010,19 +3010,19 @@
         <v>2.16</v>
       </c>
       <c r="V19" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W19" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X19" t="n">
         <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="n">
         <v>50</v>
@@ -3034,16 +3034,16 @@
         <v>7.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
         <v>34</v>
       </c>
       <c r="AF19" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
         <v>17</v>
@@ -3061,10 +3061,10 @@
         <v>42</v>
       </c>
       <c r="AM19" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>34</v>
@@ -3103,7 +3103,7 @@
         <v>1.89</v>
       </c>
       <c r="H20" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I20" t="n">
         <v>5.4</v>
@@ -3115,7 +3115,7 @@
         <v>3.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="M20" t="n">
         <v>1.1</v>
@@ -3130,7 +3130,7 @@
         <v>1.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R20" t="n">
         <v>1.25</v>
@@ -3139,7 +3139,7 @@
         <v>4.7</v>
       </c>
       <c r="T20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U20" t="n">
         <v>1.81</v>
@@ -3172,7 +3172,7 @@
         <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF20" t="n">
         <v>9.6</v>
@@ -3235,76 +3235,76 @@
         <v>1.34</v>
       </c>
       <c r="G21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6</v>
+      </c>
+      <c r="L21" t="n">
         <v>1.35</v>
-      </c>
-      <c r="H21" t="n">
-        <v>12</v>
-      </c>
-      <c r="I21" t="n">
-        <v>13</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.34</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S21" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="T21" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U21" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W21" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="X21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y21" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z21" t="n">
         <v>110</v>
       </c>
       <c r="AA21" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="AB21" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AE21" t="n">
         <v>210</v>
@@ -3316,7 +3316,7 @@
         <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI21" t="n">
         <v>180</v>
@@ -3334,7 +3334,7 @@
         <v>200</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AO21" t="n">
         <v>280</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G2" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
         <v>4.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
         <v>4.5</v>
@@ -694,64 +694,64 @@
         <v>4.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T2" t="n">
         <v>1.61</v>
       </c>
       <c r="U2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W2" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="X2" t="n">
         <v>46</v>
       </c>
       <c r="Y2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA2" t="n">
         <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AC2" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AF2" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -760,10 +760,10 @@
         <v>140</v>
       </c>
       <c r="AK2" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -805,19 +805,19 @@
         <v>1.78</v>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H3" t="n">
         <v>4.8</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
         <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.34</v>
@@ -832,7 +832,7 @@
         <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q3" t="n">
         <v>1.75</v>
@@ -844,40 +844,40 @@
         <v>2.96</v>
       </c>
       <c r="T3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
         <v>2.26</v>
       </c>
       <c r="X3" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
         <v>21</v>
       </c>
       <c r="Z3" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AF3" t="n">
         <v>11.5</v>
@@ -886,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AJ3" t="n">
         <v>19</v>
@@ -898,16 +898,16 @@
         <v>17</v>
       </c>
       <c r="AL3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AM3" t="n">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -949,7 +949,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
         <v>3.7</v>
@@ -961,7 +961,7 @@
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O4" t="n">
         <v>1.43</v>
@@ -970,7 +970,7 @@
         <v>1.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
         <v>1.24</v>
@@ -991,13 +991,13 @@
         <v>1.22</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA4" t="n">
         <v>23</v>
@@ -1015,7 +1015,7 @@
         <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AG4" t="n">
         <v>21</v>
@@ -1030,7 +1030,7 @@
         <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AL4" t="n">
         <v>290</v>
@@ -1039,10 +1039,10 @@
         <v>190</v>
       </c>
       <c r="AN4" t="n">
-        <v>310</v>
+        <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="5">
@@ -1075,19 +1075,19 @@
         <v>6.6</v>
       </c>
       <c r="G5" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="I5" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.43</v>
@@ -1096,16 +1096,16 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O5" t="n">
         <v>1.37</v>
       </c>
       <c r="P5" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
         <v>1.33</v>
@@ -1114,28 +1114,28 @@
         <v>3.85</v>
       </c>
       <c r="T5" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="U5" t="n">
         <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="W5" t="n">
         <v>1.16</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
         <v>7.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA5" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB5" t="n">
         <v>20</v>
@@ -1144,40 +1144,40 @@
         <v>9.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AG5" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="AH5" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AI5" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AK5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AL5" t="n">
-        <v>520</v>
+        <v>120</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>190</v>
       </c>
       <c r="AN5" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AO5" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H6" t="n">
         <v>1.92</v>
       </c>
       <c r="I6" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="J6" t="n">
         <v>3.45</v>
@@ -1234,28 +1234,28 @@
         <v>3.55</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R6" t="n">
         <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T6" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W6" t="n">
         <v>1.26</v>
@@ -1276,10 +1276,10 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.5</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="n">
         <v>65</v>
@@ -1288,7 +1288,7 @@
         <v>120</v>
       </c>
       <c r="AG6" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
         <v>60</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="G7" t="n">
         <v>1.3</v>
       </c>
       <c r="H7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I7" t="n">
         <v>14.5</v>
       </c>
       <c r="J7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K7" t="n">
         <v>7.4</v>
@@ -1366,43 +1366,43 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R7" t="n">
         <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T7" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V7" t="n">
         <v>1.07</v>
       </c>
       <c r="W7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X7" t="n">
         <v>34</v>
       </c>
       <c r="Y7" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="Z7" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1414,7 +1414,7 @@
         <v>16</v>
       </c>
       <c r="AD7" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1435,7 +1435,7 @@
         <v>10.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="n">
         <v>34</v>
@@ -1483,7 +1483,7 @@
         <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
         <v>4.2</v>
@@ -1492,7 +1492,7 @@
         <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
         <v>1.39</v>
@@ -1507,16 +1507,16 @@
         <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S8" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
         <v>1.67</v>
@@ -1534,10 +1534,10 @@
         <v>38</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
         <v>900</v>
@@ -1552,7 +1552,7 @@
         <v>16.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AF8" t="n">
         <v>25</v>
@@ -1567,7 +1567,7 @@
         <v>980</v>
       </c>
       <c r="AJ8" t="n">
-        <v>65</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
         <v>65</v>
@@ -1582,7 +1582,7 @@
         <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -1624,7 +1624,7 @@
         <v>2.26</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>3.55</v>
@@ -1645,7 +1645,7 @@
         <v>2.08</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R9" t="n">
         <v>1.43</v>
@@ -1654,10 +1654,10 @@
         <v>3.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U9" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V9" t="n">
         <v>1.79</v>
@@ -1669,7 +1669,7 @@
         <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
         <v>15</v>
@@ -1702,7 +1702,7 @@
         <v>36</v>
       </c>
       <c r="AJ9" t="n">
-        <v>440</v>
+        <v>65</v>
       </c>
       <c r="AK9" t="n">
         <v>42</v>
@@ -1714,7 +1714,7 @@
         <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO9" t="n">
         <v>18.5</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="G10" t="n">
         <v>4.5</v>
@@ -1762,7 +1762,7 @@
         <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>1.35</v>
@@ -1771,7 +1771,7 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.25</v>
@@ -1783,13 +1783,13 @@
         <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
         <v>2.88</v>
       </c>
       <c r="T10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U10" t="n">
         <v>2.22</v>
@@ -1798,7 +1798,7 @@
         <v>1.98</v>
       </c>
       <c r="W10" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X10" t="n">
         <v>990</v>
@@ -1819,7 +1819,7 @@
         <v>42</v>
       </c>
       <c r="AD10" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
         <v>65</v>
@@ -1828,7 +1828,7 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>990</v>
+        <v>42</v>
       </c>
       <c r="AH10" t="n">
         <v>60</v>
@@ -1846,7 +1846,7 @@
         <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G11" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="I11" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
         <v>6.8</v>
@@ -1906,34 +1906,34 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="S11" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="T11" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="V11" t="n">
         <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X11" t="n">
         <v>32</v>
@@ -1942,49 +1942,49 @@
         <v>130</v>
       </c>
       <c r="Z11" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>300</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>9.6</v>
       </c>
-      <c r="AC11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>320</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI11" t="n">
+      <c r="AK11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM11" t="n">
         <v>230</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>240</v>
-      </c>
       <c r="AN11" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G12" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I12" t="n">
         <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
         <v>3.55</v>
@@ -2041,7 +2041,7 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O12" t="n">
         <v>1.32</v>
@@ -2056,73 +2056,73 @@
         <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W12" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AA12" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI12" t="n">
         <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AO12" t="n">
-        <v>36</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G13" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="H13" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
         <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
         <v>1.51</v>
@@ -2176,22 +2176,22 @@
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q13" t="n">
         <v>2.34</v>
       </c>
       <c r="R13" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T13" t="n">
         <v>2.4</v>
@@ -2203,7 +2203,7 @@
         <v>1.1</v>
       </c>
       <c r="W13" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
@@ -2248,7 +2248,7 @@
         <v>70</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H14" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J14" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
         <v>1.29</v>
@@ -2311,49 +2311,49 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O14" t="n">
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R14" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S14" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T14" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="U14" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="V14" t="n">
         <v>1.48</v>
       </c>
       <c r="W14" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X14" t="n">
         <v>26</v>
       </c>
       <c r="Y14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="n">
         <v>65</v>
       </c>
       <c r="AA14" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AB14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC14" t="n">
         <v>10.5</v>
@@ -2371,10 +2371,10 @@
         <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="n">
         <v>95</v>
@@ -2392,7 +2392,7 @@
         <v>12.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -2428,13 +2428,13 @@
         <v>13</v>
       </c>
       <c r="H15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I15" t="n">
         <v>1.34</v>
       </c>
-      <c r="I15" t="n">
-        <v>1.35</v>
-      </c>
       <c r="J15" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K15" t="n">
         <v>5.8</v>
@@ -2446,31 +2446,31 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="R15" t="n">
         <v>1.39</v>
       </c>
       <c r="S15" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T15" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U15" t="n">
         <v>1.65</v>
       </c>
       <c r="V15" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="W15" t="n">
         <v>1.08</v>
@@ -2488,7 +2488,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AB15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC15" t="n">
         <v>12.5</v>
@@ -2509,10 +2509,10 @@
         <v>40</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ15" t="n">
-        <v>740</v>
+        <v>640</v>
       </c>
       <c r="AK15" t="n">
         <v>300</v>
@@ -2524,7 +2524,7 @@
         <v>280</v>
       </c>
       <c r="AN15" t="n">
-        <v>510</v>
+        <v>430</v>
       </c>
       <c r="AO15" t="n">
         <v>6.6</v>
@@ -2563,13 +2563,13 @@
         <v>4.8</v>
       </c>
       <c r="H16" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="I16" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="J16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -2590,22 +2590,22 @@
         <v>3.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R16" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S16" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="T16" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="U16" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="V16" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="W16" t="n">
         <v>1.26</v>
@@ -2614,7 +2614,7 @@
         <v>38</v>
       </c>
       <c r="Y16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z16" t="n">
         <v>16.5</v>
@@ -2629,10 +2629,10 @@
         <v>13.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AF16" t="n">
         <v>44</v>
@@ -2656,13 +2656,13 @@
         <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="AN16" t="n">
         <v>28</v>
       </c>
       <c r="AO16" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="17">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G17" t="n">
         <v>2.74</v>
@@ -2701,13 +2701,13 @@
         <v>2.52</v>
       </c>
       <c r="I17" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
         <v>1.31</v>
@@ -2761,7 +2761,7 @@
         <v>16.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
         <v>13</v>
@@ -2779,16 +2779,16 @@
         <v>15.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ17" t="n">
         <v>240</v>
       </c>
       <c r="AK17" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="n">
         <v>580</v>
@@ -2830,7 +2830,7 @@
         <v>1.71</v>
       </c>
       <c r="G18" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H18" t="n">
         <v>5.6</v>
@@ -2878,7 +2878,7 @@
         <v>1.18</v>
       </c>
       <c r="W18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X18" t="n">
         <v>11.5</v>
@@ -2899,7 +2899,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G19" t="n">
         <v>2.62</v>
@@ -2971,7 +2971,7 @@
         <v>3.05</v>
       </c>
       <c r="I19" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J19" t="n">
         <v>3.4</v>
@@ -2980,7 +2980,7 @@
         <v>3.45</v>
       </c>
       <c r="L19" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -2992,13 +2992,13 @@
         <v>1.35</v>
       </c>
       <c r="P19" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q19" t="n">
         <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S19" t="n">
         <v>3.8</v>
@@ -3013,7 +3013,7 @@
         <v>1.47</v>
       </c>
       <c r="W19" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X19" t="n">
         <v>13</v>
@@ -3025,7 +3025,7 @@
         <v>19</v>
       </c>
       <c r="AA19" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB19" t="n">
         <v>10</v>
@@ -3034,7 +3034,7 @@
         <v>7.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
         <v>34</v>
@@ -3043,16 +3043,16 @@
         <v>16</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
         <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3100,10 +3100,10 @@
         <v>1.87</v>
       </c>
       <c r="G20" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H20" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I20" t="n">
         <v>5.4</v>
@@ -3127,10 +3127,10 @@
         <v>1.46</v>
       </c>
       <c r="P20" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R20" t="n">
         <v>1.25</v>
@@ -3139,7 +3139,7 @@
         <v>4.7</v>
       </c>
       <c r="T20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U20" t="n">
         <v>1.81</v>
@@ -3196,7 +3196,7 @@
         <v>50</v>
       </c>
       <c r="AM20" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN20" t="n">
         <v>17.5</v>
@@ -3235,7 +3235,7 @@
         <v>1.34</v>
       </c>
       <c r="G21" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H21" t="n">
         <v>11</v>
@@ -3244,10 +3244,10 @@
         <v>11.5</v>
       </c>
       <c r="J21" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L21" t="n">
         <v>1.35</v>
@@ -3262,31 +3262,31 @@
         <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R21" t="n">
         <v>1.48</v>
       </c>
       <c r="S21" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T21" t="n">
         <v>2.16</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V21" t="n">
         <v>1.09</v>
       </c>
       <c r="W21" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="X21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y21" t="n">
         <v>36</v>
@@ -3295,13 +3295,13 @@
         <v>110</v>
       </c>
       <c r="AA21" t="n">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
         <v>42</v>
@@ -3319,7 +3319,7 @@
         <v>32</v>
       </c>
       <c r="AI21" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AJ21" t="n">
         <v>10.5</v>
@@ -3331,10 +3331,10 @@
         <v>40</v>
       </c>
       <c r="AM21" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AO21" t="n">
         <v>280</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
         <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>2.22</v>
+        <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.97</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>2.68</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.61</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="W2" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="X2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>30</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="n">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="n">
-        <v>130</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="n">
-        <v>160</v>
+        <v>14.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="n">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="AK2" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM2" t="n">
         <v>200</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
       </c>
       <c r="AN2" t="n">
         <v>22</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G3" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
         <v>4.8</v>
       </c>
       <c r="I3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>4.1</v>
@@ -835,7 +835,7 @@
         <v>2.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R3" t="n">
         <v>1.5</v>
@@ -844,25 +844,25 @@
         <v>2.96</v>
       </c>
       <c r="T3" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W3" t="n">
         <v>2.24</v>
       </c>
-      <c r="V3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.26</v>
-      </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y3" t="n">
         <v>21</v>
       </c>
       <c r="Z3" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AA3" t="n">
         <v>160</v>
@@ -880,7 +880,7 @@
         <v>150</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
@@ -901,13 +901,13 @@
         <v>30</v>
       </c>
       <c r="AM3" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -937,94 +937,94 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>3.35</v>
       </c>
       <c r="G4" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="n">
-        <v>1.86</v>
+        <v>2.32</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>2.48</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L4" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
         <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="W4" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="X4" t="n">
         <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD4" t="n">
         <v>11.5</v>
       </c>
-      <c r="AA4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE4" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AF4" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
         <v>900</v>
@@ -1042,7 +1042,7 @@
         <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>19.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="I5" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1099,37 +1099,37 @@
         <v>3.55</v>
       </c>
       <c r="O5" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
         <v>1.87</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R5" t="n">
         <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T5" t="n">
         <v>2.16</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="V5" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="W5" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z5" t="n">
         <v>8.199999999999999</v>
@@ -1138,22 +1138,22 @@
         <v>14.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
         <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH5" t="n">
         <v>27</v>
@@ -1162,19 +1162,19 @@
         <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="AK5" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AL5" t="n">
-        <v>120</v>
+        <v>520</v>
       </c>
       <c r="AM5" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="AO5" t="n">
         <v>10.5</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="G6" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H6" t="n">
         <v>1.92</v>
       </c>
       <c r="I6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>3.85</v>
@@ -1237,25 +1237,25 @@
         <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U6" t="n">
         <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
         <v>1.26</v>
@@ -1267,7 +1267,7 @@
         <v>19</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
         <v>900</v>
@@ -1285,7 +1285,7 @@
         <v>65</v>
       </c>
       <c r="AF6" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="AO6" t="n">
         <v>55</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="G7" t="n">
         <v>1.3</v>
@@ -1354,7 +1354,7 @@
         <v>14.5</v>
       </c>
       <c r="J7" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="K7" t="n">
         <v>7.4</v>
@@ -1375,10 +1375,10 @@
         <v>2.84</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="S7" t="n">
         <v>2.22</v>
@@ -1387,19 +1387,19 @@
         <v>1.96</v>
       </c>
       <c r="U7" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V7" t="n">
         <v>1.07</v>
       </c>
       <c r="W7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="X7" t="n">
         <v>34</v>
       </c>
       <c r="Y7" t="n">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1414,7 +1414,7 @@
         <v>16</v>
       </c>
       <c r="AD7" t="n">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1477,70 +1477,70 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="I8" t="n">
         <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
         <v>3.95</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="T8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U8" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="V8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W8" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="X8" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="n">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="AB8" t="n">
         <v>11.5</v>
@@ -1549,40 +1549,40 @@
         <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>13.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
         <v>980</v>
       </c>
       <c r="AJ8" t="n">
-        <v>900</v>
+        <v>44</v>
       </c>
       <c r="AK8" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G9" t="n">
         <v>3.65</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3.75</v>
       </c>
       <c r="H9" t="n">
         <v>2.24</v>
@@ -1624,10 +1624,10 @@
         <v>2.26</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
         <v>1.39</v>
@@ -1639,31 +1639,31 @@
         <v>4.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
         <v>2.08</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S9" t="n">
         <v>3.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U9" t="n">
         <v>2.32</v>
       </c>
       <c r="V9" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
@@ -1681,7 +1681,7 @@
         <v>15.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
         <v>11</v>
@@ -1702,7 +1702,7 @@
         <v>36</v>
       </c>
       <c r="AJ9" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AK9" t="n">
         <v>42</v>
@@ -1714,16 +1714,16 @@
         <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO9" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FK Napredak</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FK Radnicki 1923</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.1</v>
+        <v>1.24</v>
       </c>
       <c r="G10" t="n">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="H10" t="n">
-        <v>1.95</v>
+        <v>15</v>
       </c>
       <c r="I10" t="n">
-        <v>2.02</v>
+        <v>16</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>7.2</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.22</v>
+        <v>2.72</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="S10" t="n">
-        <v>2.88</v>
+        <v>2.36</v>
       </c>
       <c r="T10" t="n">
-        <v>1.69</v>
+        <v>2.08</v>
       </c>
       <c r="U10" t="n">
-        <v>2.22</v>
+        <v>1.79</v>
       </c>
       <c r="V10" t="n">
-        <v>1.98</v>
+        <v>1.06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.28</v>
+        <v>4.8</v>
       </c>
       <c r="X10" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y10" t="n">
         <v>990</v>
       </c>
-      <c r="Y10" t="n">
-        <v>21</v>
-      </c>
       <c r="Z10" t="n">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="AA10" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>990</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>42</v>
+        <v>16.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="AE10" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="AF10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AO10" t="n">
         <v>1000</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>FK Napredak</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>FK Radnicki 1923</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>1.26</v>
+        <v>4.5</v>
       </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>1.95</v>
       </c>
       <c r="I11" t="n">
-        <v>16</v>
+        <v>2.02</v>
       </c>
       <c r="J11" t="n">
-        <v>6.8</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
-        <v>7.6</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.28</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W11" t="n">
-        <v>4.8</v>
-      </c>
       <c r="X11" t="n">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="Y11" t="n">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="AA11" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>990</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF11" t="n">
         <v>1000</v>
       </c>
-      <c r="AB11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD11" t="n">
+      <c r="AG11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO11" t="n">
         <v>55</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>300</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>220</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H12" t="n">
         <v>2.94</v>
@@ -2041,7 +2041,7 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O12" t="n">
         <v>1.32</v>
@@ -2056,7 +2056,7 @@
         <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T12" t="n">
         <v>1.73</v>
@@ -2071,10 +2071,10 @@
         <v>1.58</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
         <v>46</v>
@@ -2092,7 +2092,7 @@
         <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AF12" t="n">
         <v>17</v>
@@ -2119,7 +2119,7 @@
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>40</v>
+        <v>600</v>
       </c>
       <c r="AO12" t="n">
         <v>600</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G13" t="n">
         <v>1.58</v>
@@ -2176,13 +2176,13 @@
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q13" t="n">
         <v>2.34</v>
@@ -2191,10 +2191,10 @@
         <v>1.23</v>
       </c>
       <c r="S13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U13" t="n">
         <v>1.58</v>
@@ -2311,28 +2311,28 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O14" t="n">
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R14" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T14" t="n">
         <v>1.51</v>
       </c>
       <c r="U14" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="V14" t="n">
         <v>1.48</v>
@@ -2350,7 +2350,7 @@
         <v>65</v>
       </c>
       <c r="AA14" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="AB14" t="n">
         <v>18</v>
@@ -2389,7 +2389,7 @@
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO14" t="n">
         <v>17</v>
@@ -2425,109 +2425,109 @@
         <v>12.5</v>
       </c>
       <c r="G15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I15" t="n">
         <v>1.33</v>
       </c>
-      <c r="I15" t="n">
-        <v>1.34</v>
-      </c>
       <c r="J15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K15" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R15" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T15" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="U15" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V15" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Z15" t="n">
         <v>6.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AB15" t="n">
         <v>32</v>
       </c>
       <c r="AC15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
         <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF15" t="n">
         <v>130</v>
       </c>
       <c r="AG15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH15" t="n">
         <v>40</v>
       </c>
       <c r="AI15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>640</v>
+        <v>750</v>
       </c>
       <c r="AK15" t="n">
+        <v>320</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>250</v>
+      </c>
+      <c r="AM15" t="n">
         <v>300</v>
       </c>
-      <c r="AL15" t="n">
-        <v>240</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>280</v>
-      </c>
       <c r="AN15" t="n">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="AO15" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="16">
@@ -2557,31 +2557,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G16" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K16" t="n">
         <v>4.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5</v>
       </c>
       <c r="L16" t="n">
         <v>1.25</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O16" t="n">
         <v>1.14</v>
@@ -2605,40 +2605,40 @@
         <v>2.7</v>
       </c>
       <c r="V16" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="W16" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="X16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z16" t="n">
         <v>16.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB16" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
         <v>16</v>
       </c>
       <c r="AF16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG16" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
         <v>16</v>
@@ -2647,7 +2647,7 @@
         <v>24</v>
       </c>
       <c r="AJ16" t="n">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="AK16" t="n">
         <v>44</v>
@@ -2767,13 +2767,13 @@
         <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AF17" t="n">
         <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
         <v>15.5</v>
@@ -2785,7 +2785,7 @@
         <v>240</v>
       </c>
       <c r="AK17" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AL17" t="n">
         <v>80</v>
@@ -2794,7 +2794,7 @@
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO17" t="n">
         <v>15.5</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G18" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H18" t="n">
         <v>5.6</v>
@@ -2842,34 +2842,34 @@
         <v>3.45</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O18" t="n">
         <v>1.42</v>
       </c>
       <c r="P18" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q18" t="n">
         <v>2.26</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S18" t="n">
         <v>4.3</v>
       </c>
       <c r="T18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U18" t="n">
         <v>1.75</v>
@@ -2878,7 +2878,7 @@
         <v>1.18</v>
       </c>
       <c r="W18" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X18" t="n">
         <v>11.5</v>
@@ -2992,10 +2992,10 @@
         <v>1.35</v>
       </c>
       <c r="P19" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R19" t="n">
         <v>1.34</v>
@@ -3004,7 +3004,7 @@
         <v>3.8</v>
       </c>
       <c r="T19" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U19" t="n">
         <v>2.16</v>
@@ -3028,7 +3028,7 @@
         <v>48</v>
       </c>
       <c r="AB19" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC19" t="n">
         <v>7.4</v>
@@ -3046,10 +3046,10 @@
         <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ19" t="n">
         <v>38</v>
@@ -3064,7 +3064,7 @@
         <v>90</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
         <v>34</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G20" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="H20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I20" t="n">
         <v>5.3</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.4</v>
       </c>
       <c r="J20" t="n">
         <v>3.55</v>
       </c>
       <c r="K20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L20" t="n">
         <v>1.52</v>
@@ -3127,25 +3127,25 @@
         <v>1.46</v>
       </c>
       <c r="P20" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S20" t="n">
         <v>4.7</v>
       </c>
       <c r="T20" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U20" t="n">
         <v>1.81</v>
       </c>
       <c r="V20" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W20" t="n">
         <v>2.12</v>
@@ -3166,7 +3166,7 @@
         <v>7</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
         <v>21</v>
@@ -3184,7 +3184,7 @@
         <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="n">
         <v>19.5</v>
@@ -3238,10 +3238,10 @@
         <v>1.35</v>
       </c>
       <c r="H21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I21" t="n">
         <v>11</v>
-      </c>
-      <c r="I21" t="n">
-        <v>11.5</v>
       </c>
       <c r="J21" t="n">
         <v>6</v>
@@ -3256,31 +3256,31 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R21" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T21" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U21" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V21" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W21" t="n">
         <v>3.85</v>
@@ -3289,13 +3289,13 @@
         <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z21" t="n">
         <v>110</v>
       </c>
       <c r="AA21" t="n">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="AB21" t="n">
         <v>8.4</v>
@@ -3304,19 +3304,19 @@
         <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE21" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AF21" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI21" t="n">
         <v>160</v>
@@ -3325,19 +3325,154 @@
         <v>10.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL21" t="n">
         <v>40</v>
       </c>
       <c r="AM21" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>280</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>17:45:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Lusitania Futebol Clube</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Oliveirense</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.16</v>
+        <v>4.6</v>
       </c>
       <c r="G2" t="n">
-        <v>2.24</v>
+        <v>4.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3.75</v>
+        <v>5.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>1.68</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>1.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="W2" t="n">
-        <v>1.76</v>
+        <v>1.25</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN2" t="n">
         <v>32</v>
       </c>
-      <c r="AA2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>22</v>
-      </c>
       <c r="AO2" t="n">
-        <v>220</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="H3" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="S3" t="n">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="T3" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U3" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V3" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="X3" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD3" t="n">
         <v>21</v>
       </c>
-      <c r="Z3" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>19</v>
-      </c>
       <c r="AE3" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH3" t="n">
         <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM3" t="n">
         <v>85</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="AO3" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="H4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I4" t="n">
         <v>2.32</v>
       </c>
-      <c r="I4" t="n">
-        <v>2.48</v>
-      </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.51</v>
@@ -961,76 +961,76 @@
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
         <v>4.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U4" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="V4" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="W4" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AA4" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF4" t="n">
         <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>120</v>
       </c>
       <c r="AJ4" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AK4" t="n">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="AL4" t="n">
         <v>290</v>
@@ -1042,7 +1042,7 @@
         <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G5" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.55</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.56</v>
       </c>
       <c r="J5" t="n">
         <v>4.5</v>
@@ -1090,19 +1090,19 @@
         <v>4.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q5" t="n">
         <v>2.06</v>
@@ -1111,37 +1111,37 @@
         <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="T5" t="n">
         <v>2.16</v>
       </c>
       <c r="U5" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V5" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="W5" t="n">
         <v>1.15</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y5" t="n">
         <v>7.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB5" t="n">
         <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
         <v>10</v>
@@ -1153,31 +1153,31 @@
         <v>65</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
         <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AK5" t="n">
         <v>140</v>
       </c>
       <c r="AL5" t="n">
-        <v>520</v>
+        <v>140</v>
       </c>
       <c r="AM5" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN5" t="n">
         <v>200</v>
       </c>
-      <c r="AN5" t="n">
-        <v>210</v>
-      </c>
       <c r="AO5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G6" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -1231,13 +1231,13 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q6" t="n">
         <v>2.06</v>
@@ -1246,10 +1246,10 @@
         <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T6" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="n">
         <v>2</v>
@@ -1258,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1273,10 +1273,10 @@
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
         <v>40</v>
@@ -1345,7 +1345,7 @@
         <v>1.26</v>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H7" t="n">
         <v>13</v>
@@ -1354,7 +1354,7 @@
         <v>14.5</v>
       </c>
       <c r="J7" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="K7" t="n">
         <v>7.4</v>
@@ -1363,34 +1363,34 @@
         <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="R7" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="S7" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
         <v>1.96</v>
       </c>
       <c r="U7" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W7" t="n">
         <v>4.3</v>
@@ -1399,7 +1399,7 @@
         <v>34</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1411,10 +1411,10 @@
         <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1426,7 +1426,7 @@
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1480,109 +1480,109 @@
         <v>2.02</v>
       </c>
       <c r="G8" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="S8" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="T8" t="n">
         <v>1.62</v>
       </c>
       <c r="U8" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V8" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="W8" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AA8" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
         <v>16</v>
       </c>
-      <c r="AE8" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17</v>
-      </c>
       <c r="AI8" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ8" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO8" t="n">
         <v>32</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -1615,16 +1615,16 @@
         <v>3.6</v>
       </c>
       <c r="G9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I9" t="n">
         <v>2.26</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
         <v>3.65</v>
@@ -1636,7 +1636,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
@@ -1645,25 +1645,25 @@
         <v>2.08</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R9" t="n">
         <v>1.42</v>
       </c>
       <c r="S9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T9" t="n">
         <v>1.72</v>
       </c>
       <c r="U9" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="W9" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
@@ -1675,25 +1675,25 @@
         <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC9" t="n">
         <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE9" t="n">
         <v>22</v>
       </c>
       <c r="AF9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH9" t="n">
         <v>16.5</v>
@@ -1702,7 +1702,7 @@
         <v>36</v>
       </c>
       <c r="AJ9" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="n">
         <v>42</v>
@@ -1711,13 +1711,13 @@
         <v>50</v>
       </c>
       <c r="AM9" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="G10" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="I10" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="J10" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="R10" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="S10" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="T10" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="U10" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="V10" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="W10" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="X10" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y10" t="n">
-        <v>990</v>
+        <v>44</v>
       </c>
       <c r="Z10" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>710</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
         <v>16.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AE10" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AG10" t="n">
         <v>11.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AI10" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO10" t="n">
         <v>220</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G11" t="n">
         <v>4</v>
       </c>
-      <c r="G11" t="n">
-        <v>4.5</v>
-      </c>
       <c r="H11" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="I11" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="J11" t="n">
         <v>3.7</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -1909,7 +1909,7 @@
         <v>4.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
         <v>2.22</v>
@@ -1921,73 +1921,73 @@
         <v>1.46</v>
       </c>
       <c r="S11" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T11" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="U11" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="W11" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="X11" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z11" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="n">
-        <v>900</v>
+        <v>65</v>
       </c>
       <c r="AB11" t="n">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="AC11" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AG11" t="n">
         <v>42</v>
       </c>
       <c r="AH11" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK11" t="n">
         <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM11" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -2020,19 +2020,19 @@
         <v>2.6</v>
       </c>
       <c r="G12" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H12" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.41</v>
@@ -2041,7 +2041,7 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O12" t="n">
         <v>1.32</v>
@@ -2059,13 +2059,13 @@
         <v>3.45</v>
       </c>
       <c r="T12" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V12" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W12" t="n">
         <v>1.58</v>
@@ -2080,7 +2080,7 @@
         <v>46</v>
       </c>
       <c r="AA12" t="n">
-        <v>900</v>
+        <v>290</v>
       </c>
       <c r="AB12" t="n">
         <v>11</v>
@@ -2095,34 +2095,34 @@
         <v>95</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AG12" t="n">
         <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AJ12" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL12" t="n">
         <v>980</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN12" t="n">
-        <v>600</v>
+        <v>40</v>
       </c>
       <c r="AO12" t="n">
-        <v>600</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -2158,7 +2158,7 @@
         <v>1.58</v>
       </c>
       <c r="H13" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
         <v>11</v>
@@ -2167,7 +2167,7 @@
         <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.51</v>
@@ -2182,7 +2182,7 @@
         <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q13" t="n">
         <v>2.34</v>
@@ -2191,16 +2191,16 @@
         <v>1.23</v>
       </c>
       <c r="S13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T13" t="n">
         <v>2.38</v>
       </c>
       <c r="U13" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W13" t="n">
         <v>2.72</v>
@@ -2209,7 +2209,7 @@
         <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,13 +2218,13 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>6.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
@@ -2233,7 +2233,7 @@
         <v>16</v>
       </c>
       <c r="AG13" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
@@ -2242,7 +2242,7 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="AK13" t="n">
         <v>70</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G14" t="n">
         <v>2.52</v>
       </c>
       <c r="H14" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="I14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
         <v>3.9</v>
@@ -2317,22 +2317,22 @@
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R14" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="S14" t="n">
         <v>2.34</v>
       </c>
       <c r="T14" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="U14" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="V14" t="n">
         <v>1.48</v>
@@ -2347,10 +2347,10 @@
         <v>20</v>
       </c>
       <c r="Z14" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AA14" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="AB14" t="n">
         <v>18</v>
@@ -2374,16 +2374,16 @@
         <v>15.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="G15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H15" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="I15" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="J15" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="K15" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.4</v>
@@ -2446,88 +2446,88 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S15" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="T15" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="U15" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="V15" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="W15" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AA15" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AB15" t="n">
         <v>32</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AG15" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH15" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ15" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="AK15" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="AL15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AM15" t="n">
         <v>250</v>
       </c>
-      <c r="AM15" t="n">
-        <v>300</v>
-      </c>
       <c r="AN15" t="n">
-        <v>480</v>
+        <v>370</v>
       </c>
       <c r="AO15" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2557,58 +2557,58 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="G16" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="I16" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="J16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K16" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.14</v>
       </c>
       <c r="P16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="R16" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S16" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="T16" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="U16" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="V16" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="W16" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="X16" t="n">
         <v>36</v>
@@ -2617,13 +2617,13 @@
         <v>17</v>
       </c>
       <c r="Z16" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA16" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC16" t="n">
         <v>13</v>
@@ -2635,13 +2635,13 @@
         <v>16</v>
       </c>
       <c r="AF16" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI16" t="n">
         <v>24</v>
@@ -2650,19 +2650,19 @@
         <v>310</v>
       </c>
       <c r="AK16" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AL16" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM16" t="n">
         <v>55</v>
       </c>
       <c r="AN16" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AO16" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="17">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G17" t="n">
         <v>2.74</v>
       </c>
       <c r="H17" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I17" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K17" t="n">
         <v>4.3</v>
@@ -2716,31 +2716,31 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R17" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S17" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T17" t="n">
         <v>1.54</v>
       </c>
       <c r="U17" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="V17" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="W17" t="n">
         <v>1.57</v>
@@ -2761,13 +2761,13 @@
         <v>16.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
         <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF17" t="n">
         <v>22</v>
@@ -2779,25 +2779,25 @@
         <v>15.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AJ17" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AK17" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AL17" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AM17" t="n">
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -2827,64 +2827,64 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="G18" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="H18" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I18" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
         <v>3.45</v>
       </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P18" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S18" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U18" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
         <v>1.18</v>
       </c>
       <c r="W18" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X18" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="Y18" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
         <v>980</v>
@@ -2893,43 +2893,43 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.800000000000001</v>
+        <v>42</v>
       </c>
       <c r="AD18" t="n">
-        <v>75</v>
+        <v>990</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>60</v>
+        <v>990</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G19" t="n">
         <v>2.6</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.62</v>
       </c>
       <c r="H19" t="n">
         <v>3.05</v>
@@ -2974,10 +2974,10 @@
         <v>3.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K19" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L19" t="n">
         <v>1.46</v>
@@ -2998,28 +2998,28 @@
         <v>2.08</v>
       </c>
       <c r="R19" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S19" t="n">
         <v>3.8</v>
       </c>
       <c r="T19" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U19" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V19" t="n">
         <v>1.47</v>
       </c>
       <c r="W19" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X19" t="n">
         <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
         <v>19</v>
@@ -3034,13 +3034,13 @@
         <v>7.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG19" t="n">
         <v>12</v>
@@ -3055,10 +3055,10 @@
         <v>38</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="n">
         <v>90</v>
@@ -3067,7 +3067,7 @@
         <v>24</v>
       </c>
       <c r="AO19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G20" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I20" t="n">
         <v>5.2</v>
       </c>
-      <c r="I20" t="n">
-        <v>5.3</v>
-      </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
         <v>3.65</v>
       </c>
       <c r="L20" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M20" t="n">
         <v>1.1</v>
@@ -3124,19 +3124,19 @@
         <v>3.05</v>
       </c>
       <c r="O20" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P20" t="n">
         <v>1.69</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R20" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S20" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T20" t="n">
         <v>2.16</v>
@@ -3145,16 +3145,16 @@
         <v>1.81</v>
       </c>
       <c r="V20" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W20" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="X20" t="n">
         <v>10.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z20" t="n">
         <v>38</v>
@@ -3184,22 +3184,22 @@
         <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK20" t="n">
         <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM20" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN20" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO20" t="n">
         <v>130</v>
@@ -3253,28 +3253,28 @@
         <v>1.35</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
         <v>2.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R21" t="n">
         <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T21" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U21" t="n">
         <v>1.81</v>
@@ -3304,7 +3304,7 @@
         <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="n">
         <v>190</v>
@@ -3316,7 +3316,7 @@
         <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI21" t="n">
         <v>160</v>
@@ -3325,19 +3325,19 @@
         <v>10.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM21" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AO21" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G22" t="n">
         <v>1.9</v>
       </c>
       <c r="H22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I22" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J22" t="n">
         <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
         <v>1.43</v>
@@ -3397,31 +3397,31 @@
         <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R22" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S22" t="n">
         <v>3.6</v>
       </c>
       <c r="T22" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="U22" t="n">
         <v>1.98</v>
       </c>
       <c r="V22" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W22" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X22" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="Y22" t="n">
         <v>980</v>
@@ -3433,7 +3433,7 @@
         <v>140</v>
       </c>
       <c r="AB22" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC22" t="n">
         <v>9</v>
@@ -3469,7 +3469,7 @@
         <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AO22" t="n">
         <v>85</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Menemen Belediyespor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1461 Trabzon</t>
+          <t>Gaziantep FK</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.6</v>
+        <v>1.69</v>
       </c>
       <c r="G2" t="n">
-        <v>4.9</v>
+        <v>1.71</v>
       </c>
       <c r="H2" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="I2" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J2" t="n">
-        <v>1.68</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="V2" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.89</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>6.6</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>6.2</v>
+        <v>27</v>
       </c>
       <c r="AM2" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>32</v>
+        <v>7.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>FK Sumqayit</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Gaziantep FK</t>
+          <t>FC Sabah</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.67</v>
+        <v>4.9</v>
       </c>
       <c r="G3" t="n">
-        <v>1.69</v>
+        <v>5.3</v>
       </c>
       <c r="H3" t="n">
-        <v>5.6</v>
+        <v>1.88</v>
       </c>
       <c r="I3" t="n">
-        <v>5.8</v>
+        <v>1.95</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>5.1</v>
+        <v>2.9</v>
       </c>
       <c r="O3" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.23</v>
       </c>
-      <c r="P3" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.46</v>
-      </c>
       <c r="X3" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG3" t="n">
         <v>22</v>
       </c>
-      <c r="Y3" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AH3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>790</v>
+      </c>
+      <c r="AN3" t="n">
         <v>140</v>
       </c>
-      <c r="AB3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AO3" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FK Sumqayit</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FC Sabah</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.65</v>
+        <v>6.6</v>
       </c>
       <c r="G4" t="n">
-        <v>4.1</v>
+        <v>7.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="I4" t="n">
-        <v>2.32</v>
+        <v>1.63</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="T4" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.75</v>
+        <v>2.58</v>
       </c>
       <c r="W4" t="n">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Y4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z4" t="n">
         <v>8.4</v>
       </c>
-      <c r="Z4" t="n">
-        <v>14</v>
-      </c>
       <c r="AA4" t="n">
-        <v>30</v>
+        <v>15.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>28</v>
+        <v>18.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>220</v>
+      </c>
+      <c r="AK4" t="n">
         <v>120</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>60</v>
       </c>
       <c r="AL4" t="n">
         <v>290</v>
       </c>
       <c r="AM4" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AN4" t="n">
-        <v>600</v>
+        <v>170</v>
       </c>
       <c r="AO4" t="n">
-        <v>25</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>A.E.L.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="G5" t="n">
-        <v>7.8</v>
+        <v>4.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.53</v>
+        <v>1.96</v>
       </c>
       <c r="I5" t="n">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="O5" t="n">
         <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T5" t="n">
-        <v>2.16</v>
+        <v>1.84</v>
       </c>
       <c r="U5" t="n">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="X5" t="n">
-        <v>15.5</v>
+        <v>990</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.2</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC5" t="n">
         <v>14</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AD5" t="n">
         <v>21</v>
       </c>
-      <c r="AC5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>10</v>
-      </c>
       <c r="AE5" t="n">
-        <v>17.5</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AI5" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>320</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>330</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN5" t="n">
         <v>280</v>
       </c>
-      <c r="AK5" t="n">
-        <v>140</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>140</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>200</v>
-      </c>
       <c r="AO5" t="n">
-        <v>9.800000000000001</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A.E.L.</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Ethnikos Achnas</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.2</v>
+        <v>1.22</v>
       </c>
       <c r="G6" t="n">
-        <v>4.7</v>
+        <v>1.25</v>
       </c>
       <c r="H6" t="n">
-        <v>1.96</v>
+        <v>14.5</v>
       </c>
       <c r="I6" t="n">
+        <v>17</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T6" t="n">
         <v>2</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>180</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>930</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
         <v>3.7</v>
       </c>
-      <c r="T6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X6" t="n">
-        <v>990</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>320</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>330</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>280</v>
-      </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Bodrum Belediyesi Bodru</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ethnikos Achnas</t>
+          <t>Amed Sportif Faaliyetle</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.26</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="H7" t="n">
-        <v>13</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="P7" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD7" t="n">
         <v>14.5</v>
       </c>
-      <c r="J7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="AE7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO7" t="n">
         <v>34</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bodrum Belediyesi Bodru</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetle</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.02</v>
+        <v>3.5</v>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>2.24</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>2.28</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>2.34</v>
+        <v>2.06</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="S8" t="n">
-        <v>2.72</v>
+        <v>3.25</v>
       </c>
       <c r="T8" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.34</v>
+        <v>1.78</v>
       </c>
       <c r="W8" t="n">
-        <v>1.92</v>
+        <v>1.38</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>30</v>
+        <v>14.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>900</v>
+        <v>29</v>
       </c>
       <c r="AB8" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK8" t="n">
         <v>40</v>
       </c>
-      <c r="AF8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI8" t="n">
+      <c r="AL8" t="n">
         <v>48</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
       <c r="AM8" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AO8" t="n">
-        <v>32</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.6</v>
+        <v>1.26</v>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>1.29</v>
       </c>
       <c r="H9" t="n">
-        <v>2.22</v>
+        <v>14.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.26</v>
+        <v>15.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>6.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>7.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.07</v>
       </c>
-      <c r="N9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.79</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.37</v>
+        <v>4.4</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="Y9" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>740</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG9" t="n">
         <v>11</v>
       </c>
-      <c r="Z9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH9" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="AJ9" t="n">
-        <v>100</v>
+        <v>9.6</v>
       </c>
       <c r="AK9" t="n">
-        <v>42</v>
+        <v>13.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="AN9" t="n">
-        <v>42</v>
+        <v>4.3</v>
       </c>
       <c r="AO9" t="n">
-        <v>16</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>FK Napredak</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>FK Radnicki 1923</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.27</v>
+        <v>3.5</v>
       </c>
       <c r="G10" t="n">
-        <v>1.29</v>
+        <v>3.75</v>
       </c>
       <c r="H10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y10" t="n">
         <v>11.5</v>
       </c>
-      <c r="I10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="X10" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>44</v>
-      </c>
       <c r="Z10" t="n">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>710</v>
+        <v>900</v>
       </c>
       <c r="AB10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD10" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG10" t="n">
         <v>16.5</v>
       </c>
-      <c r="AD10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI10" t="n">
         <v>32</v>
       </c>
-      <c r="AI10" t="n">
-        <v>180</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>10.5</v>
+        <v>75</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.4</v>
+        <v>38</v>
       </c>
       <c r="AO10" t="n">
-        <v>220</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FK Napredak</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FK Radnicki 1923</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.65</v>
       </c>
-      <c r="G11" t="n">
-        <v>4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
         <v>4.1</v>
       </c>
-      <c r="L11" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.5</v>
-      </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="R11" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="S11" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="T11" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>1.9</v>
+        <v>1.48</v>
       </c>
       <c r="W11" t="n">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z11" t="n">
         <v>22</v>
       </c>
-      <c r="Z11" t="n">
-        <v>40</v>
-      </c>
       <c r="AA11" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AF11" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="AG11" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
         <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
-        <v>900</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL11" t="n">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.6</v>
+        <v>1.51</v>
       </c>
       <c r="G12" t="n">
-        <v>2.74</v>
+        <v>1.58</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>7.8</v>
       </c>
       <c r="I12" t="n">
-        <v>3.05</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.9</v>
+        <v>2.98</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>1.96</v>
+        <v>1.66</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.96</v>
+        <v>2.34</v>
       </c>
       <c r="R12" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>2.38</v>
       </c>
       <c r="U12" t="n">
-        <v>2.22</v>
+        <v>1.71</v>
       </c>
       <c r="V12" t="n">
-        <v>1.49</v>
+        <v>1.11</v>
       </c>
       <c r="W12" t="n">
-        <v>1.58</v>
+        <v>2.72</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>6.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>17.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>380</v>
       </c>
       <c r="AM12" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AO12" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.52</v>
+        <v>2.4</v>
       </c>
       <c r="G13" t="n">
-        <v>1.58</v>
+        <v>2.48</v>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>3.05</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.51</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>2.98</v>
+        <v>5.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.65</v>
       </c>
-      <c r="Q13" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.23</v>
-      </c>
       <c r="S13" t="n">
-        <v>4.5</v>
+        <v>2.36</v>
       </c>
       <c r="T13" t="n">
-        <v>2.38</v>
+        <v>1.56</v>
       </c>
       <c r="U13" t="n">
-        <v>1.62</v>
+        <v>2.62</v>
       </c>
       <c r="V13" t="n">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
-        <v>2.72</v>
+        <v>1.68</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y13" t="n">
-        <v>990</v>
+        <v>20</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB13" t="n">
-        <v>6.2</v>
+        <v>18</v>
       </c>
       <c r="AC13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO13" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>380</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.4</v>
+        <v>10.5</v>
       </c>
       <c r="G14" t="n">
-        <v>2.52</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>2.86</v>
+        <v>1.36</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>1.37</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>5.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>2.66</v>
+        <v>2.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.55</v>
+        <v>1.94</v>
       </c>
       <c r="R14" t="n">
-        <v>1.66</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
-        <v>2.34</v>
+        <v>3.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.56</v>
+        <v>2.36</v>
       </c>
       <c r="U14" t="n">
-        <v>2.62</v>
+        <v>1.7</v>
       </c>
       <c r="V14" t="n">
-        <v>1.48</v>
+        <v>3.7</v>
       </c>
       <c r="W14" t="n">
-        <v>1.66</v>
+        <v>1.1</v>
       </c>
       <c r="X14" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>20</v>
+        <v>7.2</v>
       </c>
       <c r="Z14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG14" t="n">
         <v>42</v>
       </c>
-      <c r="AA14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
       <c r="AH14" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="AI14" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AJ14" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AK14" t="n">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="AL14" t="n">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>230</v>
       </c>
       <c r="AN14" t="n">
-        <v>13</v>
+        <v>360</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>11.5</v>
+        <v>5.1</v>
       </c>
       <c r="G15" t="n">
-        <v>12</v>
+        <v>5.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1.37</v>
+        <v>1.63</v>
       </c>
       <c r="I15" t="n">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="J15" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="K15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="P15" t="n">
-        <v>2.02</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.94</v>
+        <v>1.43</v>
       </c>
       <c r="R15" t="n">
-        <v>1.39</v>
+        <v>1.89</v>
       </c>
       <c r="S15" t="n">
-        <v>3.45</v>
+        <v>2.08</v>
       </c>
       <c r="T15" t="n">
-        <v>2.4</v>
+        <v>1.52</v>
       </c>
       <c r="U15" t="n">
-        <v>1.68</v>
+        <v>2.66</v>
       </c>
       <c r="V15" t="n">
-        <v>3.65</v>
+        <v>2.46</v>
       </c>
       <c r="W15" t="n">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.2</v>
+        <v>16</v>
       </c>
       <c r="Z15" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AA15" t="n">
-        <v>10.5</v>
+        <v>70</v>
       </c>
       <c r="AB15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
         <v>12.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH15" t="n">
         <v>16</v>
       </c>
-      <c r="AF15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>38</v>
-      </c>
       <c r="AI15" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="AJ15" t="n">
-        <v>550</v>
+        <v>130</v>
       </c>
       <c r="AK15" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="AL15" t="n">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="AM15" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>370</v>
+        <v>32</v>
       </c>
       <c r="AO15" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="16">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.8</v>
+        <v>2.56</v>
       </c>
       <c r="G16" t="n">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="H16" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.66</v>
       </c>
-      <c r="I16" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.86</v>
-      </c>
       <c r="S16" t="n">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="T16" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U16" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="V16" t="n">
-        <v>2.4</v>
+        <v>1.59</v>
       </c>
       <c r="W16" t="n">
-        <v>1.23</v>
+        <v>1.59</v>
       </c>
       <c r="X16" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Y16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.5</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AC16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD16" t="n">
         <v>13</v>
       </c>
-      <c r="AD16" t="n">
-        <v>12</v>
-      </c>
       <c r="AE16" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="AF16" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="AJ16" t="n">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="AK16" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM16" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>5.6</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.62</v>
+        <v>1.78</v>
       </c>
       <c r="G17" t="n">
-        <v>2.74</v>
+        <v>1.87</v>
       </c>
       <c r="H17" t="n">
-        <v>2.5</v>
+        <v>5.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2.58</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.2</v>
       </c>
-      <c r="P17" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.63</v>
-      </c>
       <c r="W17" t="n">
-        <v>1.57</v>
+        <v>2.14</v>
       </c>
       <c r="X17" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AA17" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>16.5</v>
+        <v>7</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="AE17" t="n">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>15.5</v>
+        <v>50</v>
       </c>
       <c r="AI17" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="AK17" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="AL17" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.75</v>
+        <v>2.58</v>
       </c>
       <c r="G18" t="n">
-        <v>1.84</v>
+        <v>2.6</v>
       </c>
       <c r="H18" t="n">
-        <v>5.5</v>
+        <v>3.05</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="J18" t="n">
         <v>3.45</v>
       </c>
       <c r="K18" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="R18" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="S18" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="T18" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>2.16</v>
       </c>
       <c r="V18" t="n">
-        <v>1.18</v>
+        <v>1.48</v>
       </c>
       <c r="W18" t="n">
-        <v>2.18</v>
+        <v>1.62</v>
       </c>
       <c r="X18" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>42</v>
+        <v>7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>990</v>
+        <v>13.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>990</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN18" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.58</v>
+        <v>1.92</v>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>1.93</v>
       </c>
       <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N19" t="n">
         <v>3.05</v>
       </c>
-      <c r="I19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L19" t="n">
+      <c r="O19" t="n">
         <v>1.46</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.35</v>
-      </c>
       <c r="P19" t="n">
-        <v>1.9</v>
+        <v>1.69</v>
       </c>
       <c r="Q19" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W19" t="n">
         <v>2.08</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.62</v>
-      </c>
       <c r="X19" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL19" t="n">
         <v>48</v>
       </c>
-      <c r="AB19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>40</v>
-      </c>
       <c r="AM19" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.9</v>
+        <v>1.34</v>
       </c>
       <c r="G20" t="n">
-        <v>1.91</v>
+        <v>1.35</v>
       </c>
       <c r="H20" t="n">
-        <v>5.1</v>
+        <v>11</v>
       </c>
       <c r="I20" t="n">
-        <v>5.2</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
       <c r="K20" t="n">
-        <v>3.65</v>
+        <v>5.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>3.05</v>
+        <v>4.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>1.69</v>
+        <v>2.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.42</v>
+        <v>1.74</v>
       </c>
       <c r="R20" t="n">
-        <v>1.24</v>
+        <v>1.49</v>
       </c>
       <c r="S20" t="n">
-        <v>4.8</v>
+        <v>2.92</v>
       </c>
       <c r="T20" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U20" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="W20" t="n">
-        <v>2.08</v>
+        <v>3.85</v>
       </c>
       <c r="X20" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>430</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>20</v>
-      </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AM20" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN20" t="n">
-        <v>18.5</v>
+        <v>5.8</v>
       </c>
       <c r="AO20" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,256 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.34</v>
+        <v>1.86</v>
       </c>
       <c r="G21" t="n">
-        <v>1.35</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
-        <v>10.5</v>
+        <v>4.6</v>
       </c>
       <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG21" t="n">
         <v>11</v>
       </c>
-      <c r="J21" t="n">
-        <v>6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N21" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W21" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="X21" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>450</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>10</v>
-      </c>
       <c r="AH21" t="n">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="AI21" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AK21" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.9</v>
+        <v>980</v>
       </c>
       <c r="AO21" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Portuguese Segunda Liga</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>17:45:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Lusitania Futebol Clube</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Oliveirense</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X22" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="H2" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="I2" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>2.4</v>
+        <v>500</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.4</v>
+        <v>1.01</v>
       </c>
       <c r="AO2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="I3" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="J3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N3" t="n">
         <v>3.45</v>
       </c>
-      <c r="K3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.9</v>
-      </c>
       <c r="O3" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.46</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="S3" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V3" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="W3" t="n">
         <v>1.23</v>
       </c>
       <c r="X3" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AB3" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG3" t="n">
         <v>25</v>
       </c>
-      <c r="AF3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>22</v>
-      </c>
       <c r="AH3" t="n">
-        <v>27</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
         <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AK3" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AL3" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AM3" t="n">
-        <v>790</v>
+        <v>180</v>
       </c>
       <c r="AN3" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
         <v>1.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="J4" t="n">
         <v>4.2</v>
@@ -955,37 +955,37 @@
         <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S4" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="T4" t="n">
         <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V4" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="W4" t="n">
         <v>1.16</v>
@@ -994,25 +994,25 @@
         <v>14.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>55</v>
@@ -1030,19 +1030,19 @@
         <v>220</v>
       </c>
       <c r="AK4" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL4" t="n">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c r="AM4" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>170</v>
+        <v>420</v>
       </c>
       <c r="AO4" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G5" t="n">
         <v>4.7</v>
@@ -1084,37 +1084,37 @@
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P5" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R5" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S5" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="T5" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="U5" t="n">
         <v>2</v>
@@ -1126,40 +1126,40 @@
         <v>1.27</v>
       </c>
       <c r="X5" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>19</v>
+        <v>8.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AA5" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AB5" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG5" t="n">
         <v>21</v>
       </c>
-      <c r="AE5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>990</v>
-      </c>
       <c r="AH5" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="n">
         <v>900</v>
@@ -1168,7 +1168,7 @@
         <v>320</v>
       </c>
       <c r="AL5" t="n">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="AM5" t="n">
         <v>580</v>
@@ -1177,7 +1177,7 @@
         <v>280</v>
       </c>
       <c r="AO5" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -1210,19 +1210,19 @@
         <v>1.22</v>
       </c>
       <c r="G6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H6" t="n">
         <v>14.5</v>
       </c>
       <c r="I6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="J6" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="K6" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.25</v>
@@ -1231,13 +1231,13 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="Q6" t="n">
         <v>1.45</v>
@@ -1246,46 +1246,46 @@
         <v>1.79</v>
       </c>
       <c r="S6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V6" t="n">
         <v>1.06</v>
       </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="X6" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Z6" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>930</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
         <v>11.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AE6" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG6" t="n">
         <v>11.5</v>
@@ -1297,13 +1297,13 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL6" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>3.7</v>
       </c>
       <c r="AO6" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,67 +1342,67 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="G7" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H7" t="n">
         <v>3.35</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="T7" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="U7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W7" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X7" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA7" t="n">
         <v>65</v>
@@ -1417,7 +1417,7 @@
         <v>14.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="n">
         <v>15.5</v>
@@ -1435,19 +1435,19 @@
         <v>65</v>
       </c>
       <c r="AK7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
         <v>32</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="G8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K8" t="n">
         <v>3.6</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1510,55 +1510,55 @@
         <v>2.06</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R8" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S8" t="n">
         <v>3.25</v>
       </c>
       <c r="T8" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V8" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="W8" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AB8" t="n">
         <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
         <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
         <v>16.5</v>
@@ -1567,22 +1567,22 @@
         <v>36</v>
       </c>
       <c r="AJ8" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AK8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO8" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.26</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.29</v>
-      </c>
       <c r="H9" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="I9" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="J9" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="K9" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.28</v>
@@ -1636,88 +1636,88 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R9" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="S9" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T9" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="V9" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="W9" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="X9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y9" t="n">
         <v>55</v>
       </c>
       <c r="Z9" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AA9" t="n">
-        <v>740</v>
+        <v>810</v>
       </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE9" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AI9" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK9" t="n">
         <v>13.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="AO9" t="n">
-        <v>310</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I10" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="R10" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="T10" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="U10" t="n">
         <v>2.16</v>
       </c>
       <c r="V10" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="W10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>900</v>
+        <v>28</v>
       </c>
       <c r="AB10" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD10" t="n">
         <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="AG10" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH10" t="n">
         <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AL10" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="11">
@@ -1888,10 +1888,10 @@
         <v>2.6</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
@@ -1900,67 +1900,67 @@
         <v>3.65</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="R11" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="V11" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W11" t="n">
         <v>1.62</v>
       </c>
       <c r="X11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AB11" t="n">
         <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
         <v>13.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="AF11" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
@@ -1969,25 +1969,25 @@
         <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
         <v>95</v>
       </c>
       <c r="AK11" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AL11" t="n">
         <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AO11" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G12" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="H12" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.51</v>
@@ -2041,13 +2041,13 @@
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P12" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q12" t="n">
         <v>2.34</v>
@@ -2062,19 +2062,19 @@
         <v>2.38</v>
       </c>
       <c r="U12" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="V12" t="n">
         <v>1.11</v>
       </c>
       <c r="W12" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,22 +2083,22 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG12" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>23</v>
       </c>
       <c r="AH12" t="n">
         <v>1000</v>
@@ -2113,7 +2113,7 @@
         <v>65</v>
       </c>
       <c r="AL12" t="n">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2161,19 +2161,19 @@
         <v>2.9</v>
       </c>
       <c r="I13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
         <v>1.29</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
         <v>5.7</v>
@@ -2182,25 +2182,25 @@
         <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T13" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="U13" t="n">
         <v>2.62</v>
       </c>
       <c r="V13" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W13" t="n">
         <v>1.68</v>
@@ -2227,7 +2227,7 @@
         <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AF13" t="n">
         <v>20</v>
@@ -2236,7 +2236,7 @@
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
         <v>70</v>
@@ -2245,13 +2245,13 @@
         <v>60</v>
       </c>
       <c r="AK13" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AL13" t="n">
         <v>46</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>90</v>
       </c>
       <c r="AN13" t="n">
         <v>12.5</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" t="n">
         <v>10.5</v>
       </c>
-      <c r="G14" t="n">
-        <v>11</v>
-      </c>
       <c r="H14" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="I14" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="J14" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="K14" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.4</v>
@@ -2314,28 +2314,28 @@
         <v>4.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="R14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T14" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="U14" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V14" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="W14" t="n">
         <v>1.1</v>
@@ -2344,19 +2344,19 @@
         <v>18.5</v>
       </c>
       <c r="Y14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z14" t="n">
         <v>7.2</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>7</v>
       </c>
       <c r="AA14" t="n">
         <v>10.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
         <v>10.5</v>
@@ -2368,7 +2368,7 @@
         <v>110</v>
       </c>
       <c r="AG14" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AH14" t="n">
         <v>34</v>
@@ -2377,19 +2377,19 @@
         <v>46</v>
       </c>
       <c r="AJ14" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="AK14" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AL14" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AM14" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AN14" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="AO14" t="n">
         <v>6.8</v>
@@ -2425,109 +2425,109 @@
         <v>5.1</v>
       </c>
       <c r="G15" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H15" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="I15" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="J15" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>3.2</v>
+        <v>2.66</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="R15" t="n">
-        <v>1.89</v>
+        <v>1.69</v>
       </c>
       <c r="S15" t="n">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="U15" t="n">
-        <v>2.66</v>
+        <v>2.44</v>
       </c>
       <c r="V15" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="W15" t="n">
         <v>1.22</v>
       </c>
       <c r="X15" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Y15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="AB15" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AC15" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
         <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ15" t="n">
         <v>130</v>
       </c>
       <c r="AK15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL15" t="n">
         <v>55</v>
       </c>
-      <c r="AL15" t="n">
-        <v>46</v>
-      </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AO15" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="16">
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G16" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H16" t="n">
         <v>2.56</v>
@@ -2581,7 +2581,7 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
         <v>1.18</v>
@@ -2596,16 +2596,16 @@
         <v>1.66</v>
       </c>
       <c r="S16" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T16" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U16" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="V16" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W16" t="n">
         <v>1.59</v>
@@ -2617,7 +2617,7 @@
         <v>17.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA16" t="n">
         <v>70</v>
@@ -2632,10 +2632,10 @@
         <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG16" t="n">
         <v>13</v>
@@ -2650,7 +2650,7 @@
         <v>120</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="AL16" t="n">
         <v>48</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="G17" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>5.1</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J17" t="n">
         <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L17" t="n">
         <v>1.51</v>
@@ -2719,13 +2719,13 @@
         <v>3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P17" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R17" t="n">
         <v>1.24</v>
@@ -2734,16 +2734,16 @@
         <v>4.4</v>
       </c>
       <c r="T17" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U17" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="V17" t="n">
         <v>1.2</v>
       </c>
       <c r="W17" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="X17" t="n">
         <v>11</v>
@@ -2752,7 +2752,7 @@
         <v>15.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
@@ -2764,10 +2764,10 @@
         <v>8.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="AE17" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
         <v>10.5</v>
@@ -2776,16 +2776,16 @@
         <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AK17" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AL17" t="n">
         <v>55</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G18" t="n">
         <v>2.58</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.6</v>
       </c>
       <c r="H18" t="n">
         <v>3.05</v>
@@ -2845,58 +2845,58 @@
         <v>3.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R18" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S18" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="U18" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
         <v>1.48</v>
       </c>
       <c r="W18" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X18" t="n">
         <v>13.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB18" t="n">
         <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
         <v>13.5</v>
@@ -2905,16 +2905,16 @@
         <v>32</v>
       </c>
       <c r="AF18" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG18" t="n">
         <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ18" t="n">
         <v>36</v>
@@ -2929,7 +2929,7 @@
         <v>85</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>32</v>
@@ -2962,37 +2962,37 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G19" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H19" t="n">
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.55</v>
       </c>
       <c r="L19" t="n">
         <v>1.54</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N19" t="n">
         <v>3.05</v>
       </c>
       <c r="O19" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P19" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q19" t="n">
         <v>2.42</v>
@@ -3004,28 +3004,28 @@
         <v>4.8</v>
       </c>
       <c r="T19" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U19" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V19" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W19" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X19" t="n">
         <v>10</v>
       </c>
       <c r="Y19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z19" t="n">
         <v>36</v>
       </c>
       <c r="AA19" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB19" t="n">
         <v>7.2</v>
@@ -3046,16 +3046,16 @@
         <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>48</v>
@@ -3064,10 +3064,10 @@
         <v>160</v>
       </c>
       <c r="AN19" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO19" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20">
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="G20" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="H20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I20" t="n">
         <v>11</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12</v>
       </c>
       <c r="J20" t="n">
         <v>5.7</v>
@@ -3115,58 +3115,58 @@
         <v>5.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P20" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="R20" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="S20" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="T20" t="n">
         <v>2.14</v>
       </c>
       <c r="U20" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V20" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W20" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y20" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="Z20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA20" t="n">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD20" t="n">
         <v>40</v>
@@ -3178,7 +3178,7 @@
         <v>7.6</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH20" t="n">
         <v>32</v>
@@ -3193,16 +3193,16 @@
         <v>14.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="H21" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K21" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L21" t="n">
         <v>1.43</v>
@@ -3271,19 +3271,19 @@
         <v>1.33</v>
       </c>
       <c r="S21" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T21" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U21" t="n">
         <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
         <v>15</v>
@@ -3295,13 +3295,13 @@
         <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB21" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD21" t="n">
         <v>990</v>
@@ -3319,22 +3319,22 @@
         <v>990</v>
       </c>
       <c r="AI21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AK21" t="n">
         <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM21" t="n">
         <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>80</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Gaziantep FK</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>150</v>
       </c>
       <c r="G2" t="n">
-        <v>1.01</v>
+        <v>360</v>
       </c>
       <c r="H2" t="n">
-        <v>1000</v>
+        <v>1.07</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>1.08</v>
       </c>
       <c r="J2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,67 +691,67 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="V2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.01</v>
       </c>
-      <c r="W2" t="n">
-        <v>500</v>
-      </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>1.91</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -769,16 +769,16 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.01</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FK Sumqayit</t>
+          <t>A.E.L.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FC Sabah</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.1</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>5.4</v>
+        <v>22</v>
       </c>
       <c r="H3" t="n">
-        <v>1.81</v>
+        <v>1.3</v>
       </c>
       <c r="I3" t="n">
-        <v>1.85</v>
+        <v>1.32</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="R3" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="S3" t="n">
+        <v>6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V3" t="n">
         <v>4.1</v>
       </c>
-      <c r="T3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.14</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.23</v>
+        <v>1.05</v>
       </c>
       <c r="X3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AA3" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>24</v>
-      </c>
       <c r="AB3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>36</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AJ3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="AL3" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="AM3" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Ethnikos Achnas</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6.8</v>
+        <v>1.1</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>1.11</v>
       </c>
       <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" t="n">
+        <v>60</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.6</v>
       </c>
-      <c r="I4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.85</v>
-      </c>
       <c r="V4" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.16</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.6</v>
+        <v>22</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>5.8</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="n">
-        <v>42</v>
+        <v>360</v>
       </c>
       <c r="AJ4" t="n">
-        <v>220</v>
+        <v>6.4</v>
       </c>
       <c r="AK4" t="n">
-        <v>110</v>
+        <v>13.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>370</v>
       </c>
       <c r="AN4" t="n">
-        <v>420</v>
+        <v>3.9</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A.E.L.</t>
+          <t>Bodrum Belediyesi Bodru</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Amed Sportif Faaliyetle</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.3</v>
+        <v>2.56</v>
       </c>
       <c r="G5" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L5" t="n">
         <v>4.7</v>
       </c>
-      <c r="H5" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.45</v>
-      </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="N5" t="n">
-        <v>3.4</v>
+        <v>2.16</v>
       </c>
       <c r="O5" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.37</v>
       </c>
-      <c r="P5" t="n">
-        <v>1.82</v>
-      </c>
       <c r="Q5" t="n">
-        <v>2.14</v>
+        <v>3.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.31</v>
+        <v>1.11</v>
       </c>
       <c r="S5" t="n">
-        <v>3.95</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>1.92</v>
+        <v>2.46</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27</v>
+        <v>1.61</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>6.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z5" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>6.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="AF5" t="n">
-        <v>38</v>
+        <v>13.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AJ5" t="n">
-        <v>900</v>
+        <v>55</v>
       </c>
       <c r="AK5" t="n">
-        <v>320</v>
+        <v>70</v>
       </c>
       <c r="AL5" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>280</v>
+        <v>95</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ethnikos Achnas</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="G6" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="H6" t="n">
+        <v>19</v>
+      </c>
+      <c r="I6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AL6" t="n">
         <v>14.5</v>
       </c>
-      <c r="I6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="X6" t="n">
-        <v>38</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>42</v>
-      </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bodrum Belediyesi Bodru</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetle</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.12</v>
+        <v>2.8</v>
       </c>
       <c r="G7" t="n">
-        <v>2.22</v>
+        <v>2.88</v>
       </c>
       <c r="H7" t="n">
-        <v>3.35</v>
+        <v>2.72</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>2.26</v>
+        <v>1.98</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
-        <v>2.86</v>
+        <v>3.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="U7" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V7" t="n">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="W7" t="n">
-        <v>1.81</v>
+        <v>1.52</v>
       </c>
       <c r="X7" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF7" t="n">
         <v>19</v>
       </c>
-      <c r="Y7" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AG7" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11</v>
-      </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.35</v>
+        <v>1.23</v>
       </c>
       <c r="G8" t="n">
-        <v>3.45</v>
+        <v>1.24</v>
       </c>
       <c r="H8" t="n">
-        <v>2.34</v>
+        <v>15.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.36</v>
+        <v>17</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>7.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>7.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.06</v>
+        <v>2.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="S8" t="n">
-        <v>3.25</v>
+        <v>2.46</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>2.22</v>
       </c>
       <c r="U8" t="n">
-        <v>2.32</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.72</v>
+        <v>1.06</v>
       </c>
       <c r="W8" t="n">
-        <v>1.41</v>
+        <v>5.1</v>
       </c>
       <c r="X8" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.5</v>
+        <v>180</v>
       </c>
       <c r="AA8" t="n">
-        <v>32</v>
+        <v>950</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>300</v>
+      </c>
+      <c r="AF8" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>24</v>
-      </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>38</v>
       </c>
       <c r="AI8" t="n">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="AJ8" t="n">
-        <v>60</v>
+        <v>9.4</v>
       </c>
       <c r="AK8" t="n">
-        <v>38</v>
+        <v>13.5</v>
       </c>
       <c r="AL8" t="n">
         <v>44</v>
       </c>
       <c r="AM8" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AN8" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>FK Napredak</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>FK Radnicki 1923</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.24</v>
+        <v>4.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.26</v>
+        <v>4.8</v>
       </c>
       <c r="H9" t="n">
-        <v>16</v>
+        <v>1.88</v>
       </c>
       <c r="I9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG9" t="n">
         <v>19</v>
       </c>
-      <c r="J9" t="n">
-        <v>7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W9" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="X9" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>170</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>810</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD9" t="n">
+      <c r="AH9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>190</v>
+      </c>
+      <c r="AK9" t="n">
         <v>60</v>
       </c>
-      <c r="AE9" t="n">
-        <v>300</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>210</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AL9" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AM9" t="n">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>470</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,123 +1733,123 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FK Napredak</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FK Radnicki 1923</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.55</v>
+        <v>2.28</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>2.44</v>
       </c>
       <c r="H10" t="n">
-        <v>2.06</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.16</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K10" t="n">
         <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>3.95</v>
+        <v>6.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>2.72</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.92</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>3.35</v>
+        <v>2.28</v>
       </c>
       <c r="T10" t="n">
-        <v>1.77</v>
+        <v>1.49</v>
       </c>
       <c r="U10" t="n">
-        <v>2.16</v>
+        <v>2.72</v>
       </c>
       <c r="V10" t="n">
-        <v>1.86</v>
+        <v>1.44</v>
       </c>
       <c r="W10" t="n">
-        <v>1.33</v>
+        <v>1.7</v>
       </c>
       <c r="X10" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>13.5</v>
+        <v>44</v>
       </c>
       <c r="AA10" t="n">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="AB10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD10" t="n">
         <v>15</v>
       </c>
-      <c r="AC10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AF10" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="AK10" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
         <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO10" t="n">
         <v>16.5</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Cascavel PR</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>Maringa</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.54</v>
+        <v>1.88</v>
       </c>
       <c r="G11" t="n">
-        <v>2.6</v>
+        <v>34</v>
       </c>
       <c r="H11" t="n">
-        <v>2.98</v>
+        <v>1.69</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>34</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="O11" t="n">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="S11" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="W11" t="n">
-        <v>1.62</v>
+        <v>1.35</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2020,40 +2020,40 @@
         <v>1.5</v>
       </c>
       <c r="G12" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="H12" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O12" t="n">
         <v>1.45</v>
       </c>
       <c r="P12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R12" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S12" t="n">
         <v>4.5</v>
@@ -2062,19 +2062,19 @@
         <v>2.38</v>
       </c>
       <c r="U12" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V12" t="n">
         <v>1.11</v>
       </c>
       <c r="W12" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>990</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,10 +2083,10 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD12" t="n">
         <v>100</v>
@@ -2095,22 +2095,22 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>13.5</v>
+        <v>7.4</v>
       </c>
       <c r="AG12" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="n">
         <v>170</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.4</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>2.48</v>
+        <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>2.9</v>
+        <v>1.37</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>1.38</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>5.3</v>
       </c>
       <c r="K13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
         <v>4.1</v>
       </c>
-      <c r="L13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.7</v>
-      </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="P13" t="n">
-        <v>2.62</v>
+        <v>2.06</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.54</v>
+        <v>1.91</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="S13" t="n">
-        <v>2.38</v>
+        <v>3.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.54</v>
+        <v>2.34</v>
       </c>
       <c r="U13" t="n">
-        <v>2.62</v>
+        <v>1.72</v>
       </c>
       <c r="V13" t="n">
-        <v>1.48</v>
+        <v>3.6</v>
       </c>
       <c r="W13" t="n">
-        <v>1.68</v>
+        <v>1.09</v>
       </c>
       <c r="X13" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>20</v>
+        <v>7.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="AA13" t="n">
-        <v>150</v>
+        <v>10.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD13" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD13" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AE13" t="n">
-        <v>30</v>
+        <v>15.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AJ13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="AL13" t="n">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="AM13" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="AN13" t="n">
-        <v>12.5</v>
+        <v>310</v>
       </c>
       <c r="AO13" t="n">
-        <v>17.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X14" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC14" t="n">
         <v>10</v>
       </c>
-      <c r="G14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>12</v>
-      </c>
       <c r="AD14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AG14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN14" t="n">
         <v>40</v>
       </c>
-      <c r="AH14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>460</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>180</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>310</v>
-      </c>
       <c r="AO14" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="15">
@@ -2413,34 +2413,34 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.1</v>
+        <v>2.64</v>
       </c>
       <c r="G15" t="n">
-        <v>5.5</v>
+        <v>2.72</v>
       </c>
       <c r="H15" t="n">
-        <v>1.66</v>
+        <v>2.52</v>
       </c>
       <c r="I15" t="n">
-        <v>1.7</v>
+        <v>2.56</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K15" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2452,88 +2452,88 @@
         <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q15" t="n">
         <v>1.56</v>
       </c>
       <c r="R15" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
         <v>2.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="U15" t="n">
-        <v>2.44</v>
+        <v>2.78</v>
       </c>
       <c r="V15" t="n">
-        <v>2.42</v>
+        <v>1.64</v>
       </c>
       <c r="W15" t="n">
-        <v>1.22</v>
+        <v>1.58</v>
       </c>
       <c r="X15" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK15" t="n">
         <v>26</v>
       </c>
-      <c r="Y15" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>60</v>
-      </c>
       <c r="AL15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM15" t="n">
         <v>55</v>
       </c>
-      <c r="AM15" t="n">
-        <v>70</v>
-      </c>
       <c r="AN15" t="n">
-        <v>48</v>
+        <v>13.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>6.8</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.58</v>
+        <v>1.79</v>
       </c>
       <c r="G16" t="n">
-        <v>2.68</v>
+        <v>1.87</v>
       </c>
       <c r="H16" t="n">
-        <v>2.56</v>
+        <v>5.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.68</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>1.51</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="P16" t="n">
-        <v>2.66</v>
+        <v>1.66</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.56</v>
+        <v>2.34</v>
       </c>
       <c r="R16" t="n">
-        <v>1.66</v>
+        <v>1.24</v>
       </c>
       <c r="S16" t="n">
-        <v>2.46</v>
+        <v>4.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="U16" t="n">
-        <v>2.7</v>
+        <v>1.76</v>
       </c>
       <c r="V16" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="W16" t="n">
-        <v>1.59</v>
+        <v>2.14</v>
       </c>
       <c r="X16" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AO16" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.76</v>
+        <v>2.6</v>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>2.62</v>
       </c>
       <c r="H17" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>6.2</v>
+        <v>3.05</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
         <v>3.9</v>
       </c>
-      <c r="L17" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3</v>
-      </c>
       <c r="O17" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>1.66</v>
+        <v>1.98</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="S17" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="T17" t="n">
-        <v>2.1</v>
+        <v>1.81</v>
       </c>
       <c r="U17" t="n">
-        <v>1.74</v>
+        <v>2.22</v>
       </c>
       <c r="V17" t="n">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="W17" t="n">
-        <v>2.1</v>
+        <v>1.61</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB17" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>24</v>
+        <v>13.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF17" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AK17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL17" t="n">
         <v>38</v>
       </c>
-      <c r="AL17" t="n">
-        <v>55</v>
-      </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,25 +2818,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.56</v>
+        <v>1.92</v>
       </c>
       <c r="G18" t="n">
-        <v>2.58</v>
+        <v>1.94</v>
       </c>
       <c r="H18" t="n">
-        <v>3.05</v>
+        <v>5.1</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="J18" t="n">
         <v>3.45</v>
@@ -2845,100 +2845,100 @@
         <v>3.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="O18" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="P18" t="n">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.02</v>
+        <v>2.42</v>
       </c>
       <c r="R18" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="S18" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="U18" t="n">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="V18" t="n">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
       <c r="W18" t="n">
-        <v>1.63</v>
+        <v>2.06</v>
       </c>
       <c r="X18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y18" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y18" t="n">
-        <v>12</v>
-      </c>
       <c r="Z18" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="AC18" t="n">
         <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="n">
-        <v>16</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AJ18" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AK18" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM18" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.93</v>
+        <v>1.36</v>
       </c>
       <c r="G19" t="n">
-        <v>1.94</v>
+        <v>1.37</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>10.5</v>
       </c>
       <c r="I19" t="n">
-        <v>5.1</v>
+        <v>11.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.45</v>
+        <v>5.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>5.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S19" t="n">
         <v>3.05</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4.8</v>
-      </c>
       <c r="T19" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U19" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V19" t="n">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="W19" t="n">
-        <v>2.06</v>
+        <v>3.7</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.5</v>
+        <v>32</v>
       </c>
       <c r="Z19" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AA19" t="n">
-        <v>130</v>
+        <v>470</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.8</v>
+        <v>12</v>
       </c>
       <c r="AD19" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AE19" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AF19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG19" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AG19" t="n">
-        <v>11</v>
-      </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AI19" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="AJ19" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AN19" t="n">
-        <v>19</v>
+        <v>6.2</v>
       </c>
       <c r="AO19" t="n">
-        <v>140</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,256 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="F20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O20" t="n">
         <v>1.36</v>
       </c>
-      <c r="G20" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="P20" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG20" t="n">
         <v>11</v>
       </c>
-      <c r="J20" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="X20" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>460</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10</v>
-      </c>
       <c r="AH20" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10.5</v>
+        <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AN20" t="n">
-        <v>6.4</v>
+        <v>18.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Portuguese Segunda Liga</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>17:45:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Lusitania Futebol Clube</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Oliveirense</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W21" t="n">
-        <v>2</v>
-      </c>
-      <c r="X21" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>150</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>360</v>
+        <v>1.05</v>
       </c>
       <c r="H2" t="n">
-        <v>1.07</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
-        <v>1.08</v>
+        <v>990</v>
       </c>
       <c r="J2" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="K2" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="O2" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="P2" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="R2" t="n">
         <v>1.01</v>
@@ -709,58 +709,58 @@
         <v>50</v>
       </c>
       <c r="T2" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="U2" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="V2" t="n">
-        <v>13.5</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>19</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.91</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>1.88</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AD2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>440</v>
+        <v>55</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,16 +769,16 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AO2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A.E.L.</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>22</v>
+        <v>1.01</v>
       </c>
       <c r="H3" t="n">
-        <v>1.3</v>
+        <v>1000</v>
       </c>
       <c r="I3" t="n">
-        <v>1.32</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,94 +826,94 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>2.22</v>
+        <v>17</v>
       </c>
       <c r="U3" t="n">
-        <v>1.77</v>
+        <v>1.05</v>
       </c>
       <c r="V3" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.05</v>
+        <v>500</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>1.01</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>FK Napredak</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ethnikos Achnas</t>
+          <t>FK Radnicki 1923</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.1</v>
+        <v>55</v>
       </c>
       <c r="G4" t="n">
+        <v>380</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.11</v>
       </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
       <c r="I4" t="n">
-        <v>60</v>
+        <v>1.15</v>
       </c>
       <c r="J4" t="n">
-        <v>12.5</v>
+        <v>7.8</v>
       </c>
       <c r="K4" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,35 +961,35 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>10.5</v>
+        <v>1.36</v>
       </c>
       <c r="O4" t="n">
-        <v>1.09</v>
+        <v>3.6</v>
       </c>
       <c r="P4" t="n">
-        <v>2.96</v>
+        <v>1.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.49</v>
+        <v>23</v>
       </c>
       <c r="R4" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="S4" t="n">
-        <v>2.48</v>
+        <v>160</v>
       </c>
       <c r="T4" t="n">
-        <v>2.52</v>
+        <v>5.8</v>
       </c>
       <c r="U4" t="n">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="V4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.01</v>
       </c>
-      <c r="W4" t="n">
-        <v>10</v>
-      </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
@@ -1003,43 +1003,43 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bodrum Belediyesi Bodru</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetle</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.56</v>
+        <v>1.16</v>
       </c>
       <c r="G5" t="n">
-        <v>2.64</v>
+        <v>1.18</v>
       </c>
       <c r="H5" t="n">
-        <v>3.55</v>
+        <v>46</v>
       </c>
       <c r="I5" t="n">
-        <v>3.65</v>
+        <v>60</v>
       </c>
       <c r="J5" t="n">
-        <v>2.92</v>
+        <v>7.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.05</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.16</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.82</v>
+        <v>1.42</v>
       </c>
       <c r="P5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.37</v>
       </c>
-      <c r="Q5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="S5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.53</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.61</v>
+        <v>6.4</v>
       </c>
       <c r="X5" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.2</v>
+        <v>3.15</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.5</v>
+        <v>3.85</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>55</v>
+        <v>10.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AL5" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AO5" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,87 +1193,87 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Cascavel PR</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Maringa</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="G6" t="n">
-        <v>1.23</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="I6" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>7.6</v>
+        <v>2.66</v>
       </c>
       <c r="K6" t="n">
-        <v>8</v>
+        <v>750</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>6.6</v>
+        <v>1.19</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
-        <v>2.26</v>
+        <v>1.06</v>
       </c>
       <c r="S6" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="T6" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>2.82</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
         <v>1000</v>
@@ -1285,40 +1285,40 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.2</v>
+        <v>46</v>
       </c>
       <c r="AG6" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.8</v>
+        <v>2.56</v>
       </c>
       <c r="G7" t="n">
-        <v>2.88</v>
+        <v>2.64</v>
       </c>
       <c r="H7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J7" t="n">
         <v>2.72</v>
       </c>
-      <c r="I7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.45</v>
-      </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>2.82</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.07</v>
       </c>
-      <c r="N7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.37</v>
-      </c>
       <c r="S7" t="n">
-        <v>3.5</v>
+        <v>13.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.76</v>
+        <v>3.1</v>
       </c>
       <c r="U7" t="n">
-        <v>2.24</v>
+        <v>1.42</v>
       </c>
       <c r="V7" t="n">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>5.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="Z7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG7" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>55</v>
       </c>
       <c r="AI7" t="n">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="AJ7" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
         <v>110</v>
       </c>
-      <c r="AN7" t="n">
-        <v>29</v>
-      </c>
       <c r="AO7" t="n">
-        <v>29</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.23</v>
+        <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>1.24</v>
+        <v>36</v>
       </c>
       <c r="H8" t="n">
-        <v>15.5</v>
+        <v>1.19</v>
       </c>
       <c r="I8" t="n">
-        <v>17</v>
+        <v>1.2</v>
       </c>
       <c r="J8" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="K8" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V8" t="n">
         <v>6</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.06</v>
-      </c>
       <c r="W8" t="n">
-        <v>5.1</v>
+        <v>1.02</v>
       </c>
       <c r="X8" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>55</v>
+        <v>4.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>180</v>
+        <v>4.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>950</v>
+        <v>8.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
-        <v>300</v>
+        <v>19.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>50</v>
       </c>
       <c r="AH8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>13.5</v>
+        <v>420</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="AM8" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>570</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FK Napredak</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FK Radnicki 1923</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>4.8</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>1.88</v>
+        <v>1.39</v>
       </c>
       <c r="I9" t="n">
-        <v>1.91</v>
+        <v>1.41</v>
       </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>8.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>2.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="S9" t="n">
-        <v>3.4</v>
+        <v>2.78</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="U9" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="W9" t="n">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="X9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH9" t="n">
         <v>17</v>
       </c>
-      <c r="Y9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
       <c r="AI9" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AL9" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="n">
         <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.28</v>
+        <v>6.6</v>
       </c>
       <c r="G10" t="n">
-        <v>2.44</v>
+        <v>7.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>1.61</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>1.63</v>
       </c>
       <c r="J10" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="S10" t="n">
-        <v>2.28</v>
+        <v>1.14</v>
       </c>
       <c r="T10" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1.44</v>
+        <v>2.66</v>
       </c>
       <c r="W10" t="n">
-        <v>1.7</v>
+        <v>1.14</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>8.4</v>
       </c>
       <c r="AE10" t="n">
-        <v>30</v>
+        <v>7.8</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM10" t="n">
         <v>14.5</v>
       </c>
-      <c r="AI10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>200</v>
-      </c>
       <c r="AN10" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>16.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cascavel PR</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Maringa</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="G11" t="n">
-        <v>34</v>
+        <v>1.87</v>
       </c>
       <c r="H11" t="n">
-        <v>1.69</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>34</v>
+        <v>6.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="N11" t="n">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="P11" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>2.94</v>
       </c>
       <c r="R11" t="n">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="S11" t="n">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="V11" t="n">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="W11" t="n">
-        <v>1.35</v>
+        <v>2.16</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>USM Alger</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>1.54</v>
+        <v>2.72</v>
       </c>
       <c r="H12" t="n">
-        <v>9.199999999999999</v>
+        <v>2.88</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="J12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
         <v>4</v>
       </c>
-      <c r="K12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.05</v>
-      </c>
       <c r="O12" t="n">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.36</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="S12" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.38</v>
+        <v>1.77</v>
       </c>
       <c r="U12" t="n">
-        <v>1.62</v>
+        <v>2.28</v>
       </c>
       <c r="V12" t="n">
-        <v>1.11</v>
+        <v>1.52</v>
       </c>
       <c r="W12" t="n">
-        <v>2.82</v>
+        <v>1.58</v>
       </c>
       <c r="X12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y12" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM12" t="n">
         <v>80</v>
       </c>
-      <c r="Z12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>170</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG13" t="n">
         <v>11</v>
       </c>
-      <c r="G13" t="n">
-        <v>12</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>40</v>
-      </c>
       <c r="AH13" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="n">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="n">
-        <v>310</v>
+        <v>17.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.6</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.6</v>
+        <v>1.36</v>
       </c>
       <c r="G14" t="n">
-        <v>4.9</v>
+        <v>1.37</v>
       </c>
       <c r="H14" t="n">
-        <v>1.78</v>
+        <v>10.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.82</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.52</v>
+        <v>2.22</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="R14" t="n">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="S14" t="n">
-        <v>2.54</v>
+        <v>2.98</v>
       </c>
       <c r="T14" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="U14" t="n">
-        <v>2.46</v>
+        <v>1.88</v>
       </c>
       <c r="V14" t="n">
-        <v>2.22</v>
+        <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>1.26</v>
+        <v>3.7</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.5</v>
+        <v>32</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="AA14" t="n">
-        <v>20</v>
+        <v>540</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG14" t="n">
         <v>10</v>
       </c>
-      <c r="AD14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF14" t="n">
+      <c r="AH14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL14" t="n">
         <v>40</v>
       </c>
-      <c r="AG14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>48</v>
-      </c>
       <c r="AM14" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.4</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,800 +2408,125 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.64</v>
+        <v>2.08</v>
       </c>
       <c r="G15" t="n">
-        <v>2.72</v>
+        <v>2.14</v>
       </c>
       <c r="H15" t="n">
-        <v>2.52</v>
+        <v>3.95</v>
       </c>
       <c r="I15" t="n">
-        <v>2.56</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>3.55</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>2.68</v>
+        <v>1.87</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.56</v>
+        <v>2.06</v>
       </c>
       <c r="R15" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="S15" t="n">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="T15" t="n">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="U15" t="n">
-        <v>2.78</v>
+        <v>2.08</v>
       </c>
       <c r="V15" t="n">
-        <v>1.64</v>
+        <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>1.58</v>
+        <v>1.87</v>
       </c>
       <c r="X15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z15" t="n">
         <v>29</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AA15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN15" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AO15" t="n">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Italian Serie C</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Union Brescia</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Inter Milan (Res)</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="X16" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Fulham</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Nottm Forest</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="X17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Spanish La Liga</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Athletic Bilbao</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Espanyol</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="X18" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>17:45:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Famalicao</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="H19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N19" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="X19" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>470</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Portuguese Segunda Liga</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>17:45:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Lusitania Futebol Clube</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Oliveirense</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="X20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO20" t="n">
         <v>60</v>
       </c>
     </row>
